--- a/report/excel/parsing_report.xlsx
+++ b/report/excel/parsing_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>link_current_vacancy</t>
   </si>
@@ -31,6 +31,12 @@
     <t>mex</t>
   </si>
   <si>
+    <t>has_been_added_to_db</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>check_link</t>
   </si>
   <si>
@@ -49,12 +55,6 @@
     <t>found_vacancy_link</t>
   </si>
   <si>
-    <t>has_been_added_to_db</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>not_contacts</t>
   </si>
   <si>
@@ -64,107 +64,242 @@
     <t>profession</t>
   </si>
   <si>
-    <t>https://remotehub.com/jobs/details/net-fullstack-developer-2023vrpo0411-jr26549-643baee3edae3a1f266966b2</t>
-  </si>
-  <si>
-    <t>https://remote-job.ru/vacancy/show/516815/kontent-menedzher</t>
-  </si>
-  <si>
-    <t>https://hh.kz/vacancy/78462183</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/79255269</t>
-  </si>
-  <si>
-    <t>.NET Fullstack Developer | 2023VRPO0411-JR26549</t>
-  </si>
-  <si>
-    <t>Контент-менеджер (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Graphic Designer / Графический дизайнер</t>
-  </si>
-  <si>
-    <t>Графический дизайнер</t>
-  </si>
-  <si>
-    <t>About us
-We are SME IT Consulting Company focusing on Cloud Computing &amp; Data Science Consulting space as a MICROSOFT CLOUD SOLUTON PROVIDER for our customers across Europe and INDIA.
-We also support our customer by providing technical consultant on contract as per their project requirements.
-We call such services as SKILL-PARTNERSHIP and we are now operational in 40+ countries globally.
-Job Description
-Job Description
-For our client, one of the biggest bank on Polish market, we realize a recruitment process on the position Mid .Net Fullstack Developer
-Project Description: Development of software in the field of risk management, legal and compliance. Project is lead with usage of Scrum methodology
-Tech stack: C#, .Net 6/7, .Net Core, ASP.NET Rest API, Entity Framework Core, Hangfire, Splunk, Mediatr/CQRS/Event Sourcing, .Net Framework 4.8, Entity Framework, ASP.NET MVC 5, T-SQL, RabbitMQ, Active Directory, LDAP, Angular 12+, React, SQL Server, CI/CD, TeamCity, Docker/Kubernetes
+    <t>https://remotehub.com/jobs/details/mrics-qualified-building-surveyor-64426239edae3a442505f420</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/mrics-qualified-building-surveyor-64425bd4edae3a227c05fda2</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/hiring-for-react-js-angular-js-developer-64425587edae3a20fe551bb7</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/service-delivery-manager-64424c32edae3a442505f3f0</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/quality-and-transformation-lead-64423aa2edae3a16a9553842</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/hfc-engineer-sr-customer-service-executive-64423239edae3a208365a773</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/image-data-collection-earn-an-extra-16-per-64422a62edae3a16a9553831</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/image-data-collection-earn-an-extra-16-per-64422a62edae3a1cb672ecff</t>
+  </si>
+  <si>
+    <t>https://remotehub.com/jobs/details/image-data-collection-earn-an-extra-16-per-64422a61edae3a1afc7b724f</t>
+  </si>
+  <si>
+    <t>MRICS Qualified Building Surveyor</t>
+  </si>
+  <si>
+    <t>Hiring for React Js, Angular Js Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SERVICE DELIVERY MANAGER </t>
+  </si>
+  <si>
+    <t>Quality and Transformation Lead</t>
+  </si>
+  <si>
+    <t>HFC Engineer - Sr Customer Service Executive</t>
+  </si>
+  <si>
+    <t>Image Data Collection - Earn an extra $16 per task!</t>
+  </si>
+  <si>
+    <t>MRICS Qualified Building Surveyor
+Job Description:
+Immediate start available – Full Time and Part time available. Working within your local area. 
+MRICS Surveyor
+Our Client is looking for an MRICS Qualified Surveyor to conduct Housing Disrepair Surveys for tenants in desperate need of assistance.
+The Role:
+Working Monday - Friday ( No weekends or Bank Holidays )
+Conduct surveys on properties in need of repair advising whether you agree with the defects as claims, whether the defects are structural, the cause of the defects, the age, character and prospective life of the property, completing a Scott’s Schedule and providing an estimate of the cost and time for the repairs. 
+Produce detailed Expert witness Report to detail findings.
+Use equipment and tools to accurately identify disrepairs
+Own transport required. However you will be working within your local area.
+Skills:
+Great Mathematical skills
+Great analytical skills
+Good eye for detail
+Friendly demeanour with clients
+Good time management/ability to adhere to own diary.
+What we offer:
+Continuous ongoing work.
+Training from senior Surveyor with vast Housing Disrepair experience.
+Access to materials to assist in producing CPR compliant reports.
+If this is you and you would like to be part of a successful team, please get in touch.
+Job Type: Full-time or Part Time – Permanent
+Salary: £55,000.00 - £100,000.00 per year depending on experience
+Location: we have a number of vacancies available
+Experience:
+MRICS qualified, Housing disrepair experience preferred but not required, training will be given
+Job Type:
+Permanent
+Job Reference:
+BS/GL
+Salary:
+£55,000 - £100,000
+Country:
+UK
+Town/City:
+Sheffield/ Yorkshire</t>
+  </si>
+  <si>
+    <t>MRICS Qualified Building Surveyor
+Immediate start available – Full Time and Part time available. Working within your local area. 
+MRICS Surveyor
+Our Client is looking for an MRICS Qualified Surveyor to conduct Housing Disrepair Surveys for tenants in desperate need of assistance.
+The Role:
+Working Monday - Friday ( No weekends or Bank Holidays )
+Conduct surveys on properties in need of repair advising whether you agree with the defects as claims, whether the defects are structural, the cause of the defects, the age, character and prospective life of the property, completing a Scott’s Schedule and providing an estimate of the cost and time for the repairs. 
+Produce detailed Expert witness Report to detail findings.
+Use equipment and tools to accurately identify disrepairs
+Own transport required. However you will be working within your local area.
+Skills:
+Great Mathematical skills
+Great analytical skills
+Good eye for detail
+Friendly demeanour with clients
+Good time management/ability to adhere to own diary.
+What we offer:
+Continuous ongoing work.
+Training from senior Surveyor with vast Housing Disrepair experience.
+Access to materials to assist in producing CPR compliant reports.
+If this is you and you would like to be part of a successful team, please get in touch.
+Job Type: Full-time or Part Time – Permanent
+Salary: £55,000.00 - £100,000.00 per year depending on experience
+Location: we have a number of vacancies available
+Experience:
+MRICS qualified, Housing disrepair experience preferred but not required, training will be given
+Job Type:
+Permanent
+Job Reference:
+BS/GLL
+Salary:
+£55,000 - £100,000
+Country:
+UK
+Town/City:
+London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience- 6 months to 1 yr
+Skills- HTML5, CSS3, BootStrap, JavaScript, Responsive web design, React Js, Angular Js 
+Job Description- Proficient in front-end web development using HTML, CSS, JavaScript, and related frameworks such as React or AngularJs.
+Interested candidates can share your resume on job@oskconsultant.in
+Mobile no- 9960680445
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About the role:
+We are the trusted partner for all Country IT organizations that ensures high-quality services. We are looking for a professional who can be the single point of contact for all Infrastructure services and provide outstanding local country services. We need a person to be located in Sweden as they will be supporting our clients in Sweden, Finland, Norway, and the Baltic.
+If the role sounds like an excellent opportunity for your career future, please do not hesitate to apply!
 Main Responsibilities:
-·        Creating code using .Net and Angular Writing unit tests and conducting code review
-·        Programming based on patterns and analyzing user requirements
-·        Cooperating with a team due to working on projects
-·        Coming up with ideas and solutions which could be implemented to the developed software
-·        Possibilities to learn React
-Requirements
-An ideal candidate profile:
-·        At least 3 years of experience as .Net Developer
-·        Higher education level - IT or related fields are preferred
-·        Hands-on experience as Fullstack Developer
-·        Expertise in .Net web tech stack, Angular and relational databases
-Nice to have:
-·        Knowledge of CI/CD, Docker/Kubernetes
-·        Experience with working on cloud solutions
-Special Note
-Maximum Hours per Week: 40
-Consultant must be legally eligible to work as a contractor either as a citizen or work permit holder.
-For Remote position, consultants must have their own computing device and high speed internet connect at their work space.
-Consultant must have their own VAT &amp; TAX id to work with us as a contractor, alternatively he/she must be associated with a local umbrella company to work with us as a contractor.
-Duration
-7 Months
-Last Date of Application
-31 May 2023
-Experience Band
-3 Years
-Positions
-1
-Location
-Warsaw, Poland | On-site 25%, Remote 75%
-Language
-Polish – Native and English – Advanced</t>
-  </si>
-  <si>
-    <t>‍ Ищем удаленного контент-менеджера в маркетинговое агенство Требования: - Базовое владение adobe photoshop - Креативность, внимательность и пунктуальность - Чувство стиля и вкус - Понимание устройства социальной сети (ВК и инстаграм) и настроек сообщества Обязанности: - Ежедневный постинг согласно подготовленному контент-плану в ВК - Публикация конкурсов, подведение итогов, выдача призов - Выполнение операционных задач в проектах (сбор статистики и др) Создавать шаблоны и креативы не нужно. В команде есть дизайнер. Нужно 4 часа в день тратить на создание контента по заготовленному КП и ответственно подходить к свои задачам. Приветствуются люди имеющие опыт работы с ВК и знанием как работает умная лента и Немезида. Условия: - Оплата 20 000₽ - 35 000₽ в зависимости от нагрузки - Оплата оклад + сдельная за проект. С ростом проектов больше оплата - Свободный график - Удаленная деятельность Контактная информация работодателя станет доступна сразу после того, как вы оставите свой отклик на эту вакансию.   Имя Email Телефон Номер телефона не используется для рассылки спама и обзвонов Ответ на вакансию Согласен получать информационную рассылку сервиса (необязательно) Recaptcha Отправить отклик Внимание! Администрация сайта Remote-job.ru не несет ответственности за неправомерные действия работодателей. Будьте внимательны при выборе работодателя!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Леон.ру – это одна из первых официально работающих в РФ компаний, принимающих онлайн-ставки. Мы работаем с 2016 года и заслуженно называемся старожилами отечественного беттинга. Мы стремительно развиваемся и расширяем свою деятельность. Поэтому ищем талантливого Графического дизайнера, который будет работать над созданием рекламных иллюстраций, поддержкой и обновлением фирменного стиля бренда. Мы ищем в команду не просто коллегу, а единомышленника, с которым вместе будем креативить и создавать качественный продукт.   Основные задачи:  Разрабатывать дизайн посадочных страниц по заданным тематикам и направлениям (преимущественно спорт и беттинг/гемблинг); Работать с фирменным стилем бренда, заниматься его поддержкой и обновлением; Создавать рекламные тематические иллюстрации/тизеры для промо-акций бренда; Ретушировать изображения и выполнять фотоманипуляции; Создавать статические (jpg/png), анимационные (gif) и готовить ассеты для html баннеров; Сотрудничать с отделами маркетинга и CRM; Применять креативный подход к разработке дизайнерских решений; Нести ответственность за конечный результат.    Что нам важно:  Наличие портфолио, которое демонстрирует необходимый нам опыт работы с рекламной графикой; Владение программами графического дизайна, такими как Adobe Photoshop, Illustrator и другими Опыт работы с Figma (создания прототипов и анимаций); Опыт работы со спортивной тематикой и понимание основных видов спорта будет большим преимуществом; Знание и умение применять правила композиции и чувство цвета; Ответственность, креативность, насмотренность, тяга к экспериментам; При отклике на вакансию обязательно ждем ссылку на портфолио с кейсами.    Будет плюсом:  Понимание принципов верстки HTML / CSS Опыт в разработке адаптивных и респонс макетов; Понимание основ UI/UX.    Что мы предлагаем:  Возможность работать удаленно или из офиса в Санкт-Петербурге (в 7 минутах ходьбы от ст. метро Невский проспект); График работы с 10:00 до 19:00 по МСК; Конкурентоспособная заработная плата, обсуждается с успешным кандидатом; Официальное трудоустройство с первого рабочего дня; ДМС после испытательного срока (3 месяца); Профессиональное развитие, мы будем рады этому поспособствовать; Неформальную обстановку и минимум бюрократии; Дружную команду единомышленников. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обязанности:  Разработка рекламных макетов, баннеров, печатной продукции, визиток, информационных буклетов, листовок и тд. Работа и форматирование веб-сайта компании Подготовка макетов к печати Взаимодействие с типографиями и печатными производствами Выполнение поставленных задач в указанные сроки Работа в офисе  Требования:  Современный подход к дизайну Умение вести диалог и деловую переписку Грамотная речь Знание программ Corel DRAW, Adobe Photoshop, Adobe Indesign, Adobe Illustrator Ответственность Желание работать и развиваться Пунктуальность  Условия:  Рабочий график 5/2 Рабочий день 9.00-18.00 Рабочий телефон и SIM карта Брендированная одежда Оплата сотовой связи </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA backend={' .net'}
-MA backend={'cto'}
-MA backend={'c#'}
-MA backend={'net developer'}
+Single IT Infrastructure responsibility for countries. Infrastructure Support. Support of local setup for every Infrastructure project, Service Implementation, or Major Service Change.
+Advise and develop local services to meet local demand and regulations where/if global services cannot accommodate them. Drive global strategy and architecture integration.
+Advise and collect Infrastructure Demands and ensure end-2-end demand fulfillment to customers and other IT functions for the (Lead) Country
+Ensure service quality for local services and collaborate with IT IPS, DF, and PC for global services.
+Handle providers for local services or global services with the local components. Collaborate and involve with service owner and contracts management when services or providers do not perform or meet important metrics.
+Service Lifecycle and Service Management for all locally provided Infrastructure Services, or global services with local component
+Accountable for fast escalation and support problem resolution for all Infrastructure Services/Projects. Ensure feedback loop to respective partners and functions
+Required Capabilities:
+5+ years of experience in IT infrastructure topics.
+Proficient Swedish language. Excellent interpersonal skills in English.
+Experience and knowledge in Infrastructure technology.
+Technical Knowledge- Data Center, WAN, WLAN, LAN, Firewalls, and another infrastructure-related knowledge.
+Willingness to travel to the client's organization when needed.
+What we offer:
+A competitive salary and mobility budget
+Agreed insurances and benefits according to collective agreement Teknikavtalet
+Remote working environment
+For a better work-life balance, flexible working hours can be arranged in discussion with your manager
+Possibilities for training and professional career advancement
+Exciting career opportunities both locally and internationally
+A personal development plan that is built together with your manager
+A casual work environment with great colleagues all over the world.
+We are an equal-opportunity employer and value diversity at our company! We do not discriminate on the basis of race, religion, color, national origin, sex, gender, gender expression, sexual orientation, age, marital status, veteran status, or disability status. We will ensure that individuals with disabilities are provided reasonable accommodation to participate in the job application or interview process, perform crucial job functions, and receive other benefits and privileges of employment.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MA marketing={'контент-менеджер'}
-MA marketing={'контент'}
+    <t xml:space="preserve">Mandatory Skills:
+- 8-10 Years of experience in various transformational initiatives across service delivery and assurance space within Telecom domain
+- Expert in Industry best practices like ITIL, Six Sigma, Lean, Agile applications.
+Roles and Responsibilities:
+- Develop a Quality Management Framework for various functions.
+- Identify CTQ parameters and linkage to SLA/KPIs
+- Identify and lead transformational projects; and obtain approvals by providing business justifications.
+- Ensure enhance customer experience of customer and its end customers.
+- Priorities the projects and deliver a short-term and long-term roadmap for transformation based on complexity, benefits, investments, and time to realize those benefits.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MA designer={'дизайнер'}
-MA designer={'Графический дизайнер'}
-MA designer={'Designer'}
-MA designer={'Graphic Designer'}
+    <t xml:space="preserve">HFC Network Engineer - Responsibility:
+Routine Maintenance:
+- Network at Risk, Field Tickets, Change Request creation
+- Field WO creation and liasoning with contractors
+- Technical support tech for on-site works
+- Perform pre &amp; post modem checks
+- Dropbox monitoring
+- Review and validate completed works
+- Partner payment claims dispute management
+Other responsibilities:
+Proactive Maintenance:
+- Monitor triggers (Service Escalation, Node Health, Critical/Major Severity, Daily Flipping list)
+- Create/close emergency change request
+- Perform pre &amp; post modem checks, status checks and confirm resolution
+- Perform modem swap back-end activities
+- Confirm non-intermittent fault resolution, monitoring of intermittent faults, Trigger revisit, close faults
+- Partner payment claims dispute management
+Skills:
+- 6-7 Years of total experience including 4+ years’ experience as a HFC Network Engineer
+- Telecommunications Network Assurance, using ITIL methodology, which is focused on HFC Access Networks (CAA and DAA) with D3.0/D3.1 knowledge
+- Should have good exposure in HFC network performance management
+- Tool experience: Remedy, Netcool, Service Now, Mosaic, Comptel, PWB, Xpetrak, NxT, Tableau
+- Ability to analyse network performance insights, triggers and identify issues that need maintenance work
+- Good communication skills
+- Ability to manage field partners for successful field maintenance execution and validation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MA designer={'дизайнер'}
-MA designer={'Графический дизайнер'}
+    <t xml:space="preserve">Help improve Optical Character Recognition (OCR) Technology for your language! 
+We are looking for images of invoices (different from receipts) in English from the United States including but not limited to the following categories: GOODS, SERVICES, UTILITIES, and BUSINESS-TO-BUSINESS.  
+Data collected for this project will be used to train machines to read texts from images by recognizing the different characters in your language. 
+• Short-term earning potential 
+• Easy qualification process 
+Requirements: 
+• up to 115 images of invoices (photos or scanned) 
+• Android or iOS smartphone released in or after 2015 
+Please note: Your pay rate is for 25 invoices which are accepted based on quality requirements. You can submit only one or up to 115 different invoices and will be paid proportionately. 
+Example: 
+Total pay rate = $16.50 
+$12.50 divided by 25 = $0.66 per invoice 
+if 10 invoices accepted = $6.60(Payment) 
+if 30 invoices accepted = $19.80 (Payment) 
+if 50 invoices are accepted = $33.00 (Payment) 
+If interested, kindly use the link below to register.
+https://connect.appen.com/qrp/public/project?type=data_collection&amp;utm_campaign=RemoteHubAibarra_Oneida_United%20States_
+Thank you and we hope to work with you soon!    
+"A diverse, inclusive culture is vital to our mission of helping build better AI. We offer opportunities for individuals of all abilities and backgrounds."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA devops={'sre'}
 </t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'cto'}
+MA backend={'scala'}
+MA backend={'back-end'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОШИБКА:  целое вне диапазона
+</t>
   </si>
 </sst>
 </file>
@@ -535,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,37 +734,37 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -638,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -649,37 +784,37 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -688,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -699,37 +834,40 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -738,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -749,46 +887,299 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>38219</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>38219</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +1187,18 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="J6" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="J8" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="N9" r:id="rId13"/>
+    <hyperlink ref="B10" r:id="rId14"/>
+    <hyperlink ref="N10" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/excel/parsing_report.xlsx
+++ b/report/excel/parsing_report.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
+  <si>
+    <t>found_id_by_link</t>
+  </si>
   <si>
     <t>link_current_vacancy</t>
   </si>
@@ -25,108 +28,388 @@
     <t>body</t>
   </si>
   <si>
+    <t>not_vacancy</t>
+  </si>
+  <si>
     <t>ma</t>
   </si>
   <si>
     <t>mex</t>
   </si>
   <si>
+    <t>check_link</t>
+  </si>
+  <si>
+    <t>found_title</t>
+  </si>
+  <si>
+    <t>found_body</t>
+  </si>
+  <si>
+    <t>found_id</t>
+  </si>
+  <si>
+    <t>found_vacancy_link</t>
+  </si>
+  <si>
+    <t>has_been_added_to_db</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>not_contacts</t>
+  </si>
+  <si>
     <t>profession</t>
   </si>
   <si>
-    <t>has_been_added_to_db</t>
-  </si>
-  <si>
-    <t>check_link</t>
-  </si>
-  <si>
-    <t>found_id_by_link</t>
-  </si>
-  <si>
-    <t>found_title</t>
-  </si>
-  <si>
-    <t>found_body</t>
-  </si>
-  <si>
-    <t>found_id</t>
-  </si>
-  <si>
-    <t>found_vacancy_link</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>not_contacts</t>
-  </si>
-  <si>
-    <t>not_vacancy</t>
-  </si>
-  <si>
-    <t>https://remote-job.ru/vacancy/show/636672/targetolog-vo-vkontakte</t>
-  </si>
-  <si>
-    <t>https://remote-job.ru/vacancy/show/636527/devops-inzhener-trajb-digital</t>
-  </si>
-  <si>
-    <t>https://remote-job.ru/vacancy/show/636547/menedzher-po-podboru-personala-udalenno</t>
-  </si>
-  <si>
-    <t>https://remote-job.ru/vacancy/show/636567/menedzher-po-rabote-s-klientami</t>
-  </si>
-  <si>
-    <t>Таргетолог во ВКонтакте (удаленная работа)</t>
-  </si>
-  <si>
-    <t>DevOps инженер (трайб Digital) (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Менеджер по подбору персонала (удаленно)</t>
-  </si>
-  <si>
-    <t>Менеджер по работе с клиентами (удаленная работа)</t>
-  </si>
-  <si>
-    <t>Требуется таргетолог во Вконтакте в рекламное агентство Айрата Сафаргалина. Ищу человека, который поможет вести проекты по таргету во ВКонтакте по моей методике. Тебя ждёт работа в команде с опытным специалистом. Первое время я буду тебя наставлять. Со мной ты научишься доводить проекты до высоких результатов. ЧЕМ ПРЕДСТОИТ ЗАНИМАТЬСЯ: Настраивать и вести таргетированную рекламу. Писать продающие тексты. Парсить аудиторию. Отбирать контент для объявлений из материалов, присланных заказчиком. Заполнять отчеты по заявкам каждый день ТРЕБОВАНИЯ: 1-2 успешных кейса Умение писать продающие тексты, доносящие преимущества продукта. Умение пользоваться парсерами. Быть на связи с 10.00 до 20.00 мск Ответственность. Оплата: на начальном этапе — 5.000₽ за проект. как только научишься самостоятельно вести проекты — 9.000₽ за проект Заинтересованных прошу заполнить анкету Контактная информация работодателя станет доступна сразу после того, как вы оставите свой отклик на эту вакансию.   Имя Email Телефон Номер телефона не используется для рассылки спама и обзвонов Ответ на вакансию Согласен получать информационную рассылку сервиса (необязательно) Recaptcha Отправить отклик Внимание! Администрация сайта Remote-job.ru не несет ответственности за неправомерные действия работодателей. Будьте внимательны при выборе работодателя!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кто мы: ОТП Банк входит в ТОП-50 крупнейших банков России, а на рынке потребительского кредитования и кредитных карт - мы одни из лидеров рынка. Банк активно меняется, выстраивая работу, в соответствии принципами agile. Сейчас agile-периметр ОТП Банка - это 9 Трайбов, 65+ команд и амбициозные цели по дальнейшему развитию. Agile в ОТП - это реальные проекты, современный стек технологий, уникальные банковские разработки и опыт крутых специалистов. Кого ищем: DevOps инженера Команда: DBO Core &amp; Security Core &amp; Security - ключевая команда разработки мобильного приложения банка, отвечающая за: - релизный цикл и интеграции с банковскими системами, - профиль клиента, обращение в поддержку, - аутентификация и функции безопасности, - движок виджетизации витрины, stories, feature-toggles. Целевой стек продукта: - Docker; - kubernetes; - helm; - Nginx; - Java; - Prometheus + Grafana; - Kibana + Elasticsearch Чем предстоит заниматься: Разработка инструментов для автоматизации рутинных задач и ускорение release lifecycle; Поддержка и развитие систем CI/CD (Teamcity); Поддержка и улучшение тестового окружения, тестовых стендов; Сопровождение и развитие Dev и QA инфраструктуры, мониторинг, поиск узких мест; Взаимодействие со смежными командами и построение отказоустойчивого окружения банка Что мы ждём от тебя: Отличные знания Linux-систем; Понимание веб-стека (HTTP/TCP/IP); Понимание принципов работы СУБД; Опыт работы с docker, kubernetes; Знание и опыт внедрения Prometheus/Grafana/Zabbix; Промышленный опыт разворачивания и настройки RabbitMQ/Kafka Что мы предлагаем: Красивый офис/удобное рабочее место (м. Войковская) или удаленный формат; Возможность изменять время начала и конца рабочего дня по согласованию с руководителем; Отсутствие строгого дресс-кода (мы лояльны к любому проявлению личного стиля); Программы поощрения ОТП Мания (когда ты за внутреннюю валюту можешь купить себе как толстовку, так и day-off, например); Welcome pack; ДМС (а также возможность его замены на фитнес); Льготные условия по кредитам и депозитам; BestBenefits сервис скидок и привилегий (техника и электроника, рестораны и доставка, обучение, отдых, спорт, красота и здоровье, товары, развлечения, услуги, детские товары и развлечения); Управленческое обучение, развитие навыков личной эффективности, профессиональное развитие; Участие в корпоративных и спортивных мероприятиях (он-лайн и офф-лайн); Корпоративная библиотека МИФ и Bookcrossing; Детские подарки к Новому Году. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! Меня зовут Рожков Роман, я набираю себе в команду рекрутеров для закрытия вакансий по всей России. Работа удаленного формата, оплата сдельная от 10000 до 20000 за закрытую вакансию, в зависимости от ее сложности. Готов предоставить три главные вещи: доступ к базе резюме НН.RU; вакансии, которые необходимо закрывать; свой опыт и знания по рекрутингу. Без массового подбора. В основном предстоит набирать специалистов, руководителей подразделений, менеджеров по продажам и продавцов. ЧЕМ ПРЕДСТОИТ ЗАНИМАТЬСЯ: 1 Искать релевантные резюме на HH.RU и приглашать подходящих кандидатов на наши вакансии; 2 Проводить первичное собеседование с подходящими кандидатами, делая пометки для заказчика; 3 Заинтересовывать (продавать) вакансию кандидату; 4 Работать в HR-СРМ системе Talantix; 5 Закрывать как можно больше вакансий; Я ПРЕДЛАГАЮ: Работу на результат с оплатой за выход работника к заказчику (от 10000 до 20000 за каждого вышедшего на работу); Возможность работать удаленно и зарабатывать столько сколько необходимо, доход зависит от Вас; ДЛЯ МЕНЯ ЦЕННО: Опыт подбора персонала от 1 года; Умение пользоваться HH.RU и использовать в нем различные системы поиска персонала; Позитивный настрой и готовность много общаться; ОТКЛИКАЙТЕСЬ! МЫ ЖДЕМ ВАШЕ РЕЗЮМЕ, ОНО МОЖЕТ БЫТЬ АБСОЛЮТНО ЛЮБЫМ . Звоните или пишите тут на площадке или в вотсап </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦБОМ(Центр Бизнес образования в медицине)мы находимся в стенах РМАНПО(Российская медицинская академия непрерывного профессионального образования) Чем ты будешь заниматься: Обрабатывать входящие заявки; Контролировать оплату и выставлять счета; Сопровождать клиентов в чате; От тебя: Опыт в телефонных переговорах; Обучаемость и инициативность; Знание программ: Word, Paint, Exсel; Что гарантируем: Оклад: 20.000 рублей + бонусы ; График 5/2 (5-6 часов в день) больше времени на семью и детей; Оформление по ТК; Очень дружный коллектив; Карьерный рост ; У тебя много свободного времени? Ты-мамочка в декрете и нужен дополнительный доход? Откликайся с сопроводительным письмом, мы ждем именно тебя! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA marketing={'таргетолог'}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA hr={' HR'}
-MA hr={'подбора персонала'}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA sales_manager={'менеджер по работе с клиентами'}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX vacancy={'стендов'}
-</t>
-  </si>
-  <si>
-    <t>marketing</t>
+    <t>http://www.vseti.app/vakansii/graficheskiy-dizaynerjun</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/dizayner-produktafhj4739dd</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/ux-ui-dizaynerfj4893dd</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/programmistfhjd4893dd</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>sales_manager</t>
+    <t>http://www.vseti.app/vakansii/starshiy-dizayner-b2bfhj489dd</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/graficheskiy-dizaynerfhjdk489ddd4</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/pr-menedzherfjdk4893dd</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/qa-manualfjkdj4893dds</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/golang-razrabotchikhfkdk489dd</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/prodakt-menedzherfj493dd</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/python-developerfjk4903ds</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/product-analystdds43s</t>
+  </si>
+  <si>
+    <t>http://www.vseti.app/vakansii/qa-manual-engineerfjk4903dds</t>
+  </si>
+  <si>
+    <t>Старший дизайнер b2b</t>
+  </si>
+  <si>
+    <t>Графический дизайнер</t>
+  </si>
+  <si>
+    <t>PR-менеджер</t>
+  </si>
+  <si>
+    <t>QA manual</t>
+  </si>
+  <si>
+    <t>Golang разработчик</t>
+  </si>
+  <si>
+    <t>Продакт менеджер</t>
+  </si>
+  <si>
+    <t>Python Developer</t>
+  </si>
+  <si>
+    <t>Product Analyst</t>
+  </si>
+  <si>
+    <t>QA Manual Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яндекс Маркет — это огромный маркетплейс, на котором уже больше 30 тысяч продавцов находят своих покупателей.
+Задачи:
+— развивать айдентику бренда;
+— создавать гайды по оформлению внешних и внутренних коммуникаций;
+— лидировать задачи по дизайну, запускать рекламные кампании, работать с 3d-графикой и анимацией.
+Ожидания:
+— опыт работы на стороне агентства или крупных компаний;
+— умение ставить и делегировать задачи, управлять командой;
+— знание программ: Photoshop, Illustrator, Keynote, Canva, Figma, на базовом уровне основы HTML5, CSS и знание терминов разработчиков и др.;
+— опыт работы, преимущественно топовые агентства или инхаус в направлении b2b/b2c, понимание продуктовых терминов и технологий, понимание ЦА b2b.
+Условия:
+— оформление по ТК с первого дня работы;
+— график 5\2 (гибридный);
+— компенсация питания и ДМС.
+Подробнее
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задачи:
+— верстка полиграфических материалов в Adobe InDesign;
+— дизайн сувенирной продукции;
+— развитие и сопровождение брендбуков и гайдлайнов.
+Ожидания:
+— знание и владение Adobe InDesign, Illustrator, Photoshop, Figma, MS PowerPoint, MS Word;
+— готовность к работе на Mac OS;
+— уверенное знание типографики, модульных сеток, композиции;
+— хорошая обучаемость при погружении в незнакомую сферу кибербезопасности.
+Условия:
+— работа в Москве, гибридный формат работы;
+— ДМС и льготы для сотрудников;
+— зарплата по результатам собеседования.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyeng — трендсеттеры в онлайн-образовании. Мы меняем образование с помощью технологий и качественного контента, принимаем бизнес-решения, опираясь на метрики, а внутренняя культура взаимопомощи и обратной связи помогает драйвить развитие каждого в команде.
+‍
+Мы в поисках PR-менеджера на бренд Skysmart, который поможет с продвижением нашего продукта на российском медиарынке. Если ты понимаешь специфику работы с целевой аудиторией, умеешь находить общий язык с журналистами и работать в режиме многозадачности, то мы уже ждем твое резюме!
+‍
+Твои задачи
+Инициировать взаимодействие с целевыми медиа (родительские СМИ, общественно-политические, деловые, образовательные медиа)
+Обеспечивать регулярные публикации
+«Упаковывать» и «продавать» инфоповоды (маркетинг, PR)
+Взаимодействовать с внутренней редакцией (контроль процесса — от постановки ТЗ для редакторов, ассистентов, дизайнеров до разработки материалов под ключ)
+Выполнять PR Points (ключевая метрика PR в компании)
+Взаимодействовать с внутренними экспертами для разработки публикаций, комментарийной поддержки, обеспечения выступления спикеров на целевых площадках
+Участвовать в кросс-командных задачах (маркетинг, продуктовая команда, разработка, саппорт и др.)
+‍
+Наш идеальный кандидат
+Имеет навыки копирайтинга
+Регулярно взаимодействует со СМИ
+Имеет портфолио публикаций
+Умеет находить контакты, договариваться о выходе публикаций
+Имеет наработанную базу контактов журналистов
+Организован, аккуратен в работе с документами (отчеты, рабочие документы)
+Имеет опыт в B2C (желательно — в образовании, культуре, науке либо ИТ)
+Имеет высокий уровень самостоятельности
+Способен оперативно выполнять задачи
+Ориентирован на результат, коммуникабелен и инициативен
+Имеет опыт кросс-командных взаимодействий
+Замотивирован на работу в EdTech
+‍
+Преимущества вакансии
+Сильные продукты и социально значимые, амбициозные цели. Мы меняем сферу образования и делаем учебу увлекательнее, чем Netflix.
+Свобода действий. Каждый имеет возможность настраивать процессы, включаться в разнообразные проекты, запускать и развивать продукты, которые нужны людям.
+Продуктовый подход. Опираемся на исследования и метрики, фокусируемся на результате, который приносит клиентам реальную пользу.
+Удаленка здорового человека. Никто не контролирует, во сколько ты начинаешь работать и где находишься, главное — результат, которого ты пообещал достичь.
+Обучение и мотивация. Отправляем на внутренние и внешние профессиональные курсы за счет компании, готовим к публичным выступлениям, помогаем составить персональный план развития.
+Атмосфера, где слышат и понимают. Предлагай любую идею или конструктивно критикуй — твое мнение не останется без внимания и может все изменить.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офис в Новосибирске - Николаева 11/5 (1 раз в неделю) 
+Аккредитованная IT-компания с 30-летнем  опытом на рынке.  
+Описание проекта   
+Наша команда создает веб-приложение для сотрудников банка в части сопровождения сделок по аккредитивам. Преимущественно проводится системное тестирование, хотя существуют интеграции с множеством систем, которые тоже проверяются. Пропорция примерно 80% системного и 20% интеграционного тестирования.  
+Обязанности   
+— Знание теории тестирования, методологий разработки тест-кейсов  
+— Умение оформлять дефекты ПО  
+— Понимание жизненного цикла разработки ПО  
+— Базовые знания SQL (select, join)  
+— Знание http методов: get, post  
+— Знание базовой структуры XML и JSON  
+— Участвовать в сборе данных для автотестов  
+— Участие в жизни проекта и команды, коммуникации с разработкой и аналитикой  
+Навыки и умения      
+— Опыт от 6 месяцев  
+— Опыт написания тестовой документации  
+— Базовые знания SQL  
+— Опыт работы с системами управления проектом , например Jira  
+— Опыт работы в системах контроля процесса тестирования (например TestRail, ALM и т.д )  
+— Опыт работы с системами контроля версий (Git и т.д.)  
+— Опыт тестирования Rest API либо понимание основ  
+— Высокие коммуникативные навыки  
+— Умение формулировать и локализовывать проблему  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всем привет! ✨
+Команда SberMarket Tech ищет Golang разработчика, которому предстоит развивать новое направление - привлечение большего количества клиентов на витрины СберМаркета за счет органического трафика из поисковиков. Для этого будем разрабатывать и продвигать инструменты SEO, простраивать входную точку нашего каталога, чтобы клиенту было проще найти необходимое! 
+Чем будем заниматься:
+— разрабатывать инструменты для настройки SEO на базе существующих сервисов (Go), а также монолита (Ruby);
+— проектировать и реализовывать микросервисы;
+— улучшать производительность работы микросервисов и находить оптимальные решения;
+— разбирать баги, инциденты и устранять их последствия;
+— прорабатывать масштабируемую архитектуру базы данных и микросервисов.
+Мы рассчитываем, что ты:
+— имеешь опыт коммерческой разработки на Go от 2 лет;
+— проектировал высоконагруженные системы;
+— работал с PostgreSQL/MySQL, Redis, Kafka;
+— знаком с Unix, Git, понимаешь принципы CI/CD;
+— работал с Docker-контейнерами, Istio и Kubernetes;
+— хочешь участвовать в жизни продукта и командной работе;
+— будет плюсом, если есть опыт в Ruby/Rails.
+Что предлагаем:
+— ДМС с первого месяца работы в компании;
+— соцпакет на выбор — спорт, промокоды на заказ продуктов или билеты в отпуск;
+— работаем удаленно. В Москве есть большой и красивый офис, поэтому если ты из этого города или будешь проездом — welcome;
+— предоставляем технику для работы на твой выбор;
+— помогаем интеллектуально и физически развиваться (электронная библиотека, книжный клуб, футбол);
+— уделяем большое внимание обучению сотрудников, поэтому в нашей knowledge base ты найдёшь много интересных курсов, книг и записей конференций, а также у нас есть выделенный бюджет на образование.
+А ещё:
+- мы сами участвуем в конференциях, как спикеры;
+- проводим внутренние митапы;
+- не боимся экспериментировать с новыми решениями и технологиями;
+- заботимся о сотрудниках: в компании есть специалист по здоровью и психологи для разговоров по душам :)
+За всеми подробностями приходите в личку! Telegram HR: @Chernenko_Maria
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всем привет!
+В EdTech стартап требуется джуниор продакт менеджер, который вместе с командой будет разрабатывать образовательные курсы по алгоритмам для разработчиков.
+Чем предстоит заниматься:
+— реализовывать маркетинговую компанию образовательного курса в каналах: SMM, таргетинг, контекст, e-mail рассылки, под руководством старших коллег;
+— придумывать или находить и внедрять новые промо активности;
+— подготовка контент-планов промо-кампании;
+— тестировать и внедрять новые маркетинговые инструменты;
+— проводить исследования потребностей целевой аудитории, анализировать рынок и предлагать улучшения новых продуктов;
+— проводить исследования конкурентов;
+— собирать аналитику по маркетинговым активностям и внедрять улучшения;
+— модерация вебинаров и администрирование процессов их проведения.
+Что мы ждем от тебя:
+— Готовность брать много на себя ответсвенности;
+— Дисциплинированность в ведении отчётности;
+— Не бояться новых задач и уметь находить пути их решения;
+— Интерес к Edtech;
+— Понимание принципов CustDev;
+— Желание развиваться и совершенствовать свои профессиональные навыки;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will create services that will help the company find and understand our data. You will develop integration APIs between the data catalog and the company's internal systems, as well as automate the classification of company data.
+You will:
+develop integration APIs between the data catalog and the company's internal systems;
+develop services for collecting and classifying metadata;
+finalization of connectors to data sources;
+development of metadata quality metrics;
+participation in the development of training materials on working with the data catalog.
+‍
+It will be great if you:
+confidently develop services in Python for at least two years;
+know python libraries, including sql alchemy, pandas, pytest, standard library, API frameworks;
+understand REST, GraphQL protocols;
+understand the mechanisms of authentication and authorization;
+know the functions and architecture of k8s, helm, Docker, Airflow, BigQuery, Kafka, Prometheus;
+know GitHub, gitflow, CI/CD, Vault;
+experience of integration with data directories (Open Metadata, LinkedIn Datahub, Amundsen, Collibra, Atlan or others) will be a plus.
+‍
+For you we will provide:
+work on a flexible schedule, registration according to the Labor Code. For employees from a year of work, the Office without Borders program is available - moving to anywhere in the world and working from this location.
+Relocation to Cyprus or Kazakhstan at the expense of the company, relocation package, hotel payment for the time of finding an apartment, subsidies for rental housing, assistance in placing children in schools and kindergartens, extended life insurance and VHI, comprehensive 24x7 support.
+Regular external and internal training. Employees have the opportunity to attend professional conferences as a participant or speaker.
+Partially or fully paid additional educational courses, free English classes with a teacher in the office.
+The Sinet Challenge personal growth program, in which we set goals and move towards them together: Sinet Run to get involved in the culture of running, Sinet Challenge - partial compensation for outdoor activities during the holidays.
+Monthly events of the FunDay format are corporate parties in various formats: from stand-ups to hiking in the mountains.
+Pleasant for important dates - gifts from the company for a wedding, at the birth of a child and for a birthday.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team develops the inDrive app for passengers and, geographically, is based in Cyrus. Passenger transportation is inDrive’s biggest vertical. The company’s main challenge is to increase the retention and LTV of passengers. To achieve this, it will be necessary to improve user experience, work on new features, and shape user habits. The team is made up of Android, iOS and backend developers, QA testers, UX/UI designers, and data analysts.
+What do we have to do
+You have a minimum of two years’ experience in data analysis.
+You have an analytical mind with the ability to critically evaluate your hypotheses, analyze and structure data, draw conclusions, and establish relationships in data.
+You have solid knowledge of mathematical statistics and hands-on experience of applying that knowledge.
+You are a confident user of Python and have experience with SQL.
+You know how to select the suitable data evaluation methodology, whether it be analytics, research, or the use of external data.
+We are waiting for you
+Select and calculate product and business metrics when implementing projects or product features.
+Seek out the causes of strong deviations in key metrics, and identify growth points and the areas in which product development efforts should be made.
+Assess potential profits from projects or product features.
+Maintain documentation related to the analytics system in the company's knowledge base, within the context of the product concerned.
+Conduct A/B testing - participate in the development of testing guidelines and the interpretation of results.
+Put forward recommendations on how to improve products and identify optimal solutions for ensuring an improved interaction experience between user and product.
+Conduct ad-hoc analytics to support product decision-making.
+Interact with all the teams in the Data Department with a view to streamlining data flows, monitor product data quality and integrity, and create data marts for products.
+Terms
+A flexible work schedule, official employment as per the applicable provisions of the Labor Code. The Office Without Borders program is available for employees with more than one year of employment and allows them to move to and work from any location in the world.
+Relocation to Cyprus or Kazakhstan at the company's expense, relocation package, reimbursement for hotel expenses until you find a place to rent, subsidized housing, assistance with arrangements for placing kids in schools and daycare centers, extended life insurance and voluntary health insurance, comprehensive support on a 24x7 basis.
+Regular external and internal training. Employees have the opportunity to attend professional conferences as participants or speakers.
+Partially or fully funded additional education courses, free English classes with a teacher in the office.
+Sinet Challenge, a personal growth and development program in which we set goals and work to reach them together: Sinet Run which is intended to encourage engagement and foster a culture of running, Sinet Challenge to partially compensate the cost of outdoor activities during the vacation season.
+Monthly activities in a “Fun Day” format, i.e., corporate events in various formats, ranging from standup nights to hikes in the mountains.
+Employee appreciation presents on important dates, such as gifts from the company to mark weddings, the birth of a child, or employee birthdays.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team is working to develop components for the inDrive design system (WebView; Web; Android; iOS), product problem solutions, and user scenario designs, and to conceptualize and implement user interface designs. The team is made up of iOS, Android, and frontend developers, a QA tester, and a product designer.
+What do we have to do
+have basic knowledge of testing theory: test design, how to write test cases and checklists and create bug reports,
+understand the principles of how client server apps work,
+have practical experience of testing mobile apps on Android and iOS: have used emu/simulators, intercepted traffic using Charles or Proxyman, understand the features of testing for various ОСs, and taken logs from real devices,
+have practical experience in testing online apps: have used Chrome DevTools, and checked the work of sites in various browsers,
+test backend: have sent and read API-requests (Postman, etc.), have worked with DBs (CRUD), and are familiar with basic bash/zsh commands,
+are able to read code in any programming language and know the syntax,
+know how to test documentation,
+know how to write self-tests in Kotlin/Java and Selenium/Appium,
+have experience of entering commands.
+We are waiting for you
+test documentation,
+test product functionality,
+record bugs in the bug tracker,
+write UI- and API-self-tests on a prepared framework (Kotlin, Appium/Selenium): this is around 20% of the total volume of tasks,
+write cases and other test documentation,
+communicate with people within and outside the team.
+Terms
+A flexible work schedule, official employment as per the applicable provisions of the Labor Code. The Office Without Borders program is available for employees with more than one year of employment and allows them to move to and work from any location in the world.
+Relocation to Cyprus or Kazakhstan at the company's expense, relocation package, reimbursement for hotel expenses until you find a place to rent, subsidized housing, assistance with arrangements for placing kids in schools and daycare centers, extended life insurance and voluntary health insurance, comprehensive support on a 24x7 basis.
+Regular external and internal training. Employees have the opportunity to attend professional conferences as participants or speakers.
+Partially or fully funded additional education courses, free English classes with a teacher in the office.
+Sinet Challenge, a personal growth and development program in which we set goals and work to reach them together: Sinet Run which is intended to encourage engagement and foster a culture of running, Sinet Challenge to partially compensate the cost of outdoor activities during the vacation season.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA qa={'QA manual'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'golang'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'python developer'}
+MA backend={'python'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA analyst={'Analyst'}
+MA analyst={'Product Analyst'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA qa={'QA Manual'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'внутренних коммуникаций'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'сувенирной'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'редактор'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'вебинар'}
+</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>analyst</t>
   </si>
 </sst>
 </file>
@@ -497,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,47 +843,47 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="b">
+        <v>39</v>
+      </c>
+      <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="b">
-        <v>0</v>
+      <c r="Q2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -610,47 +893,47 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="b">
-        <v>1</v>
+      <c r="Q3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -660,47 +943,47 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="b">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="b">
-        <v>0</v>
+      <c r="Q4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -710,55 +993,314 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="b">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="C9" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/excel/parsing_report.xlsx
+++ b/report/excel/parsing_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="325">
   <si>
     <t>link_current_vacancy</t>
   </si>
@@ -64,155 +64,1083 @@
     <t>profession</t>
   </si>
   <si>
-    <t>https://ru.ingamejob.com/ru/job/middle-2-artist-casual-art</t>
-  </si>
-  <si>
-    <t>https://ru.ingamejob.com/ru/job/sound-designer-10</t>
-  </si>
-  <si>
-    <t>https://ru.ingamejob.com/ru/job/2d-animator-hopa</t>
-  </si>
-  <si>
-    <t>https://ru.ingamejob.com/ru/job/lead-unity-developer-35</t>
-  </si>
-  <si>
-    <t>Middle 2 Artist (casual art)</t>
-  </si>
-  <si>
-    <t>Sound Designer</t>
-  </si>
-  <si>
-    <t>2D Animator (HOPA)</t>
-  </si>
-  <si>
-    <t>Lead Unity Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crooto Software - разработчик и издатель мобильных игр из Лимассола, Кипр. Мы - компания талантливых и амбициозных профессионалов с огромным опытом в области разработки игр. Создание игр - наша настоящая страсть. Мы поддерживаем удалённую работу, решаем задачи и обмениваемся опытом онлайн, поддерживая комфортные условия для всех сотрудников.
-На какие задачи (обязанности)?
--Создание 2d графики для проектов: разработка концептов и финальная отрисовка объектов, персонажей, локаций;
--Следование и поддержка сформированной стилистики проектов;
--Сотрудничество с арт-командами и геймдизайнерами.
-Какого профессионала ищем?
--Работал с векторной и растровой графикой,
--Имеет опыт разработки персонажей,
--Имеет опыт нарезки персонажей и объектов для анимации,
--Имеет опыт работы с изометрией,
--Имеет опыт работы с концепт артом и рендером,
--Владеет Photoshop и Illustrator на хорошем уровне.
-Плюсом будет:
--Казуальное портфолио,
--Опыт работы в различной стилистике.
-Почему у нас приятно работать?
--Возможность работать над интересными проектами;
--Команду влюбленных в свое дело специалистов, которые всегда помогут в сложных ситуациях и по-дружески поддержат;
--Прозрачность процессов и адекватный менеджмент.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crooto Software - разработчик и издатель мобильных игр из Лимассола, Кипр. Мы - компания талантливых и амбициозных профессионалов с огромным опытом в области разработки игр. Создание игр - наша настоящая страсть. Мы поддерживаем удалённую работу, решаем задачи и обмениваемся опытом онлайн, поддерживая комфортные условия для всех сотрудников.
-На какие задачи (обязанности)?
--Написание музыки (в основном оркестровой) и звуков к компьютерным играм;
--Звуковое сопровождение игровых кат-сцен (видео роликов).
-Какого профессионала ищем?
--Знание программ Cubase, Fl Studio, Reaper (на выбор);
--Знание revoicer или аналогичных программ для генерации голоса;
--Опыт написания оркестровой музыки.
-Почему у нас приятно работать?
--Возможность работать над интересными проектами;
--Команду влюбленных в свое дело специалистов, которые всегда помогут в сложных ситуациях и по-дружески поддержат;
--Прозрачность процессов и адекватный менеджмент.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crooto Software - разработчик и издатель мобильных игр из Лимассола, Кипр. Мы - компания талантливых и амбициозных профессионалов с огромным опытом в области разработки игр. Создание игр - наша настоящая страсть. Мы поддерживаем удалённую работу, решаем задачи и обмениваемся опытом онлайн, поддерживая комфортные условия для всех сотрудников.
-На какие задачи (обязанности)?
--Создание анимации персонажей, фонов, элементов интерфейса;
--Взаимодействие с командами художников, программистов и гейм-дизайнеров.
-Какого профессионала ищем?
--Опыт работы с анимацией;
--Общие художественные знания: рисунок, композиция, цвет;
--Высокий уровень работ, чувство стиля, пластики и физики;
--Владение пакетами 2D анимации Spine;
--Знание Photoshop;
--Наличие актуального портфолио;
--Креативное мышление, умение работать в команде;
--Профильное образование (дизайн/анимация) - приветствуется;
--Приветствуются знания в режиссуре.
-Почему у нас приятно работать?
--Возможность работать над интересными проектами;
--Команду влюбленных в свое дело специалистов, которые всегда помогут в сложных ситуациях и по-дружески поддержат;
--Прозрачность процессов и адекватный менеджмент.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are Belka Games, a mobile gaming company based in Limassol. We are in the top 20 grossing companies in the EU according to data.ai and all this is thanks to our team of awesome professionals. Some facts about us:
--We've released 3 projects internationally: "Clockmaker", "Solitaire Cruise" and "Bermuda Adventures". We've got a few more in the works.
--More than 100 million people play our games
--Since 2019 our strategic partner has been AppLovin, which is one of the world's largest mobile app solutions companies.
-We got into the industry because we love making games, and we gather like-minded people around us. To make work fun, we create a comfortable team atmosphere.
-We are currently looking for an experienced leader to head our Unity Development department on one of our key projects.
-Our team consists of professionals with extensive experience in the gaming industry, and you will work together to create a truly high-quality and successful product.
-We would be glad to have a professional developer who is passionate about games and eager to create hits on our team.
-Над чем работать?
--Жанры: Казуальные
--Платформы: Mobile, iOS, Android
-На какие задачи (обязанности)?
--Developing the client side of mobile projects on Unity
--Developing business logic
--Developing core mechanics
--Creating game interfaces
--Working with graphics and downloadable content
--Integrating third-party services for social interaction, tables, analytics, etc
--Developing an editorial toolkit
--Profiling and optimizing of code and graphics
-Какого профессионала ищем?
--Good knowledge of C# 7.0+
--Proficiency in API and Unity 2020+ tools
--3+ years of experience in Unity development for mobile platforms
--Experience in team development and working with version control systems
--Experience in application support in production, understanding of release processes, updates, and resolution of technical issues
-Would be nice:
--Experience working with Addressables, UniTask, Zenject, Odin Inspector
--Experience writing shaders
-Почему у нас приятно работать?
--Flexible work format. You can go to the office in Vilnius or Limassol, or work remotely. The main thing is to be online during working hours
--European employment. We've got jobs in Lithuania, Georgia, Montenegro, and Cyprus. You can choose whichever location best suits you
--Development. We offer English classes with a teacher, pay for professional conference trips, and partially compensate for training
--Flexibility. Sometimes you want something new. We get it—we'll support you if you want to change positions, responsibilities, or projects
--Collaborative solutions. Each team member's skills are important, so we listen to and hear each other
--Data reliance. We take everyone's opinions into account, but all product decisions are based on metrics, which means no subjectivity
--And the usual—official employment, voluntary medical insurance, compensation for sports
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA designer={'Designer'}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA designer={'2D'}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA backend={'unity developer'}
-MA game={' Unity'}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX vacancy={'стилист'}
+    <t>https://geekjob.ru/vacancy/6493fe5f0546646dfb03b4a7</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6493fbfc87b14bd4ac03a354</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6493f4b7effc894c280bdd3e</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6493efdaa8fc4d480e06c214</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6493efd6a8fc4d480e06c213</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6493efce7aff0a9ae6063613</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649352d019c8844438064d43</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6493521b275013fd8b049452</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64931ba455ae0c65120a1e45</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649315e5db54e77c850b3f12</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649315c8c16563b11a023bc4</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649315c7c16563b11a023bc2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649313aa1134753f170a13c3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64930be55c486590bb078ff3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649307179e0abc6ea003a8c9</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492f9b3ebd14d04fd06a9e5</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492f843b4481b038b055312</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492f3f8c234b8c3b00a6223</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492f27d875e29606d08d1d7</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492f1951ef6e99a4b077143</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492ea54525e3b82530358e2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492e2483028f2756e090ab3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492dfb45242a544450ed202</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492d7a4a5d07b66770ca105</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492cd44831a41563409e8e6</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492cc3a17c7e91bc506fa41</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492c7d1616ae72e870539d6</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492c720b5364ef8580419c3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492c7019149e16f2109eb63</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492c6440fb8c0c6080b07d4</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492bd94f3c0dfcc7906380e</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492bc661704684f1f0334c8</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492bbe7b9c7251967064103</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491b5512b5f30c307099ac5</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492b6060cfbe954a8087078</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492b56e9e574d998e021616</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492b56e9e574d998e021615</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492b56b3eff4978ea038529</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492b4699f497b27900a18f2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649291fb219e4f657e0d1fd4</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492676f0895d1e3e30ac252</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6492256b50882e310804e182</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491e34a1f084fe73f04cb04</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491d86f635368bef30934e2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491d639d04f9a0e060b6ab3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491d4c14fe155805a087555</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491cfa295b5a066020c6182</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491ccf77ca82be4bd01e1f2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491c1fab25a570bbe070c14</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491c1f73d98a86d1c0df002</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491b850cc2287840f045c22</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491af9b346f96784b0d0a12</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491a0a7917a767d6c02e4c6</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491a02db0df44ae9709a133</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491981508373a1411000074</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649197e16c86c1faf20506f3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649192d0374ae3a451093e72</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64918bc038aac0767a08f202</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64918b99e7183b49590308c3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649189341dd3ee9a350fbfa2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491884fb359399b7e03bc12</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491883a471f91862904d586</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491862906c41eec230b6d46</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649181ee7c6d46263102b4a3</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64917e00a909f9eeaa04e394</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64917dbe332b32287c0e39d2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64917ce71d2d2f70ea0174c4</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64917c95dfffcd7c750da8d2</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64917c5ba5e22e791c0fbf05</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649175b1713eacdbaf05b742</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491731b33c0f619e2096d22</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/6491705550a8943e530a8192</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64916df36380a8d2ca0f0442</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64916ca9b170ccaab10d1835</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649168a19ada9afb32074a9d</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649167a20b6503d910073e57</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64916727a40bde660304665c</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/649166ea00ab3fe4fe0b4444</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64915e79715a15d07b0f1b7e</t>
+  </si>
+  <si>
+    <t>https://geekjob.ru/vacancy/64915a8548a90fec1b03a242</t>
+  </si>
+  <si>
+    <t>Head of Marketing</t>
+  </si>
+  <si>
+    <t>Junior Project Manager</t>
+  </si>
+  <si>
+    <t>Системный аналитик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стажер Project Managment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер IT-проектов </t>
+  </si>
+  <si>
+    <t>Программист PHP fullstack</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Senior Python  GO разработчик</t>
+  </si>
+  <si>
+    <t>Финансовый специалист</t>
+  </si>
+  <si>
+    <t>Менеджер по продажам IT B2B / Sales manager B2B</t>
+  </si>
+  <si>
+    <t>Senior Python разработчик</t>
+  </si>
+  <si>
+    <t>Продуктовый аналитик / Product Analyst (junior/middle)</t>
+  </si>
+  <si>
+    <t>SEO-специалист</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Junior Business analyst</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>SMM manager</t>
+  </si>
+  <si>
+    <t>Таргетолог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle / Senior C++ Developer </t>
+  </si>
+  <si>
+    <t>Junior Data Scientist</t>
+  </si>
+  <si>
+    <t>Менеджер продукта</t>
+  </si>
+  <si>
+    <t>Lead User Acquisition Manager</t>
+  </si>
+  <si>
+    <t>Backend-разработчик для мобильного приложения.</t>
+  </si>
+  <si>
+    <t>Senior Golang разработчик</t>
+  </si>
+  <si>
+    <t>Senior Machine Learning Engineer (Computer Vision)</t>
+  </si>
+  <si>
+    <t>Ведущий разработчик 1С</t>
+  </si>
+  <si>
+    <t>PHP developer/Laravel developer</t>
+  </si>
+  <si>
+    <t>Руководитель разработки / Head of Development</t>
+  </si>
+  <si>
+    <t>Менеджер по продажам IT (b2b)</t>
+  </si>
+  <si>
+    <t>Маркетолог</t>
+  </si>
+  <si>
+    <t>Инженер по внедрению и сопровождению</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Ведущий администратор/инженер Voip сети Интернет-телефонии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Software Developer </t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Ведущий рекрутер</t>
+  </si>
+  <si>
+    <t>Программист микроконтроллеров (C++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Manager / Менеджер проекта </t>
+  </si>
+  <si>
+    <t>Коммерческий директор в Leadrock</t>
+  </si>
+  <si>
+    <t>Data Engineer (blockchain)</t>
+  </si>
+  <si>
+    <t>Аналитик в отдел ИТ разработки (1С)</t>
+  </si>
+  <si>
+    <t>Архитектор Java</t>
+  </si>
+  <si>
+    <t>Senior Golang Developer</t>
+  </si>
+  <si>
+    <t>iOS разработчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IT-менеджер проекта/продукта для нового направления  микрокредитование</t>
+  </si>
+  <si>
+    <t>Frontend Developer (Angular)</t>
+  </si>
+  <si>
+    <t>Deputy Head of Unit (MarTech)/CPO</t>
+  </si>
+  <si>
+    <t>Product Analyst (junior)</t>
+  </si>
+  <si>
+    <t>Product Analyst</t>
+  </si>
+  <si>
+    <t>Python Backend developer</t>
+  </si>
+  <si>
+    <t>Golang Backend developer</t>
+  </si>
+  <si>
+    <t>IT Sales manager</t>
+  </si>
+  <si>
+    <t>Cryptography researcher (Remote)</t>
+  </si>
+  <si>
+    <t>Разработчик Битрикс24</t>
+  </si>
+  <si>
+    <t>Android разработчик/Android developer</t>
+  </si>
+  <si>
+    <t>QA Engineer (Java)</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>DevOps-инженер</t>
+  </si>
+  <si>
+    <t>Менеджер по продажам</t>
+  </si>
+  <si>
+    <t>Менеджер по персоналу</t>
+  </si>
+  <si>
+    <t>Product manager/Менеджер продукта</t>
+  </si>
+  <si>
+    <t>Automation QA (Python)</t>
+  </si>
+  <si>
+    <t>Программист PHP/Middle Backend разработчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитик информационной безопасности (пентестер web-приложений) </t>
+  </si>
+  <si>
+    <t>Marketing Director</t>
+  </si>
+  <si>
+    <t>Java Developer Senior</t>
+  </si>
+  <si>
+    <t>Специалист по маркетингу, рекламе и PR</t>
+  </si>
+  <si>
+    <t>HR Менеджер / Рекрутер</t>
+  </si>
+  <si>
+    <t>Дизайнер презентаций</t>
+  </si>
+  <si>
+    <t>Фандрайзер (маркетолог)</t>
+  </si>
+  <si>
+    <t>SMM-менеджер</t>
+  </si>
+  <si>
+    <t>Frontend developer (project work)</t>
+  </si>
+  <si>
+    <t>Junior React Developer</t>
+  </si>
+  <si>
+    <t>Product Manager (Crypto/Fintech)</t>
+  </si>
+  <si>
+    <t>GoTrip - быстроразвивающаяся и амбициозная traveltech компания. Наш продукт - это онлайн платформа для планирования и бронирования локальных трансферов от местных водителей, мы успешно работаем в Грузии, Армении и Турции.Мы активно растем и выходим в новые страны и ищем Head of Marketing, который бы взял на себя ответственность за выстраивание нашей маркетинговой стратегии, перевод ее в прозрачный план действий и реализацию этого плана.Что предстоит делать:Выстраивать и реализовывать успешную стратегию маркетинга.Управлять общим позиционированием и репутацией GoTrip.Проводить исследования, аналитику, изучение рынка, конкурентов и аудитории, её потребностей и болей.Развивать существующие и тестировать новые каналы привлечения.Выстраивать команду + процессы + аналитику, контролировать качество работы подрядчиков.Нам интересно пообщаться с вами, если:Вы уже выстраивали и реализовывали успешную стратегию маркетинга в B2C проектах на рынках Европы, СНГ, ОАЭ.Вы работали с Яндекс Директ, Google AdWords, Facebook, VK, MyTarget с бюджетами от более 15 млн. рублей, понимаете алгоритмы работы каждой сети.Вы работали с системами веб- и сквозной аналитики, умеете видеть всю воронку и анализировать отчеты.У вас есть опыт выстраивания удаленной работы с распределенной командой , при этом вы умеете работать руками, не боитесь погружаться в детали.У вас системный data-driven подход. Вы — про цифры, проверку гипотез, юнит-экономику и достижение финансовых результатов.Будет очень здорово, если есть опыт выстраивания процессов в стартапе, либо отдела маркетинга с нуля.Мы предлагаем:Полностью удаленную работуГибкость, открытость и отсутствие бюрократииКонкуретную ЗП в $</t>
+  </si>
+  <si>
+    <t>Кто мы такие?Мы — команда UGC Ninja, создаем UGC-like рекламу для цифровых продуктов (приложения, игры и многое другое). Посмотри наш сайт (​), чтобы было понятнее на примерах.UGC Ninja - команда молодых, увлеченных и энергичных людей, любящих свою работу.Мы добились больших успехов и собираемся достичь еще большего в этом году.Чем мы занимаемся?Мы создаем рекламу, которая будет использоваться в платных кампаниях в социальных сетях, таких как FB, TikTok, Snapchat и других.В роли Junior Project Manager ты будешь общаться с клиентами на всех этапах проектов. Мы ценим людей, которые готовы расти вместе с нами и склонны использовать свои сильные стороны.Эта вакансия - отличный шанс развить свою карьеру.UGC Ninja - молодая и быстрорастущая компания, поэтому обещаем - скучно не будет!) Чего хотим от кандидата:Нам не так важен предыдущий опыт, как наличие следующих скиллов:- Владение испанским языком минимум на уровне B1-B2 - обязательно;- Опыт работы с таск-трекинговыми системами (Asana, Notion, Jira, etc);- Желание развиваться в сфере управления проектами;- Желание обучаться новому;- Готовность к большому количеству рабочих коммуникаций. Что нужно делать:- Проводить встречи с заказчиком (презентации);- Коммуницировать с заказчиком на всех этапах ведения проекта;- Формировать задачи по проекту для команды;- Контролировать сроки и качество выполнения поставленных задач;- Вести учет затрат по проекту.</t>
+  </si>
+  <si>
+    <t>Привет!Компания Stroki ищет коллегу - System analyst с опытом от 3х лет Мы специализируемся на создании эффективных и современных IT-решений для бизнеса.И ведем проекты в сфере Retail, fintech, medtech и др.Задачи:Проектировать архитектуру продукта, структуру баз данных и сервисов, макеты веб-интерфейса.Разрабатывать проектную документацию (ТЗ, инструкции, спецификации и тд).Заниматься написанием постановок разработчикам на основе функциональных требований.Координировать последовательность работ между разработчиками.Моделировать структуру и потоки данных, описание алгоритмов их обработки.Нам важны в будущем коллеге:Навыки разработки технической документацииНавыки проектирования моделей данныхУверенные знания UML (class diagram, state diagram, sequence diagram), BPMN или иных нотаций для моделирования бизнес-процессовЗнание различных методов интеграции систем, понимание как работают межсистемные интеграции (веб-сервисы REST, SOAP, очереди сообщений)Понимание особенностей форматов обмена данными JSON/XMLОпыт работы с сервисной или микросервисной архитектуройПонимание принципов и основных паттернов проектирования и построения информационных системПонимание принципов хранения информации в базах данныхОпыт взаимодействия с промышленными СУБД на уровне запросов (желательно PostgreSQL, Oracle)Умение структурировать и анализировать большие объемы разрозненных данных, наглядно представлять и презентовать полученные результатыПонимание типовых решений для клиент-серверных приложенийЭто будет плюсом:Английский язык - B1Базовые знания нормативных стандартов (ГОСТ 19 и 34, ISO, RUP) по созданию и оформлению технической документацииНавыки работы с системами контроля версий GIT/Confluence и с трекерами Jira/RedmineРады предложить:Формат сотрудничества: на постоянной основе, официальное трудоустройствоВозможность работать в офисе или удаленноКомфортную заработную плату - вилка от 100кВход в компанию: срок испытания от 1 до 3 месяцев, комфортная «акклиматизация» в команде и интеграция в проектыПрофессиональное развитие: проводим митапы, делимся опытом экспертов, предоставляем доступ к технической библиотеке, составляем для сотрудников и реализовываем индивидуальные планы развитияКомпенсация спортаДМСГибкое начало дняВозможность взять 2 days off в годМожно писать мне напрямую в TG ​ ju_vikulina 📩</t>
+  </si>
+  <si>
+    <t>Чем предстоит заниматься:- Обработка данных в MS Excel, подготовка презентаций;- Документарная поддержка проектов в сфере цифровизации процессов HR (кадровый электронный документооборот), отрисовка схем бизнес-процессов в Visio;- Работа с бизнес процессами, анализ, описание;- Участие в проектах по автоматизации и оптимизации бизнес процессов;- Участие в совещаниях, подготовка протоколов встреч.</t>
+  </si>
+  <si>
+    <t>Обязанности:Прием, классификация и обработка обращений от пользователей в системе helpdesk, первичная диагностика проблемы.Постановка задач в таск-трекере Yandex,Контроль сроков и качества решения задачКоммуникации с техническими специалистами внутри компании.Требования:Опыт работы менеджером техподдержки/менеджером проектов от 1 года,Опыт работы с CRM/ERP системами,Умение систематизировать информацию,Грамотная устная и письменная речь,Желание развиваться и обучаться.Условия:график работы 5/2,оформление по ТК РФ,молодой и дружный коллектив,кофе-брейки за счет Компании.</t>
+  </si>
+  <si>
+    <t>Обязанности:сопровождение существующих систем на PHP;разработка новых модулей и микросервисов;участие в больших проектах компании;разработка проектов с 0;разработка как backend, так frontend;Умение писать сервис на чистом PHP;Опыт работы с legacyПоддерживать и развивать существующие нагруженные проекты и инструменты для работы с ними;Интеграция с внешними API.Требования:богатый опыт работы с PHP / MySQL;Уверенное знание языка SQL, умение оптимизировать сложный запрос, который будет оптимально использовать index;опыт работы от 5 лет;хорошее знание HTML / CSS / Javascript / Nginx / Apache / Git;опыт работы с большими базами данных;опыт работы с ПО для кэширования данных;уверенная работа в Linux;Опыт работы с MySQL / Clickhouse / RedisОпыт использования систем виртуализации и контейнеризации;Опыт работы с Git.Желательно, будет большим плюсом:Опыт работы с Golang, или желание начать его осваивать.Опыт работы с Elasticsearch, Kafka, Logstash, DebeziumУсловия:Оформление по ТК РФ;Возможность работать в офисе или удаленно (обговаривается на собеседовании)</t>
+  </si>
+  <si>
+    <t>SmartShell - продуктовая IT компания, резидент Сколково.Команда разрабатывает программный комплекс, который охватывает широкий спектр гейминговой и киберспортивной аудитории.К настоящему времени реализована платформа контроля компьютерных клубов и киберспортивных арен - биллинговая система, состоящая из серверной части и оболочки клиентского компьютера, заменяющего рабочий стол Windows.Команда растет и развивается, в связи с чем в поисках менеджера проектов.Что предстоит на этой позиции:Работать с полным циклом проекта:Планирование — создание бэклога и поддержание в актуальном состоянии;Приоритезация бэклога совместно с продуктовыми экспертами;Сроки — установление и контроль deadline, эстимация задач;Содержание – контроль полноты предоставляемой информации, необходимой для реализации проекта;Качество — контролирование соответствия бизнес-требованиям финальной версии фичи/продукта;Риски — своевременное информирование команды о любых событиях, которые могут повлиять, на сроки разработки, качество продукта и необходимые ресурсы;Отчетность и завершение проекта — подготовка стандартизированных отчетов о реализации проекта/проектов, включая информацию о закрытых задачах каждого разработчика в отчетном периоде: месяц, квартал.Проведение регулярных статусов проекта с руководством компании.Определять состав работ. Координировать работу команды (frontend, backend, desktop, design), включая контроль выполнения задач, и не допускать рассинхрона. Следить за фокусом разработки как в короткой, так и более длительной перспективе.Вести релиз. Составлять план релиза, контролировать исполнение планов в срок .Управлять рабочими процессами. Контролировать, изменять и настраивать текущий workflow и бизнес процессы в команде разработки.Оптимизировать время. Выполнять роль фасилитатора в рамках рабочих встреч.Описывать функциональные требования. На основании бизнес-требований, полученных от продуктовых экспертов, создавать описание функциональных требований (user story) для команды разработки. Контролировать создание технических требований.Заведение задач происходит в рамках грумминга совместно с руководителями отделов.Наш стэк: GoLang, Javascript, C++, FigmaЧто необходимо, чтобы быть успешным на этой позиции:Понимание стандартных процессов и современных концепций жизненного цикла разработки, внедрения и эксплуатации ПО.Знание современных методологий управления проектами.Опыт ведения проектов в IT компаниях от 3 лет.Опыт участия в разработке (знание основ программирования/прошлый опыт).Умение структурировать информацию: ведение документации, описание процессов, отрисовка схем, опыт самостоятельной настройки и управления JiraОпыт и уверенный уровень владения специализированными инструментами, например: Confluence, Excel, Miro, Gantt, Figma и др.Что ждет в SmartShell:Команда молодых и увлеченных своим делом людей;демократичные, внимательные руководители;все нужные инструменты для работы;контролируемые процессы;возможность профессионального и карьерного роста;работа в аккредитованной IT компании;все по-белому, ДМС;гибкий график, гибрид (на период испытательного срока - офис);офис в 5 минутах пешком от м. Василеостровская.</t>
+  </si>
+  <si>
+    <t>Привет!Меня зовут Илья и я IT-рекрутер, помогаю подобрать вакансию на любой вкус)Сейчас у меня в работе вакансия Senior Python – GO разработчика для участия в разработки основного продукта!💰Зарплатная ложка: до 7000$⏰Формат: Full-time/удалённо💼 Если обладаешь этими навыками то пиши:Опыт с Python не менее 5 лет;Создание сервисов с высокой отказоустойчивостью;Разработка приложений на базе операционных систем Linux и Unix;Опыт работы с облаками, k8s, terraform;Опыт с hi lode и отказоустойчивость;Опыт работы с реляционными базами данных, такими как PostgreSQL, MS SQL; 📲Для отклика, Велком в ТГ!</t>
+  </si>
+  <si>
+    <t>Мы – компания Sensemachine - лидеры на российском рынке нейробиологических исследований. Изучаем эмоциональный отклик на рекламные ролики, ТВ контент, прототипы приложений и многое другое, вплоть до дизайна интерьера банков с использованием собственной facial coding платформы. Являемся сердцем крупнейшей в Европе UX - лаборатории Альфа – банка и работаем с самыми большими клиентами российского рынка: Альфа-банк, Мтс, Danone, Ozon, Мail, Lamoda, Самокат, Sokolov и др.Компания представляет из себя команду людей, по-настоящему увлечённых наукой и её технической интерпретацией, которая делает уникальный продукт, меняющий представление о познании и востребованный самыми крупными игроками. Этот продукт показывает рост в одном из наиболее востребованных сегментов современного наукоёмкого бизнеса - нейробиологических исследованиях, которые до 2024 года по оценке Gartner будут применяться в 50% всех маркетинговых тестов.Мы строим настоящий двигатель того, как будут совершаться открытия о человеческом восприятии в ближайшее время и уверены, что талантливые и открытые знаниям люди – это то, что нам нужно на этом пути)На данном этапе, мы в поиске Финансового специалиста в нашу драйвовую команду.Ваши обязанности:- Доработка/Разработка и ведение основных форм управленческой отчетности (ДДС/ОПиУ/Баланс)- Доработка/Разработка финансовой модели- Отслеживание финансовых показателей компании, выявление возможности повышения финансовой эффективности- Оптимизация расходов, доходов компании- Подготовка и разработка отчетов руководству по текущему финансовому состоянию компании- Расчет средних показателей по затратам- Ведение, учет документооборота компании- Прием и обработка входящей документации (счета, акты, с/ф, ТН, ТТН, ТрН, УПД)- Взаимодействие с контрагентами по вопросам документооборота, контроль за своевременным предоставлением оригиналов документов- Работа с договорами Требования к кандидату:Аналогичный опыт работы от 1 года .Высшее образование бухучет/финансы.Высокая компьютерная грамотность (MS Office).Ответственность, внимательность, умение работать с большим объемом информации.Проактивность.Хорошие навыки коммуникации.Что предлагаем мы:Просьба в сопроводительном письме указывать желаемый уровень заработной платы.5/2. С 10 до 19 . Возможность гибридного формата ( 2 дня удаленно) работы после прохождения исп. срока ( до 3 мес)Уютный " pet-frendly" офис, в 2-минутах от метро Парк Культуры ( да, можно приносить/приводить с собой пушистых любимцев)!.Официальное трудоустройство с первого рабочего дня , полное соблюдение ТК РФ.Отсутствие строгого дресс-кода и бюрократии ,открытость и лояльность руководства ,общение на - "ты".Мы всегда готовы принять в команду талантливых и перспективных сотрудников , готовых стать частью нашей классной команды и делать мир рекламы лучше с помощью нашей платформы. В свою очередь мы готовы делится своим опытом, экспертностью, всячески направлять и поддерживать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы – аккредитованная it-компания Sensemachine - лидеры на российском рынке нейромаркетинговых исследований. Изучаем эмоциональный отклик с использованием собственной facial coding платформы на рекламные ролики, ТВ контент, прототипы приложений и многое другое, вплоть до дизайна интерьера банков. Являемся частью крупнейшей в Европе ux лаборатории Альфа – банка и работаем с крупнейшими клиентами российского рынка: Альфа-банк, Мтс, Danone, Ozon, Мail, Самокат, Sokolov, ,Lamoda, Билайн, МТС, и др.Компания представляет из себя быстро растущий продукт на стыке it и исследований, где специалисты этих 2-х направлений обогащают и вовлечены в деятельность друг друга – исследователи напрямую влияют на работу команды разработки, которая улучшает продукт в соответствии с результатами исследований, а улучшения продукта, в свою очередь, позволяют делать ещё более интересные эксперименты.Мы в поиске активного Менеджера по продажам в нашу драйвовую команду.Мы растущая компания со свободны духом стартапа, которая ставит людей стремящимся к знаниям у руля! Так что скучно точно не будет!Основные задачи:Работа со всей воронкой продаж:Работа с воронкой лидов в Bitrix-CRM. Самостоятельное составление и расширение клиентской базыПоиск и определение целевых компаний/decision maker относительно ICP продукта SensemachineНазначение и проведение демо-встречИсходящие холодные активности. Общение с компаниями по E-mail, LinkedIn и различные социальные сетиFollow-Up’ы проспектов после проведенного демоВедение проспектов и частотная коммуникация с ними с целью заключения сделки через почту, Linkedin и мессенджеры2. Информирование потенциальных клиентов о продукте Sensemachine3. Составление КП для проспектовНеобходимые навыки:Навык холодных продаж и поиска клиентовОпыт работы в B2B продажах IT сферы от 6 месяцев (опыт работы в направлении digital или исследовательских компаниях будет преимуществом);Высокий уровень коммуникативных навыков;Опыт работы с Sales инструментами (Пример: инструменты поиска контактных данных, LinkedIn Sales Navigator);Опыт работы с CRM-системами (желательно Битрикс24);Успешный опыт закрытия сделок;Умение качественно выстраивать коммуникацию с С-level.Желание развивать новые компетенции в области IT;Идейность и креативность. Не бояться предлагать что-то новое и брать на себя ответственность;Настойчивость, внимательность, ответственность.Что предлагаем Мы:Работа с крупнейшими проектам на рынке, уникальная экспертиза в нейробиологических исследованиях.Амбициозные задачи, масштабные проекты и возможности для профессионального роста.Работу в команде профессионалов, из разных сфер, которые всегда поделятся опытом.Участие в работе крупнейшей в Европе ux лаборатории.Прямое влияние на продукт – весь сервис в ваших руках!Совместные интересы и увлечения ( помогаем раскрывать таланты и отлично проводить свободное время).Белая заработная плата. От 100 000 оклад (обсуждаем) + kpi (без потолка).Пятидневка. Гибкий график работы -Пятидневка с 10 до 19 , возможность работать 1-2 дня удаленно (на исп. срок работа в офисе 5/2).Уютный " pet-frendly" офис, в 2-минутах от метро Парк Культуры ( да, можно приносить/приводить с собой пушистых любимцев)!Официальное трудоустройство с первого рабочего дня , полное соблюдение ТК РФ.Отсутствие строгого дресс-кода и бюрократии ,открытость и лояльность руководства ,общение на - "ты".Мы всегда готовы принять в команду талантливых и перспективных сотрудников , готовых стать частью нашей классной команды и делать мир рекламы лучше с помощью нашей платформы. В свою очередь мы готовы делится своим опытом, экспертностью, всячески направлять и поддерживать.Откликайтесь или отправляйте свое резюме на e-mail или в телеграм https://​ </t>
+  </si>
+  <si>
+    <t>Привет!Меня зовут Илья и я IT-рекрутер, который поможет найти тебе вакансию мечты :)Сейчас у меня в работе вакансия Senior Python разработчика на крупный проект, связанный с AI и ML💰З/П: от 400.000 до 600.000 net⏰Формат: Full-time/удалённо🛠Если это направление тебе интресно, мне нужно чтобы у тебя был опыт:Опыт с Python от 5-ти лет;Знание английского языка от В2;Опыт работы с kubernetes/Doker;Знание кэшей, брокеров сообщений и разных БД. 📲Для отклика, прошу сюда в тг ​</t>
+  </si>
+  <si>
+    <t>Мы – IT-компания Sensemachine - лидер на российском рынке нейробиологических исследований. C помощью собственной facial coding платформы на основе AI мы изучаем эмоциональный отклик на рекламные ролики, ТВ контент, прототипы приложений и многое другое, вплоть до дизайна интерьера банков. Являемся сердцем крупнейшей в Европе UX - лаборатории Альфа-Банка и работаем с самыми большими клиентами российского рынка: Альфа-Банк, МТС, Danone, Ozon, Мail, Lamoda, Самокат, Sokolov и др.SenseMachine - это команда людей, по-настоящему увлечённых наукой и её технической интерпретацией, которая делает уникальный продукт, меняющий представление о познании и востребованный самыми крупными игроками. Этот продукт показывает рост в одном из наиболее востребованных сегментов современного наукоёмкого бизнеса - нейробиологических исследованиях, которые до 2024 года по оценке Gartner будут применяться в 50% всех маркетинговых тестов.Мы строим настоящий двигатель того, как будут совершаться открытия о человеческом восприятии в ближайшее время и уверены, что талантливые и открытые знаниям люди – это то, что нам нужно на этом пути.Мы в поиске Продуктового аналитика в нашу драйвовую команду.Мы растущая компания со свободным духом стартапа, которая ставит людей, стремящимся к знаниям, у руля. Так что скучно точно не будет!Уважаемые соискатели, просьба, в отклике на вакансию указывать желаемый уровень заработной платы! Твои задачи:Выбрать продуктовые и бизнес метрики для анализа работы Web- продуктаОценить потенциальную эффективность от внедрения нового функционала в продуктАнализировать данные, генерить инсайты и представлять их продуктовой командеОсуществлять мониторинг метрик и их отклонений, находить точки роста продуктаНастраивать дашбордыГотовить аналитику для бизнес-отчетности руководствуДля этой работы нам нужен именно такой как ты:С аналогичным опытом работы от 3х летРаботающий с инструментами web-аналитики - Яндекс Метрика и GA4, разметка событий через GTMРаботающий с BI-системой для анализа данных, построения аналитических дашбордовЗнающий SQL и Python для получения данных для исследований, построения витрины данных под дашборды, визуализации данныхС аналитическими навыками: строить гипотезы, структурировать информацию, видеть закономерности в данныхС бизнес-ориентированным мышлением: формулировать практические выводы по даннымОбладающий продвинутыми навыками Excel, PowerPointСо знанием английского языка не ниже Intermediate Дополнительные навыки:Желание и готовность учиться новомуИнтерес к нейробиологическим исследованиям От нас:Работа с крупнейшими проектам на рынке, уникальная экспертиза в нейробиологических исследованияхУчастие в работе крупнейшей в Европе UX лабораторииПрямое влияние на продукт – весь сервис в ваших рукахПостоянное обогащение знаниями из смежных дисциплин – от разработки до погружения в построение продуктаСовместные интересы и увлечения (помогаем раскрывать таланты и отлично проводить свободное время)Белая заработная плата. Фиксированный оклад (обсуждаем на собеседовании)Пятидневка. Гибридный график работы - 3 дня работы в офисе ,2 дня удаленно (на исп. срок до 3 мес, работа в офисе 5/2). Удаленку обсуждаем.Офис в 2-минутах от метро Парк КультурыОфициальное трудоустройство с первого рабочего дня, полное соблюдение ТК РФMaсBook для работы.Отсутствие строгого дресс-кода и бюрократии, открытость и лояльность руководства.Мы всегда рады принять в команду талантливых и перспективных сотрудников, готовых стать частью нашей классной команды и делать мир рекламы лучше с помощью интерактивных решений. В свою очередь мы готовы делится своим опытом, экспертностью, всячески направлять и поддерживать.Откликайтесь или отправляйте свое резюме на e-mail или в тг</t>
+  </si>
+  <si>
+    <t>Список обязанностей:- регулярные плановые работы по анализу, развитию, продвижению, внутренней и внешней оптимизации сайтов клиентов, задачи на которые ставятся менеджерами проектов;- аналитика достигаемых SEO-показателей, рекомендации по оптимизации стратегии продвижения проектов;- ежемесячная подготовка отчетности и аналитики по курируемым проектам;- разного рода нестандартные задачи по углубленной аналитике проектов, аудиты юзабилити, задачи по повышению конверсии, конкурентный анализ, обзоры ниш и сегментов рынка и многое другое.Требования к кандидату:- опыт в поисковом продвижении с примерами успешных проектов;хорошее знание Google Analytics, готовность к его углубленному изучению;- понимание актуальных принципов и методов поискового продвижения;- уверенная работа с основным ПО-инструментарием SEO-специалиста;- аналитический склад ума, способность работать с большими объемами данных;- способность работать в многозадачном режиме, уважение к дедлайнам и ненависть к прокрастинации;- знание английского языка и опыт работы с зарубежными проектами будет вашим несомненным преимуществом;- проактивность, инициативность и искренняя заинтересованность в результате в отношении проектов, с которыми вам доверено работать.Условия работы:– гибкий и комфортный график при полном рабочем дне;– адекватное и интеллигентное руководство, прекрасные коллеги и отличная возможность для профессионального развития.</t>
+  </si>
+  <si>
+    <t>🚀О компании “IVITECH”IVITECH - это финтех стартап, финансирующий развивающиеся индустрии (это те индустрии, которым тяжело получить банковскую помощь). На данный момент сосредоточили свою работу на финасировании taxi в СНГ и ride-hailing в Юго-Восточной Азии. в феврале вышли на рынок Индонезии и покоряем его. Планируем еще Таиланд, Вьетнам, Сингапур, Филиппины.. ну и захват мира.🚀Основной продуктОсновной продукт - финансирование таксопарков в РФ на приобретение целевых продуктов. В составе ИТ платформы планируется - фронт, управление рисками, системы по работе с просроченной задолженностью, системы принятия решений по рассрочке, и так далее. Разработка и внедрением систем, производится на базе конструктора Case Platform, который автоматизируют бизнес-процессы.Вы будете принимать участие во всем цикле разработки и влиять на результат проекта. Ждем готовность освоить новый инструмент для разработки систем и погрузиться в предметную область.Мы не про строгие рамки и формальности, открыты для новых идей/подходов, которые помогут нам быстрее стать компанией-единорогом :)🚀Чем предстоит заниматься:1.Разработка прикладных решений на BPM-платформе:2.Настройка модели данных;3.Настройка процессов и написание скриптов;4.Разработка пользовательского интерфейса;5.Настройка интеграций: web-сервисы, внешние БД;6.Коммуникации с фаундерами, выявление требований и анализ доработок;7.Работа с требованиями: участие в предпроектном обследовании (вместе с ведущим аналитиком-проектировщиком), написание функциональных требований и пользовательской документации;8.Работа с БД (Oracle, PostgreSQL, MS SQL): написание и оптимизация SQL-запросов🚀Навыки:1.Опыт разработки на любом объектно-ориентированном языке программирования 1-3 года;2.Теоретические знания и практический опыт работы с реляционными СУБД (Oracle/PostgreSQL/MS SQL): SQL, индексы;3.Понимание клиент-серверной и трехуровневой архитектуры приложений;4.Понимания вычислительной сложности алгоритмов (чем один алгоритм лучше другого)🚀Будет преимуществом:1.Опыт работы в IT-отделе банка или в бизнес-подразделении;  2.Опыт разработки на JavaScript;  3.Опыт выявление требований, описание функциональных требований;  4.Опыт во всём цикле разработки, включая анализ, разработку и тестирование. 🚀Условия:1.Трудоустройство согласно ТК РФ (возможно сотрудничество как ИП или самозанятый)2.Гибкое начало рабочего дня3.Заработная плата 60.000-90.000 руб4.Рост заработной платы вместе с ростом квалификации и уровня задач5.Удаленная full-time работа, с возможностью приходить в офис в МосквеА также:6.Присоединиться к сильной команде и участвовать в создании автоматизированных систем7.Получить широкий опыт. От выявления требований и проектирования до разработки и внедрения прикладных решений для крупных заказчиков8.Возможность развиваться в сфере финансовых технологий9.Так же, если вы студент, выпускник технического вуза и у вас прекрасные оценки, то мы готовы рассмотреть без опыта!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компания по разработке мобильных игр P.D. PLAYGENES INTERNATIONAL LIMITED в связи с расширением ищет Data Scientist в свою команду. Требования:Наличие практических достижений в области ML (желательно не только в распознавании изображений);Хорошая математическая подготовка, системное мышление, аналитические навыки;Умение писать рабочий код (Python или другой язык, используемый для для машинного обучения);Готовность самостоятельно решать интересные, нестандартные задачи, разрабатывать и проверять гипотезы, добиваясь результатов.Будет плюсом:Любовь к играм;Опыт анализа данных в игровой индустрии;Опыт использования одного из ML фреймворков (желательно TensorFlow). Условия работы:Оплата от сдельная, по итогам собеседования;Полностью удаленная работа;Возможность профессионального роста. </t>
+  </si>
+  <si>
+    <t>Основные обязанности:Разработка и поддержка основной концепции ведения социальной сети, вносит предложения по доработке концепции и содержания социальной сети, по введению нового сервиса для посетителей социальной сети - может учувствовать в разработкеТекстовое наполнение социальной сети, постоянным обновлением информацииОсуществляет контроль за соблюдением посетителями правил пользования социальной сети, а также иных обязательных требований, выдвинутых его создателямиКонтролирует соблюдение общего порядка в информационном поле социальной сети для удобства работы всех пользователей, этических и других норм поведения, принятых в интернет-сообществахУчастие в художественном оформлении помещаемой на социальной сети информацииВыполнение работ по редактуре и корректуре материалов и их структурированию, включая дизайн оформления текстов, таблиц и т. п.Исследование потребностей и запросов посетителей социальной сети - мар- контроль работы конкурентов, то есть сайтов или групп со схожей тематикой, концепцией и содержание макретинг-аналитикЕжемесячное формирование отчетов об изменениях, внесенных в структуру социальной сети, причинах данных изменений (если они есть), их целяхВедение статистики прошедших изменений за месяц (сколько чего добавлено), соблюдения сроков, составляет отчет о причинах их несоблюденияТребования:Опыт работы в MLM маркетингеПонимание, что такое платформа бренда, зачем она и как с ней работатьЭффективная работа с несколькими аккаунтами одновременноЗнание инструментов аналитики соц. СетейАктуальные знания в SMM и постоянное совершенствование навыковНавыки копирайтинга, составление грамотных вовлекающих текстовОпыт проведения съемок (фото и видео контента)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет! Мы – digital агентство 27std. Наша компания создает сайты под ключ. В услуги агентства входят разработка сайта, дизайн, его продвижение. Наша команда постоянно растет и развивается, в связи с этим мы находимся в поиске таргетолога. Что мы от вас ожидаем:Проживание в ГрузииУверенное знание инструментов таргетированной рекламы в Instagram и FacebookОпыт работы с разными источниками трафика в рамках заданных KPIЗнание английского на уровне от IntermediateУмение анализировать и оптимизировать рекламные кампанииОпыт продаж в интернет-магазинах и знание турецкого будет преимуществомЗадачи:Настройка и запуск рекламных кампаний по зарубежным и российским проектам в Facebook и InstagramСоставление ТЗ дизайнерамОптимизация рабочих процессовТестирование и масштабирование рекламных кампанийМы предлагаем:Удаленный формат работыОфициальное трудоустройствоДостойный уровень заработной платы, который обсуждается после успешного прохождения собеседованияМолодой коллектив, адекватное руководство, дружную команду единомышленниковМожем также рассмотреть сотрудничество не на полную ставку, а на проекты. Для этого проживание в Грузии становится необязательным пунктом. </t>
+  </si>
+  <si>
+    <t>Привет, это Voximplant!Мы создаем технологии для коммуникаций, с помощью которых решаем разные задачи бизнеса: для этого у нас есть два продукта. Платформа Voximplant позволяет разработчикам улучшать свои продукты с помощью телефонии, голосовых ботов и видеоконференций. Voximplant Kit дает возможность компаниям развернуть облачный контакт-центр за 30 минут и автоматизировать общение с клиентами с помощью визуального редактора и искусственного интеллекта.Наши клиенты – российские и международные стартапы и крупные компании: например, «Сбер», «Тинькофф», «СДЭК», Skyeng, OZON, Pony Express и Leroy Merlin.О Voximplant в 2023 году:С 2013 года на рынке облачных коммуникаций;220+ сотрудников;30 000 клиентов по всему миру;1 млрд звонков обрабатываем в год;И сейчас мы находимся в поиске Middle/Senior С++ разработчика.Чем ты будешь заниматься:Разработка облачной платформы для real-time коммуникаций, которая должна выдерживать High Load, хорошо масштабироваться и быть доступной в режиме 24x7. Платформа собственно уже up and running, но работы еще море;Основная зона ответственности – голосовое ядро платформы: передача голоса в реальном времени, конференции, распознавание речи, видеосвязь, P2P коммуникации, и это ещё не всё!Что мы ожидаем от кандидата:Опыт разработки на С++ от 2 лет, начиная с 11 стандарта (у нас 17-ый);Опыт создания серверного ПО под Linux, опыт работы с gcc, make, bash, cmake;Умение пользоваться git;Опыт работы с STL;Эффективное использование многопоточности.Будет большим плюсом:Опыт разработки сетевых многопоточных приложений;Опыт разработки ПО в области IP-телефонии, знание протоколов SIP, RTP, SDP;Опыт работы с WebRTC, ffmpeg;Опыт работы с аудио- / видеокодеками;Знание JavaScript, Python.Почему тебе у нас понравится:Мы - продуктовая компания, которая создает технически сложный и востребованный продукт для бизнеса;Нашими API и SDK пользуются крупнейшие игроки на рынке: «Сбер», «Яндекс», «Тинькофф», «СДЭК», Skyeng, и ты будешь участвовать в разработке нашего продукта;Дадим возможность прокачаться в C++, системном программировании, работе с WebRTC и направлении VoIP;Удаленный или гибридный формат работы, гибкое начало рабочего дня;Команда с сильной технической экспертизой, у которой можно многому научиться;Опционная программа для сотрудников;Нет лишней бюрократии и хаоса;Одна из 3-х льгот на выбор за счет компании (с возможностью воспользоваться двумя другими на корпоративных условиях):Медицинская страховка от Best Doctor;Компенсация затрат на фитнес;Корпоративное обучение английскому языку до 2-х раз в неделю;Московский офис находится в пяти минутах от метро Тульская, рядом с Даниловским рынком. Два этажа с зонами отдыха, снеками и спортивным залом;Разные крутые активности внутри компании (бег, йога, волейбол, поездки на велосипедах);Современные и удобные инструменты, софт и оборудование для работы.Этапы:Коммуникация с рекрутером (20-30 минут)Техническое интервью с лидом командыТехническое задание (отнимает 2-3 часа чистого времени, выполняется в удобный для кандидата диапазон времени)ОфферЛучше писать в телеграм: @ViolettaProkopenko</t>
+  </si>
+  <si>
+    <t>В управление анализа данных и математического моделирования требуется кандидат, умеющий быстро и точно анализировать большие объемы данных. Вам предстоит заниматься:Анализом данных с помощью PythonАвтоматизацией процессовПодготовкой данных и обучением моделей MLВизуализацией данных, созданием презентаций и отчетностиТребования к кандидату:Знание Python (pandas, numpy, plt, sklearn)Знание SQL (умение создавать таблицы и выводить данные)Высшее образование (математическое/информационные технологии)Знание ML будут плюсомУсловия:Стабильный оклад, 60 тыс. руб.Официальное оформление по ТК РФ с первого дняГрафик работы 5/2, с 10:00-18:30. Суббота, воскресенье-выходныеБесплатный полис ДМСОтдых летом на море и зимой на горнолыжных курортах при финансовой поддержке от группы компанийКомпенсация расходов на абонемент в спортзал, на детский отдых и изучение английского языкаСоциальные программы по самым выгодным условиям от группы компаний: кредит, автокредит, страхование и другие банковские и страховые продуктыФинансовая поддержка от группы компаний в разных жизненных ситуацияхУчастие в корпоративных забегах, турнирах по шахматам, футбольных и волейбольных матчахСвободное общение с Руководством группы компаний: предлагайте любые идеи и реализовывайте интересные проектыПутешествия по России, знакомства с новыми людьми, конкурсы и корпоративы – живите яркой корпоративной жизнью!</t>
+  </si>
+  <si>
+    <t>Мы любим свое дело и много работаем. Поэтому Okko — один из ведущих онлайн-кинотеатров в России.Растём и развиваемся с 2011 года. Ежемесячно нас смотрят миллионы пользователей: на смартфонах, Smart TV и компьютерах. За всем этим стоит работа большой и сильной команды.В один из ключевых сегментов бизнеса Okko мы ищем менеджера продукта, которому предстоит заниматься навигацией каталога, UX, разделами фильмов, сериалов и другими контентными сценариями.Чем предстоит заниматься:Общаться с пользователями, изучать различные сегменты совместно с командами UX/CX и маркетинговыми исследованиями;Находить нетривиальные решения, формулировать гипотезы и продуктовые требования;Запускать A/B эксперименты и быстрые способы проверки гипотез;Организовывать эффективные процессы разработки и реализации проектов.Что для нас важно:Высокий уровень эмпатии для понимания как разные люди смотрят кино;Способность находить нестандартные решения, не бояться экспериментировать;Знание как работают A/B эксперименты, работа над продуктами с большой аудиторией;Будет плюсом, если раньше работали над видео-продуктами (блогеры, кино и другие типы контента);Любить смотреть кино и быть пользователем продукта;Также будет полезно, если работали над ML-продуктами.Мы предлагаем:Топовое оборудование и весь необходимый софт;Официальное трудоустройство, достойная заработная плата;ДМС со стоматологией, офисный врач, доплата больничного листа, корпоративные скидки;Льготные условия ипотеки в рамках зарплатного проекта;Бесплатная подписка на сервисы партнеров;Насыщенная корпоративная жизнь;Совместные занятия спортом: йога, футбол, волейбол;Современный офис с кикером, кофе, йогуртами, фруктами и вкусными завтраками.</t>
+  </si>
+  <si>
+    <t>Чем предстоит заниматься:Развитие закупки на выделенных каналах для достижения KPI (через лидирование UA менеджеров + самостоятельное подключение в фокусных местах);Наставничество UA менеджеров;Развитие отношений с партнерами;Развитие алгоритмов работы с каналами для роста их качественных и количественных результатов.Требования:Опыт закупки от 2х лет;Понимание принципов работы Facebook Ads, Google Ads, SDK Networks (Unity, Applovin, ironSource);Опыт лидирования UA менеджеров;Английский на уровне Intermediate и выше;Будет преимуществом опыт работы в геймдеве. Работа в Dankolab - это:Возможность работать с проектами, в которые играют миллионы игроков по всему миру;Уютная и творческая атмосфера в коллективе;Возможность работать удаленно, предоставляем всё необходимое оборудование для удаленной работы;Комфортные условия работы, гибкое начало рабочего дня;Стабильная заработная плата, отпуск, больничные и ДМС, включая стоматологию;Компенсация затрат на прохождение профильных курсов, занятий английским языком и спортом;Возможность карьерного и финансового роста;Яркая и насыщенная корпоративная жизнь.</t>
+  </si>
+  <si>
+    <t>Senior Backend-разработчик для мобильного приложения Lifestylo!Мы ищем опытного специалиста, способного внедрить машинное обучение и параметрическую алгоритмистику в архитектуру приложения и стать ключевым игроком в продуктовой и технической реализации проекта. Наша команда состоит из выдающихся профессионалов, которые успешно получили стартап-пермит в одной из лучших стран Европы - Финляндии, с комментарием fund-менеджера о перспективах быстрого международного роста.○ Опыт участия в разработке и запуске мобильных приложений/сервисов от идеи до вывода на рынок○ Понимание вертикального среза архитектуры проектов ○ Знание Python, а также опыт работы с фреймворками Django или Flask○ Опыт работы с RESTful API и интеграция с внешними сервисами○ Знание основ работы с базами данных, опыт работы с PostgreSQL или MySQL○ Понимание принципов работы машинного обучения, опыт работы с TensorFlow, Keras или PyTorch будет преимуществом○ Базовое знакомство с LangChain и LLMВилка 250 - 350к.</t>
+  </si>
+  <si>
+    <t>Салют!Меня зовут Илья и я IT-рекрутер, который поможет найти тебе работу мечты!В топовую компанию требуется Senior Golang разработчик для работы с основным продуктом!💰Зарплатная ложка: до 7000$⏰Формат: Full-time/удалённо💼 Если обладаешь этими навыками то пиши:Опыт с GO не менее 5 лет;Опыт с Амазон S3 API/аналогами;Опыт на highload проектах;Опыт разработки с нуля/построение архитектуры;📲Для отклика, велком в тг!​ ​​​​​​​​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О проекте: Ведущий разработчик мобильных приложений для обработки фотографий.  Приложения компании входят в первые строчки рейтингов App Store и Google Play в более чем 40 странах.Задачи:Работа с diffusion models: изучение, и решение нетривиальных задач с их помощьюОбучение разнообразных GAN моделей, улучшение текущих пайплайновРабота с генерацией синтетических данныхНаписание сервисов для деплоя в продВзаимодействие с командой по сбору данныхТребования:Большой опыт применения GAN моделей в реальных задачахОпыт работы с diffusion models в реальных задачахУверенное знание PytorchОпыт работы с библиотеками scikit-image / openCV / PILЖелание изучать новые подходы, модели и технологииЗнания теории вероятностей, статистики, линейной алгебры и методов оптимизацииНаписание читаемого и поддерживаемого кодаУмение работать с bash, gitЗнание английского (на уровне чтения статей) </t>
+  </si>
+  <si>
+    <t>Ведущий разработчик 1С#вакансия #Москва #разработчик #1С #ведущий #senior #e-com #удаленка #мидл #синьор #middle 📍Вакансия: Ведущий разработчик 1С📍Компания: Poison Drop ​📍Проект: e-com + офлайн розница📍Формат: удаленка или офис, гибкий график📍Доход: от 210 тыс. руб📌 Poison Drop - это мультибрендовый омниканальный международный универмаг украшений с популярным сайтом, мобильным приложением и магазинами в топовых торговых центрах. Компания уверенно развивается нэто мультибрендовый омниканальный международный универмаг украшений с популярным сайтом, мобильным приложением и магазинами в топовых торговых центрах. Компания уверенно развивается на ювелирном рынке с 2013 года, показывает ежегодный кратный рост, быстро увеличивает ассортимент, географию своего присутствия, количество точек продаж, штат сотрудников и узнаваемость бренда среди целевой аудитории.Осенью 2022 года компания вышла на международный рынок с операционным офисом в Дубае.📌 Какими задачами предстоит заниматься:• моделировать, проектировать и документировать развитие учетной системы;• участвовать в задачах поддержки 1С УТ;• доработка функциональности системы в соответствии с задачами бизнеса;• поддерживать работоспособность учетной системы;• заниматься обучением и консультированием пользователей.📌 Кого мы ищем, что ждем от кандидата?• знание платформы 8.3 обязательно;• опыт работы с УТ 11 в розничной компании;• навыки в работе с расширениями, хранилищем конфигураций, управляемыми формами и http/веб сервисами (Rest API).• развитые коммуникативные навыки, умение объяснить сложное простым языком;• желание развиваться в управлении разработкой, быть tech &amp; team lead• высокий уровень самоорганизации и личной ответственности.📌 Как мы работаем, что предлагаем :• работа в слаженной и позитивной команде профессионалов;• вся продуктовая разработка осуществляется inhouse (разработчики, QA, дизайн)• профессиональный рост и развитие в растущем, стабильном бизнесе;• подарки на праздники, дни рождения;• микс офиса и удаленки;• у нас свободный график начала и окончания рабочего дня;• мы сами ставим себе задачи и сроки их выполнения;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 📍Вакансия: Laravel developer📍Компания: ​📍Проект: e-com📍Формат работы: полный день, удаленно📍Доход: от 210 000 тыс руб на руки📍Стек: PHP 7, MySQL (MariaDB), Laravel, RabbitMQ, Memcached, ElasticSearch, Redis, Docker📌 Poison Drop ​ – это мультибрендовый омниканальный международный универмаг украшений с популярным сайтом, мобильным приложением и магазинами в топовых торговых центрах. Компания уверенно развивается на ювелирном рынке с 2013 года, показывает ежегодный кратный рост, быстро увеличивает ассортимент, географию своего присутствия, количество точек продаж, штат сотрудников и узнаваемость бренда среди целевой аудитории. Осенью 2022 года компания вышла на международный рынок с операционным офисом в Дубае.📌 Для развития и расширения команды разработки мы ищем PHP developer📌 Чем предстоит заниматься:Поддержка интернет-магазина компании - расширение функционала, правка ошибок.Поддержка внешних интеграций и создание новых.📌 Почему это может интересно?Предстоит реализация ряда амбициозных задач:- интеграция оффлайн-магазинов и оффлайн-пользователей, создание бонусной программы.- решение проблем с оптимизацией, поиск решений для повышения производительности.- внедрение мониторингов и сбора метрик состояния приложения- повышение качества языковой локализации сайта- разработка и поддержка API для мобильного приложенияМы используем современный стек технологий, работаем по Scrum с двухнедельными спринтами, документируем код PHPDoc, Swagger, пишем unit-тесты.Будет возможность работать с гибким графиком или удаленно.📌 Требования:Стек: PHP 7 (с переездом на 8 ), MySQL (MariaDB), Laravel, RabbitMQ, Memcached, ElasticSearch, Redis, DockerУмение работать с git (мы используем GitLab и работаем по git flow);Опыт от 3 лет на должности backend-разработчика;Наличие завершенных проектов в сети (необязательно сайт целиком - запущенные в production модули, которые можно посмотреть, вполне сгодятся);Высокий уровень самоорганизации;Внутренний интерес и вовлеченность в работу.📌 Как мы работаем, что предлагаем ?Оплачиваем обучение английскому языкуОформление по ТК РФАккредитованная IT компанияДМСОплачиваем обучение английскому языкуОбщаемся позитивно и конструктивно;Любим отмечать Дни Рождения (свои и сотрудников), дарим подарки, устраиваем вечеринкиУровень дохода определим по результатам собеседования. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 📍Вакансия: Руководитель разработки / Head of Development📍Компания: ​📍Проект: e-com📍Формат работы: удаленка + офис в Мск, гибрид📍Доход: от 300 тыс руб на руки📍Стек: PHP 7, MySQL (MariaDB), Laravel, Nuxt.js v.2 Vue.js, RabbitMQ, react-native, react-query, typescript, RabbitMQ, Memcached, ElasticSearch, Redis, Docker, Git Flow📌Poison Drop ​ – это мультибрендовый омниканальный международный универмаг украшений с популярным сайтом, мобильным приложением и магазинами в топовых торговых центрах. Компания уверенно развивается на ювелирном рынке с 2013 года, показывает ежегодный кратный рост, быстро увеличивает ассортимент, географию своего присутствия, количество точек продаж, штат сотрудников и узнаваемость бренда среди целевой аудитории.Осенью 2022 года компания вышла на международный рынок с операционным офисом в Дубае.📌Для развития и расширения команды мы ищем Head of Development📌Чем предстоит заниматься:Разрабатывать интернет магазин и мобильное приложение Poison DropКоординировать действия двух команд разработки и команды тестированияРазвивать архитектуру технического решенияУлучшать процессы разработки и тестированияРазвивать командуЗакатать рукава, погрузиться в бекенд и вместе с командой сделать продукт еще круче📌Что мы ждем от тебяПроактивности, бодрости, умения находить общий язык и договариватьсяВнутренний интерес и вовлеченность в работуОпыт координации небольшой командыУровень "боженька" в PHP и LaravelПишешь понятный код и применяешь принципы OOP и SOLIDЗнаешь про highload, мы растем и у нас есть нагрузкаGIT и Docker на 5Опыт работы с MySQL, Memcached, Redis, RabbitMQПишешь документацию по тех архитектуре, чтобы всем было понятно как оно работает📌Будет плюсом, если тыИмел опыт frontend разработки с Vue.jsНе по наслышке знаком с архитектурой e-com приложенияЗнаком с технологией SSR, у нас - nuxtРаботал с ElasticSearch📌Почему это может быть интересно?Предлагаем рост вместе с нами. Прозрачный трек от руководителя разработки до технического директора.Предстоит реализация ряда амбициозных задач:- интеграция оффлайн-магазинов и оффлайн-пользователей, создание бонусной программы.- решение проблем с оптимизацией, поиск решений для повышения производительности.- внедрение мониторингов и сбора метрик состояния приложения- повышение качества языковой локализации сайта- разработка и поддержка API для мобильного приложенияМы используем современный стек технологий, работаем по Scrum с двухнедельными спринтами, документируем код PHPDoc, Swagger, пишем unit-тесты.Будет возможность работать с гибким графиком или удаленно.📌Как мы работаем, что предлагаем ?Оформление по ТК РФАккредитованная IT компанияДМСОплачиваем обучение английскому языкуОбщаемся позитивно и конструктивно;Любим отмечать Дни Рождения (свои и сотрудников), дарим подарки, устраиваем вечеринкиУровень дохода определим по результатам собеседования. </t>
+  </si>
+  <si>
+    <t>avinfors.ru – это  решения для автоматизации деятельности и создания единого информационного пространства страховых компаний и брокеров, консалтинг, разработка и интеграция приложений, создание информационных систем.На текущий момент, мы на стадии формирования Sales Team. По этому ищем человека, который сможет быстро включиться в процесс, показать результат и в ближайшем будущем вырасти до руководителя, а также собрать команду вокруг себя.     📌 Требования:Опыт прямых продаж ИТ-продуктов (в том числе заказная разработка) в банковский или страховой сегмент как преимуществоОпыт создания и поддержания партнерской сети;Опыт поиска стейкхолдеров на различных ресурсах (Li,FB итд)Будет также плюсом: опыт продаж услуг заказной/аутсорс разработкиПроживание в Москве или готовность в нее переехать📌 Обязанности: Поиск и привлечение новых клиентовПроведение онлайн и очных встреч с потенциальными клиентамиРасширение сотрудничества с текущими клиентами📌 Условия: Работа в аккредитованной компанииИнтересный и уникальный продуктСтабильный оклад и жирная бонусная системаУютный офис на севере Москвы (м.Марьина роща)Формат офис/гибрид/удаленкаБелое и прозрачное оформление</t>
+  </si>
+  <si>
+    <t>Чем предстоит заниматься:Планирование маркетинговой стратегии компанииИсследование и анализ рынкаГенерация гипотез: тестировать, делать выводыПостроение и анализ CJMРаботать руками с Яндекс.Директ, ВК РекламаСбор и анализ данных в Google Analytics, Яндекс Метрики, AMOСRМ и систем сквозной аналитикиАнализ эффективности маркетинговых мероприятийРазработка и подготовка контента: копирайтинг (посты, статьи, пресс-релизы и пр.)Настраивать процессы лидогенерацииПри необходимости поиск и контроль подрядчиков (дизайнеры, копирайтеры, агентства и пр.)Требования:Релевантный опыт работы от 4 лет с B2B-сегментомУмение писать интересные, ёмкие, хорошо структурированные текстыУмение работать с аналитическими инструментами и метрикамиЖелание разобраться в сервисе компании, технических тонкостяхУмение анализироватьSoft skills:Коммуникабельность и работа в командеНавыки убеждения и презентацииКритическое мышлениеКогнитивная гибкостьАдаптивностьКреативностьЭмпатия</t>
+  </si>
+  <si>
+    <t>Мы занимаемся разработкой и внедрением продуктов и решений для операторов связи, а также различных ведомств (МЧС, МВД, Минобороны, РЖД и других).Ищем Инженера по внедрению и сопровождению, который поможет нам с интеграцией, тестированием и поддержкой продуктов Системы 112/АПК БГ на стороне заказчиков.Чем предстоит заниматься:внедрение прикладного ПО на поставляемое телекоммуникационное оборудование, обеспечение поддержки программных и аппаратных средств;обработка запросов заказчиков в корпоративной HelpDesk системе, анализ отказов и нарушений при эксплуатации;подключение дополнительных устройств к оборудованию с целью расширения его функционала;обучение заказчиков телекоммуникационного оборудования основам эксплуатации и технического обслуживания. Для нас важно:техническое образование (телекоммуникации или радиотехника);знание сетевых TCP/IP протоколов, опыт настройки оборудования коммутации и маршрутизации;опыт администрирования ОС Linux, OC Windows Server 2012/2019;опыт администрирования БД PostgreSQL, MS SQL;готовность к командировкам (до 1 недели) 2-3 раза в год. Мы предлагаем:официальное трудоустройство;ДМС (после испытательного срока);инвестиции в профессиональное обучение сотрудников;оплачиваемое участие в профессиональных конференциях.</t>
+  </si>
+  <si>
+    <t>Наша компания специализируется на создании передовых интегрированных решений для операторов, транспортных компаний, общественной безопасности, электроэнергетики и нефтегазовой отрасли.Мы ищем Инженера по внедрению и сопровождению, который поможет нам с выполнением задач по интеграции проектов, гарантийной и послегарантийной сервисной поддержке специалистов Заказчиков по решениям в области телекоммуникации.Основные задачи:внедрение решений для отраслевых заказчиков;сопровождение и техническая поддержка объектов заказчиков.Для нас важно:опыт администрирования Linux;знание систем виртуализации KVM Linux/VMWare;опыт работы с телекоммуникационным и серверным оборудованием;знание в области телекоммуникационных (SSN7, SIP, DSS1, etc) и сетевых (IP, TCP, UDP, DNS, NTP, DHCP, etc) протоколов ;Мы предлагаем:официальное трудоустройство, согласно ТК РФ;гибридный формат работы (2 дня удаленно, 3 дня из офиса);ДМС после испытательного срока;оплачиваемое компанией участие в профессиональных конференциях;инвестиции в обучение сотрудников.</t>
+  </si>
+  <si>
+    <t>Мы разрабатываем МойОфис — безопасные офисные решения для общения и совместной работы с документами. Московский центр разработки развивает продукты корпоративной линейки: электронную почту, календарь, контакты и службу каталогов. Нашими продуктами ежедневно пользуются сотрудники крупнейших компаний, государственных учреждений и образовательных организаций. Основными требованиями ко всем нашим продуктам были и остаются масштабируемость, отказоустойчивость и высокая доступность.В настоящий момент мы ведём поиск DevOps специалиста. Задачи, которые вам предстоит решать:конфигурация и поддержка процесса непрерывной интеграции (CI/CD) на базе CI сервера Jenkins;поддержка инфраструктуры разработки GitLab;развитие и поддержка процессов развертывания продукта на стенды разработки;мониторинг работы продукта и сопровождающих систем на этапе разработки;взаимодействие с командами разработки в Санкт—Петербургском офисе и других офисах компании.взаимодействие с DevOps инженерами CI/CD по конфигурации и поддержки процесса непрерывной интеграции;Для нас важно:опыт администрирования RHEL Linux и его производных;уверенные знания системы управления конфигурациями Ansible;знание Jenkins pipeline, GitLab webhooks;отличные знания code management процессов и ПО (Git);умение писать скрипты и читать код (Python/Bash/Ruby/Groovy);знание систем сборок (Maven, Gradle, Grunt, Webpack);умение читать и желание писать документацию;базовые знания системы контейнеризации Docker;технический английский.Будут также полезны:опыт внедрения IaaS систем (openstack, cloudstack);базовые знания Java, JavaScript, Go;опыт fullstack разработки на Python или JS.опыт тонкой настройки высоконагруженных систем;понимание принципов high load и high availability, владение инструментарием;навыки работы с сетевым оборудованием, знание теоретических основ TCP/IP.Мы предлагаем:работу в стабильной ИТ-компании с государственной аккредитацией;гибридный формат работы (2 дня в неделю в офисе)возможность работать в крупном, постоянно развивающемся проекте с нетривиальными задачами;современные подходы к архитектуре и технологический стек;возможность предлагать свои идеи и влиять на проект – проработайте идею с командой и она воплотится в жизнь;наращивать экспертизу - в нашей команде принято совершенствоваться и делиться знаниями, коллеги готовы рассказать и научить тому, в чем отлично разбираются;комфортную атмосферу – мы уважаем друг друга, открыты к общению на любые темы и ценим увлеченных людей;профильные курсы, корпоративный английский, участие в конференциях (в т.ч. спикером, если есть желание и готовность);приятный социальный пакет – ДМС со стоматологией, оплачиваемое питание, завтраки и перекусы в офисе, частичную компенсацию спорта.</t>
+  </si>
+  <si>
+    <t>Телфин — аккредитованная IT-компания, разработчик и провайдер решений в области телекоммуникаций для бизнеса на основе VoIP-технологий. Основные должностные обязанности:Обеспечение бесперебойной работы сети Интернет-телефонииУчастие в разработках и внедрении новых голосовых и видео-сервисовКонтроль и обеспечение работоспособности серверов и оборудования ядра Voip инфраструктурыНеобходимые знания и навыки:Глубокое понимание принципов работы Интернет-телефонии по протоколу SIPПрактический опыт настройки и управления программными коммутаторами SIP Kamailio и/или OpensipsОпыт построения высоконагруженных голосовых сервисовВладение письменным английским языкомХорошие коммуникативные навыки и способность к самоорганизацииКандидат должен соответствовать хотя бы двум из следующих дополнительных требований:Опыт администрирования операторского оборудования в сетях NGN/VOIP (SS class 4/5, SBC, голосовые шлюзы)Опыт работы с оборудованием AcmePacket и/или SBC EltexОпыт построения и эксплуатации серверных систем высокой готовностиПрактический опыт установки и администрирования сервисов на оcнове SIPОпыт администрирования и оптимизации серверов БД MySQLНаличие сертификатов по сетевым или голосовым технологиямУсловияОфициальное трудоустройствоБелая зарплата, оклад от 130000 рублей на рукиГибридный график работы -  частично можно работать удаленно</t>
+  </si>
+  <si>
+    <t>Middle-level Java &amp; C Software Developer at Cloudonix - a New-York based software-defined communications platform (remote)  Cloudonix offers Software Defined Communications as a business enablement platform so that enterprises can rapidly realize revenue and improve customer service by merging voice and data into a complete service context. Cloudonix adds Cloud capabilities to your existing on-premise Call Center enabling your agents to work from anywhere in the world. Security, Privacy and more – rapidly deployed and cost effective without replacing your existing systems or retraining your team. Cloudonix is a rapidly growing company that is expanding its team due to increased demand and revenue growth. The founders of the company - Eric Klein &amp; Nir Simionovich.  Eric Klein - co-founder, COO, and CISO - is an entrepreneur and startup mentor for several technology oriented startups. Nir Simionovich - co-founder &amp; CEO - a professional Asterisk application and platforms developer with a flair for platform development in various fields, as well as an Open Source integration expert and evangelist.  Now, they are seeking a talented and experienced Middle-level Java &amp; C Software Developer to join their growing team at Cloudonix. As a key member of the software development team, you will contribute to the design, development, and maintenance of the cutting-edge communication platform. Your role will involve working on back-end server development, product development, troubleshooting features, and potentially iOS development.  Wanna join a fast-paced growing startup? Apply now!  What you will do:Program, troubleshoot, and debug software applications to resolve issues and ensure optimal performance - Cloudonix is an API-based company, so you'll be responsible for back-end server development, product development, iOS development, and may be work related to the dashboard. Write efficient and maintainable code while following coding standards and best practices.Take ownership of the development process, from design to implementation, ensuring timely delivery of high-quality software.Participate in code reviews and provide constructive feedback to improve code quality and maintainability.Collaborate with the CTO and occasionally the CEO to discuss technical challenges, brainstorm ideas, and receive mentorship. Requirements:Excellent English &amp; communication skills with the ability to effectively explain technical concepts - you'll communicate with native English speakers, so we expect you to have a minimum of an Advanced level and for sure we don't want to see or hear any mistakes.Proven track record in software development with 3-5 years of relevant experience.Strong proficiency in Java and C programming languages.Ability to take ownership of projects and drive them to completion.Experience working in high-performance, cross-functional software development teams.Excellent problem-solving and troubleshooting skills.Openness to receiving feedback and asking questions when faced with challenges. The team is not used to working with shy people who waste time instead of notifying the team about their questions, hesitations, and opinions.Strong self-reliance and the ability to create solutions and make decisions on your own with the minimum required confirmations. If you don't know something, you need to be independent enough to Google, ask team members, and not get stuck on a problem.Be a proactive team player who's not afraid to speak up for your own opinion - seriously, the company is looking for a person with many ideas, not just an executor.Organizing skills - you know exactly how to organize your work and personal time and don't want any minute to go to waste. Not necessary but will be a plus: Familiarity with other technologies/languages such as Ruby, C++, Bash, Vert.x, Angular, AWS, Linux, Android, iOS, and VoIP.  Working hours:You’ll need to adjust your schedule to overlap with the team members located in New York &amp; Israel daily from 8 am to 1 pm New York time (EST time zone, check the time difference via the link).  Business trips:The team likes to gather in Israel once per quarter, so you need to have a passport that would allow you to enter Israel. The costs will be covered by the company, you just need to make sure that your country of citizenship is “friendly” with Israel and going there is not a problem for you. Location:For this vacancy, we are not ready to consider candidates physically located in Russia, Ukraine, and Belarus. However, citizens of those countries located in other countries are for sure welcomed. What we offer: Full-time schedule (8 working hours per day, 5/2). We will not consider candidates planning to combine several jobs. Mentoring and discussions will be provided by the CTO and partially by the CEO. While mentorship is available, candidates should also demonstrate a proactive attitude towards education and self-learning. Remote work. You may be located in almost any country or city, just need a good Internet connection and the opportunity to adjust your working schedule for the team. Team gatherings in Israel once per quarter, all costs covered.Stability - this is not an internship or project work, we consider only the candidates looking for a long-term commitment.Quick selection process. Application deadline: June 26, 2023.  Please note that the later you apply - the more intensive your selection process will be, for example, you will have less time for the test assignment, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продуктовая It- компания по разработке инновационного программного обеспечения, которая разрабатывает комплексные решения для стартапов в различных отраслях.Формат работы: удаленноОсновной стек: Java11 /spring boot/, AWS, Redshift, PostgreSQL, Snowflake, AirflowУсловия: Высокая зп + забота о здоровье, компенсация расходов за занятие спортомОформление через ИП </t>
+  </si>
+  <si>
+    <t>Первый Бит — это международная IT-компания. Наше предназначение — делать бизнес наших клиентов сильнее с помощью IT-решений и создавать возможности для успешного развития.Нам интересно быть первыми во всех регионах присутствия, создавать большие экспертные команды и непрерывно развиваться. Территория компании — это территория возможностей и результата.HR-отдел — команда, которая помогает бизнесу решать его задачи. Мы четко понимаем текущие и будущие цели отдела, ключевая из них — стать Работодателем №1 в регионе.Ищем в команду Рекрутера уровня middle или senior для усиления наших компетенций. МЫ ПРЕДЛАГАЕМ:Неограниченные возможности роста и развития. Для этого у нас есть внутренняя база знаний, обмен опытом с коллегами, погружение в специфику нашего бизнеса, а также поддержка инициатив.Экспертного и лояльного руководителя. 70% наших руководителей выросли внутри компании и знают, как работает бизнес и как стать эффективным сотрудником.Гибридный график. После успешного прохождения испытательного срока предлагаем формат частично удаленной работы или гибкое начало рабочего дня. Это поможет сохранять work-life balance.Современный офис. У нас классное современное пространство, большая парковка, вкусный кофе. По соседству — спортивный зал с бассейном.Бонусы. Для сотрудников после испытательного срока предоставляется возможность оформить льготный ДМС со стоматологией себе и родственникам. В него входят ТОП клиники города: Лотос, Вся медицина, Вэладент, Клиника репродуктивной медицины, Белый Кит и другие. Скидки от наших партнеров: ИНВИТРО, ФК Колизей, Литрес, Яндекс практикум, Skyeng и другие.Соблюдение обязательств. Трудоустройство по ТК РФ, своевременные выплаты заработной платы три раза в месяц. ЗАДАЧИ ДОЛЖНОСТИ:Закрытие вакансий: составление профиля, поиск и отбор кандидатов, ведение кандидатов до момента трудоустройства.Работа с командой: контроль и развитие компетенций сотрудников команды (в функциональном подчинении 2 рекрутера Junior).Аналитика: контроль метрик в блоке рекрутинга, предложение по корректировкам действий при отклонениях.Участие в процессах onboarding и offboarding.Развитие в других интересных для вас проектах: внутренние коммуникации, внешний hr-бренд, кадровый резерв, расширение команды и работы с вакансиями других городов и регионов. ТО, ЧТО ДЛЯ НАС ВАЖНО:Владение механиками поиска и отбора специалистов разных направлений.Навык обучения и развития сотрудников в блоке рекрутинга.Личные качества: умение мыслить без ограничений, готовность развивать новые навыки и оттачивать приобретенные, любопытство и смелость, упорство, хорошая самоорганизация и нацеленность на результат.</t>
+  </si>
+  <si>
+    <t>В Uniscan Research мы делаем наукоёмкие приборы серийным продуктом.Мы ищем программиста микроконтроллеров в команду инженеров, которая занимается разработкой и сопровождением комплексов технических средств охраны. ПродуктПредстоит создавать ПО для устройств, основными чертами которых являются:Автономная работа от собственного источника питания 24/7.Сенсоры, работающие на различных принципах: сейсмические, инфракрасные,радиолучевые и т.п.Математическая обработка сигналов, формирование и передача сообщений по проводным или беспроводным каналам связи.Для ряда устройств – формирование, обработка и передача фото или видео по радиоканалу.Некоторые устройства имеют графический интерфейс.Большинство приборов взаимодействует с пультом оператора в виде отдельного устройства или на базе ПК по радиоканалу. Вам предстоит:Поддерживать существующие устройства на базе ARM.Разрабатывать новые устройства.Участвовать во внутренних инфраструктурных проектах (библиотеки кода). Кого ищемМы ищем инженера для разработки встраиваемого ПО для микроконтроллеров. От кандидатов ожидаем:Опыт программирования микроконтроллеров от 3 лет. Предпочтение отдаем кандидатам, уверенно владеющим языком C++. Также мы готовы рассматривать кандидатов с опытом разработки встраиваемого ПО на С, знанием С++ и готовностью использовать новый стек в дальнейшей работе.Опыт использования контроллеров на базе ARM.Навыки работы в git.Развитые коммуникативные навыки, готовность работать в команде. Наш стекМы пишем на языке C и C++ в средах IAR и Visual Studio.Мы храним код в Git. Сборкой релизов у нас занимается Continuous Integration сервер под управлением GitLab с Python скриптами. Если вы с этим уже работали, то замечательно. Если нет, то будет время научиться. Про команду и процессыВ нашей компании разработка организована в формате кросс-функциональных продуктовых команд (Scrum, Kanban), состоящих из специалистов, компетенции которых позволяют успешно разрабатывать и сопровождать закрепленные за командой продукты.Вам предстоит работать в одной из таких команд, взаимодействуя с программистами, электронщиками, тестировщиками и конструкторами. Рабочие места членов каждой команды расположены в одном просторном помещении.В команде у вас не будет прямого технического руководителя, который формирует "задачи". Нужно будет самостоятельно выбирать способ реализации бизнес-требований. Уметь брать на себя ответственность за результат, смотреть шире должностных инструкций.Мы пишем на языке C и C++ в средах IAR и Visual Studio.Мы храним код в Git. Сборкой релизов у нас занимается Continuous Integration сервер под управлением GitLab с Python скриптами. Если вы с этим уже работали, то замечательно. Если нет - то будет время научиться. Что предлагаем:Работу в Академгородке, офис на Арбузова.Трудоустройство по ТК РФ. Заработная плата полностью белая, итоговый уровень дохода готовы обсуждать индивидуально.Рабочий день можно начинать до 12-00.Обеды за счет компании, чай, кофе, печенье.Медицинское обслуживание в одной из местных клиник, корпоративный терапевт.Обеспечение всем необходимым оборудованием и ПО.Обучение - в рамках компании функционирует комьюнити программистов: наши сотрудники делятся своими знаниями и подходами к работе. Также оплачиваем сотрудникам курсы и сертификации, проводим внутренние митапы.Комфортный офис с полностью оборудованными рабочими местами, уютными зонами отдыха, профессиональной кофе-машиной, спортплощадкой, собственными парковками (авто- и вело-).Uniscan Research входит в реестр аккредитованных IT-компаний.</t>
+  </si>
+  <si>
+    <t>Наши требования к кандидату:Опыт в разработке и продвижении коммерческих проектов в сегментах B2B и B2C по созданию web-сервисов и/или Android/iOS приложений от 3х лет;Опыт написания ТЗ, постановки задач, контроля выполнения работ;Умение координировать команду разработчиков и дизайнеров;Понимание процесса разработки в этапах.Основные задачи:Ведение собственных проектов компании;Сбор требований, формирование технического задания;Распределение задач в команде;Планирование сроков проекта;Ведение документации по проекту.Какие качества нам важны:Проактивность. Вы не ждете, когда что-то пойдет не так, а предпринимаете меры, чтобы факапов не случалось.Системность на базовом уровне и понимание логики процессов. У вас есть базовое понимание, как вы будете достигать целей.Аналитический склад ума. Опираетесь на цифры и факты в принятии решений.Любознательность. Интересуетесь новыми подходами и фишками в отрасли.Эмпатия. Вы легко можете понять позицию второй стороны при общении.Способность к непрерывному обучению. Вы внимательны к обратной связи и готовы изменить свою линию поведения, если она перестала быть эффективной.Что мы предлагаем:Интересные проекты и задачи, а также возможность профессионального развития;Полностью удалённая работа - мы не привязаны к месту, собираем самых сильных сотрудников вне зависимости от их местоположения;Щедрый обмен знаниями и опытом;Адекватное руководство, не бюрократический подход в обсуждении рабочих процессов;Уровень заработной платы финально определяем с успешным кандидатом.Полная занятость, гибкий график работы</t>
+  </si>
+  <si>
+    <t>Роль: CCO (управление маркетингом и продажами) с ростом до CEO в ближайшей перспективе. Компания - крупный игрок на рынке лидогенерации и партнерского маркетинга. Численность команды на данный момент: 26 человек (распределенная). Отделы: Affiliate, IT, Коммерческий (катманы), Маркетинг, Сервисные отделы (финансы, HR), медиа-баинг. Условия: полный день, нужна включенность и погруженность в задачи, команду, бизнес;гибридно (на первом этапе появляться в офисе, периодичность обсуждаем, командировки в Питер - если вы не тут);достойный фикс + бонусная часть. Бонусы обсуждаем отдельно на этапе встречи с акционерами.Фокусные задачи на первый период:  1) Усилить коммерческую функцию в области работы с собственными оферами (продуктами): Прогнозирование, планирование, реализация плана;Выработка решения по своевременной закупке товара;Управление трафиком day by day;Выработка маркетинговых решений по поддержке привлечения трафика.2) Выработка и внедрения решений по сквозной аналитике офера, от поступления сырого лида до выкупа товара конечным клиентом3) Выработка и внедрение решений по каннибализации 30% трафика с оферов внешних рекламодателей на собственные оферы4) Поиск точек роста и быстрая проверка гипотез в следующих областях:Работа с клиентами, affiliate часть;Работа с внешними рекламодателями, категорийный менеджмент;Взаимодействие с собственными рекламодателем;Маркетинг и трейд-маркетинг.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATOKEN is the supermarket of assets where it is easy to discover, exchange, earn and spend crypto.Mission: Well-structured and secure data and monitoring.Story: Product, Finance, OKRs, and Dash Teams need well-structured and secure data and monitoring to analyze and track the improvement of the services and product performance.Key PROBLEM's:The monitoring system alerts for any downtime, latency, or success rate issues of the services.All company data and events are merged and consolidated into the Data Base (DWH, PostgreSQL, Segment, Indicative, Google Analytics) to support the Monitoring system, Token Discovery, OKRs and Analytical Dashes.Acquisition channels, conversions, and users are correctly mapped and easy to access.Token DB is representative of the market and token data is correct and complete with on-chain and smm data. (30k tokens by end of April)How:Create new data pipelines for business need.Maintain scripts and pipelines in case of problems or new requirements.Define necessary events, set up recording and make available for reports and dashboards.Maintain and update token DB.Constraints:All OKRs of the company are consolidated into Platform Ops.All scripts are consolidated into Gitlab.Main performance number: Ops OKR HealthSecond performance number: Free Space DWHThird performance number: Query response time, sec avgFunctions:• OKRs Health : Calculate OKRs correctly, daily and in time• DWH objects audit• Queries : Advice on optimization and writing queries to databases.• Data quality : Keep data in order and provide reliable reporting• Automation : Automation of OKRs and slack bots for automated ops processes• Audit : Audit of DWH state and automated scriptsRequirement skills and experience:2+ years of PostgresSQL DB administration experience;2+ years of experience writing Python scripts and applications for loading data;Experience in configuring a database in a high-availability architecture;Experience in database optimization for different load profiles;Experience in automating data loading from different sources (CRM, ERP, Web resorses)Eager to work with people with high-performance standardsWill be a plus:Experience with financial dataExperience as a data/product analyst </t>
+  </si>
+  <si>
+    <t>Мы - компания КОРЕАНА. Нам более 20 лет!Мы очень стабильны на рынке. Сейчас у нас идет большое развитие.В том числе за счет вложения в ИТ и развития компании за счет ИТ. Для этого нам нужен бизнес-аналитик в один из проектов.Возможен гибридный формат работы.У нас нет: сложностей и бюрократии, дресс-кода и общения на "Вы".Мы предлагаем участие в проектах внедрения новых ИТ продуктов в роли аналитика.Чем ты будешь заниматься:Общаться с заказчиками, понимать и описывать их потребностиОписывать бизнес-процессы AS IS и TO BE. И так же их реинжиниритьОписывать функциональные требования к новой функциональности ИТ продуктовУчаствовать в проектировании оптимальных способов реализации требованийНарезать задачи для разработчиков, а также сценарии тестированияПринимать задачи от разработчиков, делать итоговое тестирование и сдавать результаты заказчикуПодготовка инструкций по новой и существующей функциональности.Мы ждем от тебя:Опыт работы аналитиком в ИТ с 1С от 3 летОпыт формализации и управлениям требованиями, разработки технической документацииОпыт описания и проектирование бизнес-процессов. Желательно знание нотаций BPMN, IDEF, ARISГрамотная устная и письменная речь. Навыки презентации идей и предложенийБудет хорошо если есть знание процессов розничной торговли, E-com, складских процессов</t>
+  </si>
+  <si>
+    <t>Офис, гибрид📲Компания: Цифровое подразделение крупнейшей нефтехимической компании России📍Формат работы:офис гибрид (Москва, м. Профсоюзная)💰Зарплатная вилка: от 400 до 420К ( +25% годовая премия)✔️Требуемый опыт работы: 3–5 лет ‼️Что нужно делать:🔹анализировать и оценивать требования к системе🔹проектировать на уровне архитектуры решений в целом и разрабатываемых систем в частностипроектировать интеграционные взаимодействия🔹анализировать и оценивать готовые инструменты и системы в контексте ИТ решений🔹согласовывать архитектуры решения со смежными командами🔹прорабатывать архитектурные решения при разработке на Java ✅Чего мы ждём от кандидата:🔹опыт в роли Java разработчика🔹опыт внедрения или разработки BPM решения🔹опыт анализа и создания технической документации🔹опыт проектирования и реализации микросервисной архитектуры🔹навыки командой работы🔹навыки эффективной коммуникации и способность приходить к результативному и конструктивному соглашению в переговорах 🗂Что мы предлагаем:🔹Трудоустройство в аккредитованную ИТ-компанию.🔹Возможность гибрида или полноценный офисный формат работы (график обсуждается индивидуально в зависимости от роли)🔹Заработная плата по результатам собеседования, премии за эффективную работу и результат🔹Действительно нестандартные задачи, которые требуют креатива и новых подходов, мы работаем в реальном секторе, наши пользователи - реальные люди🔹Современный стек и гибкие методологии разработки, работа в команде высококлассных профессионалов из разных технологических областей🔹Возможность обучения и участия в жизни IT-сообщества: большой выбор курсов в нашем корпоративном университете, посещение митапов, конференций🔹Корпоративные льготы: ДМС, льготное страхование родственников, большой выбор внутренних спортивных секций, скидки на абонементы сети World Class</t>
+  </si>
+  <si>
+    <t>Мы разрабатываем МойОфис — крупнейший российский разработчик безопасного офисного ПО для общения и работы с документами. Московский центр разработки развивает продукты корпоративной линейки: электронную почту, календарь, контакты и службу каталогов. Нашими продуктами ежедневно пользуются сотрудники крупнейших компаний, государственных учреждений и образовательных организаций.Наш бекенд состоит из нескольких десятков микросервисов, общающихся между собой по GRPC, а с внешним миром – через различные гейтвеи (JSON-RPC, WS, IMAP, SMTP, CalDAV, CardDAV, LDAP). Слой хранения нашей системы включает в себя различные документоориентированные и графовые базы данных, а также объектное хранилище. Мы используем специальные техники, чтобы создавать self-healing софт, способный восстанавливать работоспособность системы после длительного периода инфраструктурных проблем. Мы требовательны к производительности и качеству выпускаемых продуктов и обеспечиваем их многоуровневое тестирование.В качестве бекенд-разработчика Go вам предстоит решать нетривиальные задачи, связанные с исследованием новых предметных областей, проектированием архитектуры сервисов, реализацией их бизнес-логики, а также писать юнит-тесты и документацию.Ваши будущие задачи:разработка микросервисов на Golang (проекты: почта, календарь, контакты, каталог);проектирование архитектуры подсистем;проектирование и реализация API;создание действительно качественного кода (производительность, тесты, документация).Используемые технологии: Go, GRPC, RethinkDB, ArangoDB, MongoDB, Redis, NATS, Docker, Kubernetes, Prometheus, Grafana.Для нас важно:опыт серверной разработки от 3 лет;опыт разработки на Golang от 1 года;опыт конкурентного и асинхронного программирования;понимание эффективности применяемых алгоритмов;навыки работы в Linux среде;ответственность и достаточная самостоятельность;уверенность при работе с существующим кодом;английский язык на уровне чтения технической документации.Будет плюсом:опыт работы с noSQL базами данных;опыт реализации протоколов по англоязычным спецификациям;опыт работы с высоконагруженными и геораспределенными системами.Мы предлагаем:работу в стабильной ИТ-компании с государственной аккредитацией;возможность работать в крупном, постоянно развивающемся проекте с нетривиальными задачами;современные подходы к архитектуре и технологический стек;возможность предлагать свои идеи и влиять на проект – проработайте идею с командой и она воплотится в жизнь;наращивать экспертизу - в нашей команде принято совершенствоваться и делиться знаниями, коллеги готовы рассказать и научить тому, в чем отлично разбираются;комфортную атмосферу – мы уважаем друг друга, открыты к общению на любые темы и ценим увлеченных людей;профильные курсы, корпоративный английский, участие в конференциях (в т.ч. спикером, если есть желание и готовность);приятный социальный пакет – ДМС со стоматологией, оплачиваемое питание, завтраки и перекусы в офисе, частичную компенсацию спорта;отсутствие строгого дресс-кода;удаленный формат / гибридный формат работы из офиса Москвы или Санкт-Петербурга.</t>
+  </si>
+  <si>
+    <t>О продукте:MD Audit – В2В решение для комплексного аудита ритейла, ресторанного бизнеса, банковских отделений и многого другого, а также управления и оптимизации бизнес-процессов.В портфеле клиентов более 100 крупных и средних компаний РФ, среди которых: X5 Retail Group, Fix Price, MODIS, Альфа-Банк, Бургер Кинг, Яндекс.Лавка, LIME, Лента и многие другие. Чем предстоит заниматься:разрабатывать новый функционал и развивать существующий - чек-листы, таск-трекер, чаты, дашборды, взаимодействие с внешними устройствами;проводить код и дизайн-ревью;развивать технологический стек;работать в команде: взаимодействовать с РП, дизайнерами, тестировщиками, разработчиками iOS и смежных платформ;менторить младших коллег.Мы ждём от будущего коллеги:опыт коммерческой разработки под iOS с использованием языка Swift от 3-х лет;знание различных архитектур и подходов к разработке, умение их применять и аргументировать свой выбор;знание HTTP протокола и библиотек для работы с ним - URLSession / Alamofire / Moya / Socket;уверенная работа с БД Realm, опыт написания миграций;хорошие коммуникативные навыки - умение выстраивать плодотворные взаимоотношения с командой, быть гибким и готовым прийти на помощь.Наш стек:Swift 5UIKitАрхитектура VIPERБД RealmMoyaRxSwiftУсловия:достойная заработная плата по итогам собеседования;оформление по ТК;корпоративное и внешнее обучение, профессиональный рост;удобный график работы;молодая и сплоченная команда, комфортная атмосфера;современный офис рядом с метро Бауманская/ гибрид/ полная удалёнка – на выбор.</t>
+  </si>
+  <si>
+    <t>Мы – группа компании в Fintech холдинге, которая занимает лидерские позиции на кредитном, коллекторском и маркетинговом рынках в Чехии, Украине, Испании и Румынии, предлагаем тебе присоединиться к нашей команде на должность IT-менеджера проекта/продукта для нового направления – микрокредитование. Вашей главной задачей будет ведение проекта, коммуникация с разработчиками группы компании, работа по созданию нового функционала и улучшению продукта. Какова задача нашей ИТ-команды? Разработка и сопровождение CRM-системы микрокредитования.Работа над новыми проектами с целью увеличения функциональности, оптимизации, привлечения новых технологий и процессоввеКакова будет ваша задача? Тесно общаться и сотрудничать с разработчиками, руководством и внешними поставщиками.Ежедневный мониторинг и анализ эффективности продукта.Понимать внутренние процессы и бизнес-аспекты, уметь превращать бизнес-требования в техническое задание для дальнейшей разработки.  Что мы от вас ждем? Технические знания и опыт в сфере IT (в идеале также образование)Знание английского языка не ниже Upper Intermediate. (ежедневное словесное и письменное общение).Проактивный подход, ответственность, надежность, тайм-менеджментАналитическое мышлениеКомандная работа, умение поддерживать хорошее настроение и создавать условия для работы IT-команды.Знание Excel (приветствуются высокие навыки).Знание работы в JIRA и Confluence.Опыт и гибкие методы, среда разработки, GitLab и другие перечисленные инструменты – большое преимущество.Опыт в сфере микрокредитования будет большим преимуществом. Что мы вам для этого предлагаем? Достойная оплата труда и высокие бонусы.Интересны задачи и разные проекты.Работа в международной компании в области Fintech.График 5/2 можно работать удаленно или в Праге.</t>
+  </si>
+  <si>
+    <t>PLATA is a digital financial services and technology company that aims to become the primary financial relationship of Mexican consumers and to reward their financial life through inclusion, simplicity, convenience, trust, and security.We are a FinTech team with extensive experience in the Russian market. Most of the starting team is ex-Tinkoff people who believe in the idea and plan to make a cool new product in the global market. More familiar faces can be seen on our company profile on LinkedIn.We are seeking a skilled Frontend Developer who will join our strong and enthusiastic team!Job responsibilities:Creation of a public website using the most recent version of Angular (15, potentially 16)Development of product features mainly targeted for UI/UX excellencePlatform development and technical instruments integrationCoding, review, and participation in discussions of how to improve the projectInteraction with designers, product managers, analysts, backend and mobile functionsRequirements:Deep knowledge of Angular, including an understanding of basic Angular concepts, components, directives, services, and modulesProficiency in working with RxJS, including Observable, HOO (High-order Operators), Hot/Cold Observables, and SubjectsUnderstanding of Angular lifecycle hooks and their usage in component developmentKnowledge of change detection mechanisms in Angular and the ability to optimize performance through efficient change detection strategiesProficiency in implementing and utilizing dependency injection in Angular applicationsExperience with Angular Forms, including template-driven and reactive forms, form validation, and form submissionFamiliarity with Angular routing and the ability to configure and manage application routes effectivelyWill be a plus:Understanding of SOLID principles and design patterns and their application in Angular developmentExperience with Angular Universal for server-side rendering (SSR) and NX for monorepo developmentWhat we offer:Opportunity to participate in the creation of a new and innovative companyOpportunities to learn and grow together with the company, influence on processes and build a product from scratchRelocation to Cyprus or Kazakhstan with full visa &amp; permit support to the employee and familyPossibility to work from one of our offices or remotelyHealth insuranceLife InsuranceEquipment, Learning, Hardware, and Wellness allowances</t>
+  </si>
+  <si>
+    <t>Social Discovery Group is one of the world's largest groups of social discovery companies, uniting more than 40 brands, an investment fund, and a venture studio. We solve the problem of loneliness, isolation, and disconnection with the help of digital reality. Our products include both international dating sites operated by our subsidiary Dating Group and new social and entertainment apps built by SDG Lab. More than 180 million people across 100 different countries enjoy our technologies. We strive to have 10 times as many.Our international team of 700 professionals and digital nomads works all over the world. Together we develop services based on new principles of communications with a focus on video streaming, AI technologies, and game mechanics. Among our products: Dating.com, AnastasiaDate.com, DateMyAge, EVA AI, Magnet, Tubit, BamBam, CupidMedia, DilMil, Once.We are now looking for a Deputy Head of Unit (MarTech)/CPO for our division MarTechMarTech is a division of SDG specializing in the development of universal all-products services that increase the efficiency of user acquisition and monetization. With the help of neural networks and other modern technologies, we solve such problems as targeted buyout of specific users in advertising channels, routing users between projects, retention via email-push-webpush-sms mailings, developing high-converting landing pages with recommendation algorithms and other integration and algorithmic tasks. Hundreds of thousands of users pass through MarTech products every day. With a small team of 20 people, we provide almost a quarter of the entire turnover of the holding.Area of responsibilities:Web onboarding flow (landing pages production, A/B test conveyor, smartrouting alrothims, translations support);Retention channels (tech development, failsafe, AI-filtering and predictions, deliverability, CRM development, translations support);Cross-sales mechanics (users routing, scheduling, calls to action, conversions improvements);We expect from you:Perfect understanding of the principles of developing modern digital products, background experience in linear roles in production (development, product management, testing, analytics);Analytical skills - experience in SQL and modern BI-systems (Superset, Metabase, Tableau);Understanding the intersection of product and marketing management - attribution, postbacks, interaction with oauth providers;Experience with user retention channels, understanding of the general principles of reputation management and deliverability;Both Russian and English speaker not less then upper intermediate level;Why choose us? You will obtain experience with the latest technologies and be able to contribute to creating internal solutions;You will work an environment where innovative ideas are heard and implemented;You will have opportunities for career progression and development within the company;You will become part of a young and efficient team of professionals that offers a lot to learn.What we offer:Remote work (you can work from anywhere);Competitive salary;Loyalty bonuses, referral bonuses, bonuses for extraordinary achievements;Access to a wide range of personal training and development programs.Own collection of branded clothing and accessories with corporate logo for different occasionsLibrary of technical and business literature, lectures on Art&amp;Technology and healthy lifestyle;Internal gamified gratitude system: bonuses from colleagues which you may exchange them for day off, merch, team building activities, massage certificates, etc;7 sick days a year (days off), which can be used to deal with domestic issues, to take a rest and recover without taking sick leaveHealth benefits (either Corporate Medical Insurance or compensation for the paychecks, depends on the location)Children’s education reimbursement. 50% compensation for the costs of kindergarten or school, up to $1000 gross per year per a child according to the paychecks.Workplace organization (in the locations where we don't have offices or co-workings there's compensation for your workplace up to $ 1000 gross once every 3 years according to the paychecks -- rent of the co-working room, equipping the working place at home (desk, chair, Internet, etc.)Participation in sports events (rafting, carting), corporate events</t>
+  </si>
+  <si>
+    <t>Привет! Меня зовут Артур, я Senior Product Analyst в EMEX. Ищу аналитика уровня junior/junior+ в наш продукт EMEXО компании EMEXEMEX — международный холдинг, который включает торговый, доставочный и информационный бизнесы: торговая площадка EMEX.DWC в ОАЭ и EMEX.ru — первый профессиональный маркетплейс автозапчастей в России.EMEX.ru — маркетплейс с оборотом более 238 млн. USD, где представлены разные виды запчастей под любые потребности и возможности покупателя. Сегодня нашим пользователям доступны более 38 миллионов товарных предложений. Ежедневно 11 тысяч покупателей совершает более 40 тысяч выгодных покупок, оптимальных для каждого конкретного покупателя.Миссия EMEX — создавать свободу выбора для всех пользователей, удовлетворяя их потребности:мы решаем проблемы автовладельцев, чтобы обеспечить им свободу передвижения;мы открываем продавцам новые возможности для сбыта, чтобы они увеличивали продажи;мы предлагаем сотрудникам интересные и сложные вызовы, чтобы они привносили ценность и реализовывали свой потенциал.Наша цель — экспансия на новые рынки: мы работаем над созданием глобальной доставочной и информационной сетью. Мы представлены на рынках Ближнего Востока и СНГ, и исследуем, куда выходить дальше: мы рассматриваем как развивающиеся рынки, например, в африканских странах. Так и развитые — в европейских странах.О команде и инструментахКоманда аналитики находится внутри продуктовой команды под руководством CPO. Мы расширяемся, бросаем амбициозные вызовы, поэтому нам нужен новый аналитик, который усилит наши продуктовые команды в части анализа данных. Это новая должность, которой ранее не было в компании.Мы планируем работу по спринтам, а на каждый продукт выделена полноценная команда из менеджера, разработчиков, тестировщиков, дизайнера, архитектора. А еще мы совместно с CEO и CEO-1 подводим итоги кварталов.Инструменты, которые мы используем в аналитикеБазы данных: SQL Server, Clickhouse, PostgreSQL.Код: Python, SQL.Визуализация: Metabase, Grafana, исследования в Jupyter.А еще Posthog, Я.Метрика, Google Analytics и Airflow.Кого и зачем мы ищемЯ ищу продуктового аналитика, который будет развивать data-informed, а в будущем data-driven культуру внутри своего продукта, работая в кросс-функциональных командах совместно с менеджерами. Продуктовый аналитик в EMEX помогает принимать бизнесу правильные решения и искать точки роста для увеличения прибыли и ключевых показателей.Что нужно делатьОценивать влияние ключевых метрик проекта на высокоуровневые бизнес-метрики компании;Анализировать пользовательское поведение и функциональность продукта;Проверять и генерировать гипотезы в плотной связке с менеджером, искать узкие места и точки роста в продукте;Оценивать эффекты от различных изменений в продукте, в т.ч. проводить A/B эксперименты;Поддерживать продуктовую команду в сборе аналитики и проведении количественных экспериментов.Вот какие цели будут стоять перед тобой на первые 3 месяца:Погрузиться в продукт: понять процессы, собираемые данные, структуру и архитектуру данных;Выстроить систему ключевых метрик продукта;Согласовать все второстепенные и прокси-метрики, на которые в дальнейшем будет ориентироваться продукт при приоритизации задач и оценке эффективности решений;Описать требования к DWH для подсчета ключевых метрик продукта;Создать дашборд с ключевыми метриками продукта.Как понять, что ты подойдешьХорошо разбираешься в разделах теории вероятностей и математической статистики;Владеешь SQL на достаточном для написания сложных запросов уровне;Знаешь Python на уровне, достаточном для анализа, визуализации и интерпретации данных;Готов осваивать новые инструменты и технологии;Способен аргументированно отстаивать собственную точку зрения и слышать чужие.Что мы можем предложитьТы сможешь развиваться как аналитик вместе с нашими быстрорастущими продуктами и решать неординарные проблемы.Свободу действий и самостоятельность в принятии решений: если ты стремишься к принятию обоснованных и целесообразных решений, мы дадим тебе пространство для их реализации. Проверяя гипотезы, опираясь на вопросы: “для чего это пользователям? мы это делаем, чтобы что?” мы проверяем инициативы на согласованность с целями бизнеса без лишнего микроменеджмента.Ты будешь участвовать в создании продукта, с которым работают пользователи в разных регионах мира.Мы сторонники горизонтальных коммуникаций: каждый в нашей команде, начиная с фаундеров, открыт к общению, готов ответить на возникающие вопросы и поделиться тем, что знает сам; любой специалист может обратиться к руководителю напрямую.Забота о сотрудниках. Мы внимательно относимся друг к другу и готовы помочь решить проблему. Например, если обстоятельства вынуждают сотрудника переехать в другой город или страну — мы всегда открыты к диалогу. Если ты работаешь в РФ, мы сможем обеспечить тебя ДМС и предоставить всю необходимую технику для работы.Сотрудники EMEX самостоятельно выбирают где работать: мы поддерживаем удаленный формат работы (по времени ориентируемся на московский часовой пояс). Во-первых, мы не контролируем рабочие часы — для нас важен результат. Во-вторых, ты можешь работать, находясь за пределами России, оформив договор с офисом нашей компании в Дубае.</t>
+  </si>
+  <si>
+    <t>Привет! Меня зовут Артур, я Senior Product Analyst в EMEX. Ищу аналитика уровня middle в наш продукт EMEX.DWC.О компании EMEXEMEX — международный холдинг, который включает торговый, доставочный и информационный бизнесы: торговая площадка EMEX.DWC в ОАЭ и EMEX.ru — первый профессиональный маркетплейс автозапчастей в России.EMEX.DWC — это глобальная торговая компания, объединяющая предложения поставщиков с рынков GCC (страны персидского залива), Европы, Америки, Японии, СНГ в единый товарный фид, доступный покупателям со всего мира.Сейчас в DWC много неизведанного. Придется сильно постараться, чтобы во всем разобраться и навести порядок. Но при этом все, что сейчас делает команда - фундамент для экспансии и захвата мира. А чтобы захват прошел по плану - нужна сильная и достоверная аналитикаМиссия EMEX — создавать свободу выбора для всех пользователей, удовлетворяя их потребности:мы решаем проблемы автовладельцев, чтобы обеспечить им свободу передвижения;мы открываем продавцам новые возможности для сбыта, чтобы они увеличивали продажи;мы предлагаем сотрудникам интересные и сложные вызовы, чтобы они привносили ценность и реализовывали свой потенциал.Наша цель — экспансия на новые рынки: мы работаем над созданием глобальной доставочной и информационной сетью. Мы представлены на рынках Ближнего Востока и СНГ, и исследуем, куда выходить дальше: мы рассматриваем как развивающиеся рынки, например, в африканских странах. Так и развитые — в европейских странах.О команде и инструментахКоманда аналитики находится внутри продуктовой команды под руководством CPO. Мы расширяемся, бросаем амбициозные вызовы, поэтому нам нужен новый аналитик, который усилит наши продуктовые команды в части анализа данных. Это новая должность, которой ранее не было в компании.Мы планируем работу по спринтам, а на каждый продукт выделена полноценная команда из менеджера, разработчиков, тестировщиков, дизайнера, архитектора. А еще мы совместно с CEO и CEO-1 подводим итоги кварталов.Инструменты, которые мы используем в аналитикеБазы данных: SQL Server, Clickhouse, PostgreSQL.Код: Python, SQL.Визуализация: Metabase, Grafana, исследования в Jupyter.А еще Posthog, Я.Метрика, Google Analytics и Airflow.Кого и зачем мы ищемЯ ищу продуктового аналитика, который будет развивать data-informed, а в будущем data-driven культуру внутри своего продукта, работая в кросс-функциональных командах совместно с менеджерами. Продуктовый аналитик в EMEX помогает принимать бизнесу правильные решения и искать точки роста для увеличения прибыли и ключевых показателей.Что нужно делатьОценивать влияние ключевых метрик проекта на высокоуровневые бизнес-метрики компании;Анализировать пользовательское поведение и функциональность продукта;Проверять и генерировать гипотезы в плотной связке с менеджером, искать узкие места и точки роста в продукте;Оценивать эффекты от различных изменений в продукте, в т.ч. проводить A/B эксперименты;Поддерживать продуктовую команду в сборе аналитики и проведении количественных экспериментов.Вот какие цели будут стоять перед тобой на первые 3 месяца:Погрузиться в продукт: понять процессы, собираемые данные, структуру и архитектуру данных;Выстроить систему ключевых метрик продукта;Согласовать все второстепенные и прокси-метрики, на которые в дальнейшем будет ориентироваться продукт при приоритизации задач и оценке эффективности решений;Описать требования к DWH для подсчета ключевых метрик продукта;Создать дашборд с ключевыми метриками продукта.Как понять, что ты подойдешьХорошо разбираешься в разделах теории вероятностей и математической статистики;Владеешь SQL на достаточном для написания сложных запросов уровне;Знаешь Python на уровне, достаточном для анализа, визуализации и интерпретации данных;Готов осваивать новые инструменты и технологии;Способен аргументированно отстаивать собственную точку зрения и слышать чужие;Умеешь видеть за данными их продуктовый и бизнес-смысл и понимаешь, насколько важно доносить его максимально понятно для коллег;Умеешь общаться с заказчиками и выявлять бизнес-требования;Опыт работы в области анализа данных от 2-х лет.Что мы можем предложитьТы сможешь развиваться как аналитик вместе с нашими быстрорастущими продуктами и решать неординарные проблемы.Свободу действий и самостоятельность в принятии решений: если ты стремишься к принятию обоснованных и целесообразных решений, мы дадим тебе пространство для их реализации. Проверяя гипотезы, опираясь на вопросы: “для чего это пользователям? мы это делаем, чтобы что?” мы проверяем инициативы на согласованность с целями бизнеса без лишнего микроменеджмента.Ты будешь участвовать в создании продукта, с которым работают пользователи в разных регионах мира.Мы сторонники горизонтальных коммуникаций: каждый в нашей команде, начиная с фаундеров, открыт к общению, готов ответить на возникающие вопросы и поделиться тем, что знает сам; любой специалист может обратиться к руководителю напрямую.Забота о сотрудниках. Мы внимательно относимся друг к другу и готовы помочь решить проблему. Например, если обстоятельства вынуждают сотрудника переехать в другой город или страну — мы всегда открыты к диалогу. Если ты работаешь в РФ, мы сможем обеспечить тебя ДМС и предоставить всю необходимую технику для работы.Сотрудники EMEX самостоятельно выбирают где работать: мы поддерживаем удаленный формат работы (по времени ориентируемся на московский часовой пояс). Во-первых, мы не контролируем рабочие часы — для нас важен результат. Во-вторых, ты можешь работать, находясь за пределами России, оформив договор с офисом нашей компании в Дубае.</t>
+  </si>
+  <si>
+    <t>Cloud.ru (ООО «Облачные технологии») – лидирующий провайдер облачных услуг и сервисов по моделям IaaS и PaaS, а также решений для ML-разработки.Первый облачный провайдер, запустивший суперкомпьютер для широкого рынка.Входит в TOP-3 быстрорастущих IT-компаний и TOP-3 на рынке облачных решений. В связи с ростом задач мы будем рады пригласить к себе в команду «Python Backend developer» (уровень middle и senior)В данный момент вакансии Python Backend developers открыты в следующих командах: Data Catalog, платформа ML Space; ComplexML; OpenStack ; Platform Virtualization и др.Подробнее о командах, требованиях, стеке и функционале - по запросу. Минимальные требования к кандидатам:- Опыт разработки на Python от 3-х лет, Linux, PostgreSQL, Ansible (другие навыки в зависимости от команд)- Образование: законченное высшее- Наличие ВБ/приписного  Что предлагает Компания:- Бессрочный трудовой договор, испытательный срок 3 месяца- График работы – 8-ми часовой 5/2, возможна 100% удалёнка- Заработная плата (оклад) –зп вилка до 450 000 рублей gross- Годовая премия- Корпоративная мобильная связь; корпоративные скидки для сотрудников группы компании; льготные условия кредитования- Страхование – ДМС+стоматология с 1го месяца работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud.ru (ООО «Облачные технологии») – лидирующий провайдер облачных услуг и сервисов по моделям IaaS и PaaS, а также решений для ML-разработки.Первый облачный провайдер, запустивший суперкомпьютер для широкого рынка.Входит в TOP-3 быстрорастущих IT-компаний и TOP-3 на рынке облачных решений. В связи с ростом задач мы будем рады пригласить к себе в команду «Golang Backend developer» (уровень middle и senior)В данный момент вакансии Golang Backend developer открыты в следующих командах: Команда разработки Enterprise, Команда разработки сервисов облачной платформы, Команда Software-Defined Storage, Команда Kubernetes as service, SVP, Команда Identity &amp; Access Management (IAM), AICloud (DSWorks), Расходы и мониторинг, Сайт, Команда Paas - Базы Данных и другие продукты как услуга (Существующие продукты - Postgres, Kafka, Apache Ignite как сервис и др.)Подробнее о командах, требованиях, стеке и функционале - по запросу. Чем вам предстоит заниматься:- Разработка продуктов облачного провайдера- Прототипирование и проектирование новых сервисов- Разработка и интеграция новых инфраструктурных сервисов, способных работать под большой нагрузкой- Оптимизация производительности сервисов- Решение задач обеспечения отказоустойчивости и устойчивого роста нагруженных систем- Уменьшение time-to-market как для новых, так и для уже существующих сервисов- Code review Требования:- Опыт разработки на Golang инфраструктурных сервисов и операторов K8S- Опыт работы с gRPC- Опыт разработки на Python- Понимание принципов устройства REST/gRPC API- Желание покрывать код тестами- Понимание принципов работы K8S – операторы, webhooks, reconciliation loop- Понимание принципов построения безопасного межсервисного взаимодействия- Опыт работы с инструментами контейнеризации (Docker, K8S) и автоматического развертывания- Уверенный пользователь Linux (работа с файлами, ssh, systemctl, стандартные команды обработки логов)- Образование: высшее (техническое)- Наличие ВБ/приписного Что предлагает Компания- Бессрочный трудовой договор, испытательный срок 3 месяца- График работы – 8-ми часовой 5/2, возможен 100% удаленный график работы- Заработная плата (оклад) – для позиции middle зп вилка до 320 000 gross, для позиции senior зп вилка до 403 000 gross- Годовая премия- Корпоративная мобильная связь; корпоративный фитнес (только для Москвы); корпоративные скидки для сотрудников группы Сбер; льготные условия кредитования- Страхование – ДМС+стоматология </t>
+  </si>
+  <si>
+    <t>Привет! Мы ищем коллегу в отдел продаж IT-продуктов.Что для нас важно:Опыт в сложных B2B продажах от 3 лет в сфере IT.Умение находить контакты и вести успешные коммуникации с ЛПР.Опыт работы в роли PM/PO, понимание жизненного цикла IT-проектов.Будет плюсом: опыт проведения презентаций, опыт подготовки коммерческих предложений.Что предстоит делать:Привлекать новых заказчиков, партнеров и проекты в компанию.Проведить презентации продуктов компании онлайн и оффлайн для ЛПР.Инициировать процесс оценки запросов на разработку.Подготавливать коммерческие предложения.Формировать воронку продаж.Заключать договоры с заказчиками, поддерживать и развивать долгосрочные партнерские отношения.Контролировать дебиторскую задолженность в рамках договоров.Погружаться в проектную деятельность компании и бизнес-процессы заказчиков.Управлять задачами, сроками, целями, командой и бюджетом проекта.Мы предлагаем:Удаленную работу из РФ или в офисе (г. Пермь).Обсуждаем зарплату, опираясь на пожелания/навыки/рынок (и у нас всё прозрачно).Оплату ДМС (включая стоматологию), спорта и образовательных мероприятий.Профессиональное развитие: проводим митапы, делимся опытом экспертов, предоставляем доступ к технической библиотеке, составляем для сотрудников и реализовываем индивидуальные планы развития.</t>
+  </si>
+  <si>
+    <t>We are HRBRO. We help tech startups worldwide in the field of talent sourcing and now we are supporting =nil; with their hiring. We are looking for an experienced Cryptography Researcher who is interested in advanced cryptography. We expect, that Cryptography Researcher will be responsible for developing ZK proof systems.**What you bring to the table** - MS with a major in Applied Math or equivalent experience- Deep expertise in cryptographic algorithms and primitives;- Peer-reviewed publications in cryptography, distributed systems, proof systems;- Understanding or experience in ZK proof techniques (for example, Groth16, Plonk, STARKs, Marlin);- The language of departments communication is English, so you’re supposed to be at least B2 level; **Responsibilities** - Developing cryptography algorithms design including proof system design;- Design circuits for protocols’ state proofs for a proof system;- Academic writing;- Security analysis;- Research other solutions related to proof-system/circuits/other cryptography tasks **We offer** - Money (or any other form of compensation you want)- Don’t do the thing if you don’t like it - that is the motto- Health insurance- No corporate bullshit culture- Remote work or office work in Limassol - it is your choice- Relocation support (Cyprus)</t>
+  </si>
+  <si>
+    <t>Наша компания разрабатывает платформу МойОфис - продукт для организации корпоративной рабочей среды и совместной работы с документами в государственных организациях и крупных коммерческих компаниях, включающий в себя полный набор современных офисных приложений для всех популярных операционных систем, веб-браузеров и мобильных платформ.В настоящий момент мы активно ищем в нашу команду Разработчика Битрикс24.Ваши будущие задачи:Разработка сложной логики внутри CRM Bitrix24 (коробка) с использованием API и бизнес-процессов;Поддержка и доработка портала Битрикс24 (коробка);Интеграция Б24 с внешними системами (1С, телефония, сайт на БУС и другие);Взаимодействие с подрядчиками и разработчиками готовых модулей по интеграции с новыми сервисами и их реализация;Консультирование ПМ по техническим вопросам и специфике коробочной версии «Битрикс24»;Разработка и доработка frontend в рамках интерфейса Битрикс24.Для нас важно:Опыт разработки Битрикс24 от 2 лет;Уверенное знание PHP (PHP7/8), понимание основ и принципов ООП, умение корректно применять ООП/функциональное программирование, грамотное применение различных инструментов языка программирования;Знание MySQL, умение составлять комплексные запросы, работа с JOIN'ами;Писать свой чистый, поддерживаемый и понятный код;Навыки работы в консоли Linux и настройки VM Bitrix;Опыт создания и редактирование Бизнес процессов, смарт-процессов, роботов в Битрикс24;Навыки использования системы контроля версии GIT;Уверенное владение HTML, CSS, JS, jQuery, AJAX;Соблюдение общих принципов разработки на Битрикс24 без нарушения целостности базового функционала.Будет плюсом:Опыт использования Rest API в Битрикс24;Наличие сертификатов 1С-Битрикс;Опыт администрирования Unix-серверов (Nginx, Apache);Опыт реализация кастомных активити для дизайнера бизнес-процессов в коробочном или облачном Bitrix24;Опыт реализация интеграций с помощью входящих и исходящих веб-хуков;Применение JS библиотеки BX, знание принципов работы интерфейсов Битрикс24.Мы предлагаем:работу в стабильной аккредитованной компании;возможность работать в крупном, постоянно развивающемся проекте снетривиальными задачами;современные подходы к архитектуре и технологический стек;возможность предлагать свои идеи и влиять на результат;наращивать экспертизу - в нашей команде принято совершенствоваться и делиться знаниями, коллеги готовы рассказать и научить тому, в чем отлично разбираются;выстроенные процессы с использованием гибких методологий разработки;комфортную атмосферу – мы уважаем друг друга, открыты к общению на любые темы и ценим увлеченных людей;профильные курсы, корпоративный английский, участие в конференциях (в т.ч. спикером, если есть желание и готовность);приятный социальный пакет – ДМС со стоматологией, оплачиваемое питание, завтраки и перекусы в офис, частичная компенсация спорта;офис/гибрид/удаленная работа;офис в центре Москвы, метро Тверская/Пушкинская/Чеховская.</t>
+  </si>
+  <si>
+    <t>Привет! Мы - Nomia, разрабатываем самую современную ERP-систему для автоматизации ресторанного бизнеса и производим собственное “железо”. Наш продукт позволяет заведениям быстро обслуживать клиентов и грамотно управлять внутренними ресурсами.Мы в поиске амбициозного Junior Project Manager, которому действительно интересно работать и развиваться в IT сфере:Что предстоит:Работа с данными (мы часто пользуемся Excel для работы с данными по маркетингу, продукту, исследованиям);Распределение задач (фичи, баги) по разработчикам (PO =&gt; PM =&gt; Developers / QA);Стендапы и контроль текущих задач (постановка, сроки);Контроль за соблюдением процессов (по флоу разработки, по релизам);Фасилитация встреч;Чего мы ждем от тебя:Умение работать с данными (сбор, анализ);Умение работать с Excel :)Развитые системное мышление и логика;Ты непрерывно обучаешься и развиваешься в своей сфере;Ты быстро адаптируешься (мы стартап, и развиваемся с учетом меняющейся конъюнктуры рынка);Будет круто, если:ты имеешь техническое образование, работал в IT-компании, проходил курсы - уже знаком со спецификой работы;карьерный рост в своей сфере.Этапы отбора:HR-интервью;Тестовое задание;Интервью с CBDO;Интервью с СЕО.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должность: Android developerКомпания: eXpressЛокация: РоссияФормат работы: удаленноОпыт: от 2 - 5 летЗанятость: полная занятостьВилка: от 120 000 до 350 000 рублейСейчас мы расширяемся и ищем в нашу продуктовую Android команду разработчиков, которым интересны не только производительность и удобство приложения, но и решаемые ими проблемы пользователей. Кратко о проекте:Мы разработали удобную платформу для общения, звонков и сотрудничества, где любая информация остается только на корпоративном сервере и которая закроет 95% операционных потребностей сотрудников крупных, средних и небольших компаний.Основная идея продукта – стать единым автоматизированным рабочим местом для сотрудников средних и крупных компаний, где они могли бы в едином окне общаться, обмениваться контентом, созваниваться и тд, а также получать доступ к любым своим бизнес-системам(sap,1c, jira, etc) из любой точки мира, в том числе в режиме оффлайн.Что такое eXpress•Лидер рынка коммуникаций. Мы – №1 на рынке (итоговый рейтинг корпоративных мессенджеров CNEWS, декабрь 2022).•Доказанное качество. Доверие крупнейших российских заказчиков и амбициозные проекты с 11 компаниями из топ-20 списка РБК500.•Постоянный рост. Год назад нас было 80 человек, сегодня в нашей команде более 150 сотрудников. Мы уже арендовали новый офис и ждем новых классных специалистов. •Уникальные технологии. Мы с нуля создали собственный протокол передачи данных. Сегодня это единственный распределенный (федеративный) протокол онлайн-коммуникаций в мире. •Мы придумали смартаппы и приложение-криптоконтейнер, которые полностью перевернули понятие «защищенная корпоративная мобильность».•Мы не копируем чужое. Мы создаем новое, что до нас никто не создавал. Работаем со стеком:kotlinrxjavacoroutinesdaggerokhttpretrofitfirebaseroomwebrtclibsodiumпрочее специфическое. </t>
+  </si>
+  <si>
+    <t>СберЗдоровье - аккредитованная IT-компания, крупнейшая в России Digital Health платформа, объединяющая различные сервисы цифровой медицины.Сервис начал свою работу в 2012 году под брендом DocDoc. Мы помогли миллионам людей получить помощь и продолжаем повышать качество медицинских услуг.Об IT в цифрах:3 бизнес-направления;15+ команд (каждая наша команда кросс-функциональная, 7-12 человек, помимо Backend включает в себя QA, DevOps, аналитиков, архитекторов, Web/Mobile разработчиков и конечно же своего PM);200+ IT специалистов (devops, manual/auto QA, web/mobile devs, backend devs, аналитики и архитекторы) из 40+ городов.Команда состоит из QA Fullstack инженеров, которые прокачивают автоматизацию во всех продуктовых командах. Развивает инструменты автоматизации и аналитики тестирования, проводит внутренние обучения для развития членов команды.Что предстоит делать у нас:Проводить полный цикл тестирования по продукту на бекенде и клиентах;Разрабатывать ручные и автоматизированные сценарии;Поддерживать уровень покрытия и стабильность сценариев команды;Участвовать в планировании и грумингах в продуктовой команде;Возможность влиять на принимаемые решения;От тебя мы ожидаем:Применяешь тест-дизайн и теорию тестирования в работе;Автоматизировал тесты на api и клиентах;Общее понимание HTTP, REST, JSON, Web Service;Что тебе может дать СберЗдоровье:Возможность развития в команде ведущей MedTech-компании России;Свободный выбор рабочего формата: удалённый внутри страны или гибридный в Москве;Офис на набережной рядом с метро «Автозаводская»;Корпоративное медицинское решение в любом городе страны со стоматологией и психологами;Поддерживаем активный образ жизни — выбирай виды спорта по душе (корпоративные команды, компенсация абонемента);Оплата профильного обучения и конференций;Скидки и бенефиты от наших партнёров;Оплачиваемые курсы английского языка;Льготная ипотека.А еще:Всегда поддержим, если ты захочешь посетить профильные конференции;Мы общаемся на “ты”, не любим бюрократию и всегда помогаем друг другу.</t>
+  </si>
+  <si>
+    <t>О компании и командеКоманда Sprintty создает для наших партнеров, спортивных организаций, OTT платформы, благодаря которым наши клиенты имеют возможность монетизировать их видео-контент и проводить онлайн трансляции мероприятий, предоставляя конечным пользователя доступ к качественному контенту на одной из самых лучших платформ.Мы растём, поэтому находимся в поиске DevOps Engineer'а, который совместно с командной разработки будет способствовать дальнейшему совершенствованию нашего продукта.Чем необходимо заниматься?Работа с облаком по принципу IaC (Terraform);Управление кластерами K8s при помощи Terraform;Развертывание приложений в Staging / Production окружениях (Gitlab CI + Ansible);Мониторинг, сбор логов, бекапы (с периодической проверкой "восстанавливаемости");Инцидент - менеджмент, обеспечение непрерывности работы сервиса.Ожидания от кандидатаMust have: Практический опыт работы с Ansible и Terraform;Знания принципов работы Kubernetes и опыт работы с ним;Быть гуру Gitlab CI;Знание любого скриптового языка;Мастерское владение конфигурированием NGINX;Понимание принципов построения систем мониторинга, сбора логов, бекапов.Будет преимуществом:Понимание принципов построения отказоустойчивых систем;Опыт работы с ECK (Elastic Cloud for Kubernetes);Опыт работы с HPA и Cluster Autoscaler;Опыт реализации Service mesh (Istio);Опыт взаимодействия с CDN;Опыт работы с AWS.Условия работыМы не привязаны к офису, вся команда работает удалённо. У нас нет бюрократии и жесткой иерархии. Мы работаем исключительно на результат и выстраиваем партнерские отношения в команде.</t>
+  </si>
+  <si>
+    <t>Привет!Мы — Smartex.Нам интересен процесс инженерного творчества — разработки цифровых продуктов, которые двигают бизнес вперед и принципиально меняют его.Нам интересно решать сложные проблемы бизнеса с помощью ИТ.Сейчас у нас запускаются новые проекты для международных и отечественных компаний, поэтому мы ищем DevOps инженера, который поможет существующей команде с повседневными задачами.Наша командаВся команда работает удаленно с 2016 года.Сейчас в ней 35 человек, которые работают из разных локаций (Россия, Кипр, Грузия, Израиль, Казахстан, Молдова, Индия). Средний возраст команды - 33 года. В инфраструктурном направлении у нас несколько DevOps-инженеров с опытом от 1,5 до 5 лет.Мы участвуем как в проектах, связанных с инфраструктурной поддержкой крупных клиентов, так и в проектах по разработке ПО.Что мы делаем для твоего профессионального развития1. Performance reviewМы считаем, что своих сотрудников нужно развивать, поэтому мы регулярно даем обратную связь и проговариваем карту развития для каждого сотрудника.2. Митинги командыОт встречи к встрече повестка меняется: иногда каждый рассказывает о своих проектах и трудностях, которые на них возникли, и мы сообща ищем их решение. На других митингах мы обсуждаем новые инструменты и технологии, и как мы можем их применять на наших проектах.3. Софинансируем расходы на твоё развитиеКомпания компенсирует половину твоих расходов на обучение в офлайне или онлайне.Если тебе понадобится книга для развития — мы её купим.Наш стекУ нас есть принятый стек, но, если появятся новые технологии и инструменты, которые будут подходить твоему проекту — мы будем только за, если ты решишь их использовать.Стек используемых технологий:— Clouds: AWS, Yandex Cloud, Azure— IaC: Cloudformation, Terraform, Ansible— Containers: Kubernetes, Docker— CI/CD: Teamcity, ArgoCD, Gitlab— Monitoring: Prometheus, Zabbix, Cloudwatch Alarms— Logging: ELK, New Relic— Web servers: Nginx— Atlassian Software: Jira, Confluence— VCS: Bitbucket, Gitlab, CodeCommit✅ Что тебе нужно будет делать— Решать инциденты и анализировать проблемы в инфраструктуре— Развертывать и поддерживать инфраструктуру, преимущественно в облаках (AWS, Yandex Cloud, Azure)— Запускать и администрировать приложения в Kubernetes и Docker— Заниматься построением CI/CD процессов✅ Чего мы ожидаем от тебя— Опыт работы DevOps инженером от 2 лет— Уверенные навыки администрирования Linux— Опыт работы с Docker и K8S в продуктивной среде— Опыт работы с облачными провайдерами— Опыт построения CI/CD процессов— Уверенное знание Git— Готовность разбираться с новыми технологиями / инструментами— Опыт работы с системами мониторинга и логирования— Знания и опыт работы с серверами балансировки, распределения трафика (Nginx)‍❤️✅ Условия:— Полная удаленка из любой точки мира— Трудоустройство в аккредитованную ИТ-компанию— Performance review: ты регулярно будешь получать фидбэк от тимлида и узнавать о своих зонах развития— Участвуем в развитии твоего личного бренда: помогаем с написанием статей и готовим к выступлению на конференциях— Комфорт в работе: мы ориентируемся на результат, а не на микроменеджмент, и тебя не будут отвлекать по пустякам— Руководитель, который ставит понятные задачи с полным контекстом— Компенсация 50% расходов на профессиональное обучение и курсы, занятия спортом и английским языком— Гибкое начало рабочего дняБольшая просьба: в сопроводительном письме напиши, пожалуйста, уровень зарплаты на который ты ориентируешься относительно нашей позиции.Ждём тебя в нашей команде!</t>
+  </si>
+  <si>
+    <t>Мы Dietology.Live - онлайн школа здорового питания с нутрициологами и кураторами. Помогаем людям экологично менять свои привычки, заботиться о себе и своем здоровье.За 2 года существования компании мы убедились в важности нашей услуги, нашли целевую аудиторию и выстроили воронки привлечения клиента. Сейчас мы готовы кратно расти и ищем в команду менеджеров по продажам. Готовы брать замотивированных людей без опыта. Всему научим.Чем нужно заниматься:⁃ Продавать продукты Dietology.Live клиентам, прошедшим диагностическую сессию;⁃ Обрабатывать заявки клиентов (без холодного поиска), прошедших диагностическую сессию;⁃ Презентовать преимущества работы со специалистами компании Dietology.live;⁃ Общаться с клиентами посредством IP телефонии либо деловой переписки;⁃ Работать с сомнениями и возражениями клиента;⁃ Ориентироваться в продуктах Dietology.Live, полностью вести сделку;⁃ Вести историю общения с клиентами в базе amoCRM.⁃ Выполнять планы продаж;⁃ Выполнять нормы звонков.Что тебе поможет:⁃ Высокий уровень коммуникативных навыков;⁃ Желание помогать нашим клиентам;⁃ Стремление к идеальному сервису (клиентоориентированность);⁃ Опыт в онлайн продажах приветствуется, но готовы обучать;⁃ Отсутствие боязни отрабатывать возражения.Что мы предлагаем:⁃ Удаленная работа из любой точки мира;⁃ Фиксированное вознаграждение + бонус по KPI; (средний доход 75 000 руб., потолка нет);⁃ Регулярные выплаты дважды в месяц;⁃ Оплачиваемый отпуск;⁃ График работы 5/2, смены 09-18 и 12-21 (по мск);⁃ Скидка 30% для тебя и близких на все продукты Dietology.Live;⁃ Абонемент на тренировки с FitStars;⁃ Возможность получать пассивный доход по реферальной программе: 1000 рублей за каждого специалиста или менеджера по продажам, который пройдет отбор в нашу команду. Сотрудничать с Dietology.Live при этом не обязательно — оставить рекомендацию может каждый!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы Dietology.Live - онлайн школа здорового питания с нутрициологами и кураторами. Помогаем людям экологично менять свои привычки, заботиться о себе и своем здоровье.За 2 года существования компании мы убедились в важности нашей услуги, нашли целевую аудиторию и выстроили воронки привлечения клиента. Сейчас мы готовы кратно расти и ищем в команду менеджера по персоналу.Чем нужно заниматься:⁃ Массовый и точечный подбор команды на проект (менеджеры по продажам, нутрициологи, маркетинг и тд);⁃ Проведение телефонных интервью с кандидатами, организация собеседований с руководителями направлений и сопровождение кандидатов до момента трудоустройства;⁃ Определение источников поиска и размещение информации о вакансиях (нужно использовать не только стандартные методы поиска, а подбирать оптимальные для каждой вакансии);⁃ Ведение отчетности.Что тебе поможет:⁃ Желание развиваться в сфере подбора персонала;⁃ Опыт работы с массовым подбором будет являться плюсом;⁃ Умение работать в условиях многозадачности (возможность работать над несколькими рабочими направлениями одновременно/параллельно);⁃ Командность, развитые коммуникативные навыки;⁃ Умение пользоваться job сайтами;⁃ Уверенный пользователь ПК;⁃ Для работы потребуется гарнитура, компьютер или ноутбук.Что мы предлагаем:⁃ Удаленная работа из любой точки мира;⁃ Фиксированное вознаграждение + бонус по KPI;⁃ График работы: 5/2 с 9.00 до 18.00 или с 10.00 до 19.00, выходные суббота и воскресенье;⁃ Скидка 30% для тебя и близких на все продукты Dietology.Live;⁃ Абонемент на тренировки с FitStars;⁃ Возможность получать пассивный доход по реферальной программе: 1000 рублей за каждого специалиста или менеджера по продажам, который пройдет отбор в нашу команду. Сотрудничать с Dietology.Live при этом не обязательно — оставить рекомендацию может каждый! </t>
+  </si>
+  <si>
+    <t>BetaOnline — компания цифрового HR-маркетинга с экспертизой в разработке продуктов для онлайн-рекрутмента линейного персонала. Помогаем наполнять, фильтровать и анализировать воронку подбора — и активно растущим средним бизнесам, и корпорациям. Наши продукты входят в реестр отечественного ПО, а достижения позволили получить статус аккредитованной компании, согласно требованиям МинЦифры.Основные продукты - Кадровая Лидогенерация и биржа HR- трафика Lovko.Pro.Клиенты - крупнейшие компании в сфере Retail, FMCG, HoReCa, банки, логистика, услуги.Первый сигнал к тому, что компания готова к расширению - стабильная прибыль.Мы масштабируем бизнес, перестраиваемся структурно с целью трансформировать внутренние процессы, адаптировать бизнес к нагрузке, кратно увеличив прибыль.Став частью команды, вы приобщитесь к общей цели и вместе будем строить новую BetaOnline.Мы приглашаем присоединиться к нашей команде Product manager для развития Личного кабинета нашего продукта.Чем предстоит заниматься:работать над проектом развития личного кабинета большого сервиса, которым уже пользуются десятки компаний;принимать непосредственное участие в составлении стратегии развития продуктов;составлять и оценивать roadmap на спринт/квартал;управлять командой разработки, улучшать процессы и доводить задачи до релиза, вести документацию;лидировать коммуникации со стейкхолдерами;развивать проект с 0 до релиза и достижения целей.Что ожидаем от вас:​​​​​опыт работы от 3-х лет в роли Product manager;опыт создания и управления продуктами для В2В и В2С;понимание продуктовых метрик, аналитики;умение выстроить качественное взаимодействие со стейкхолдерами, командой разработки и аналитики, другими Product managers;инициативность и нацеленность на результат.​​​​​​​Плюсом будет:опыт работы Project manager.Условия:фикс от 180к на руки;гибкий старт рабочего дня и гибридный формат работы;хороший корпоративный соцпакет (ДМС, корпоративное питание, платформа корпоративных скидок);офис в пространстве The Loft на Тульской.</t>
+  </si>
+  <si>
+    <t>МойОфис - крупнейший российский разработчик безопасного офисного ПО для общения и работы с документами. Все продукты кроссплатформенные, доступны для всех популярных ОС, веб-браузеров и мобильных платформ.Ваши будущие задачи:написание автотестов на Pytest/ Robot Framework для тестирования Back-end'а;развитие фреймворков для автоматизированного тестирования;написание скриптов;ведение документации;анализ требований;составление планов, методик и сценарий тестирования;разбор, оценка и анализ результатов тестирования;работа с баг-трекинговыми системами;помощь команде в работе над дефектами (обнаружение, документирование, отслеживание).Для нас важно:2+ года опыта разработки на Python;Robot framework/ Pytest;опыт работы с Docker;уверенный пользователь Unix-систем;хорошее знание технологий REST;понимание микросервисной архитектуры;понимание асинхронных задач (очереди, нотификации);знание методик тестирования клиент-серверных приложений;знание жизненного цикла разработки ПО;умение работать с тестовой документацией и баг-трекинговыми системами;технический английский (письменный).Будет плюсом:опыт нагрузочного тестирования и тестирования безопасности;Gatling + Scala.Основные технологии:Robot framework, Gatling, Scala, Pytest, Gitlab CI/CD, REST API, Docker, Elastic, Kibana, Swagger.О команде:Мы работаем по Scrum и разрабатываем приложения для администрирования и работы с облачной системой хранения данных. Автоматизация происходит внутри команды разработки, автоматизируем всё что можно и что нельзя.Мы предлагаем:работу в стабильной компании с государственной аккредитацией;участие в разработке качественных продуктов, которыми можно гордиться;возможность влиять на продукт;открытость к обсуждению реализации задач и внедрению новых технологий;комфортную атмосферу – мы уважаем друг друга, открыты к общению на любые темы и ценим увлеченных людей;профильные курсы, корпоративный английский, участие в конференциях (в том числе спикером, если есть желание и готовность);приятный социальный пакет – ДМС со стоматологией, оплачиваемое питание, завтраки и перекусы в офисе, частичная компенсация спорта;офис в центре города;гибкое начало рабочего дня;гибридный формат работы (2 дня в офисе/3дня дистанционно).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BetaOnline — компания цифрового HR-маркетинга с экспертизой в разработке продуктов для онлайн-рекрутмента линейного персонала. Помогаем наполнять, фильтровать и анализировать воронку подбора — и активно растущим средним бизнесам, и корпорациям. Наши продукты входят в реестр отечественного ПО, а достижения позволили получить статус аккредитованной компании, согласно требованиям МинЦифры.Основные продукты - Кадровая Лидогенерация и биржа HR- трафика Lovko.Pro.Клиенты - крупнейшие компании в сфере Retail, FMCG, HoReCa, банки, логистика, услуги.Первый сигнал к тому, что компания готова к расширению - стабильная прибыль.Мы масштабируем бизнес, перестраиваемся структурно с целью трансформировать внутренние процессы, адаптировать бизнес к нагрузке, кратно увеличив прибыль.Став частью команды, вы приобщитесь к общей цели и вместе будем строить новую BetaOnline.Мы приглашаем присоединиться к нашей команде Middle backend разработчика в команду разработки Системы Управления Проектами.Наш технологический стек: PHP 8+, Symfony, Doctrine, PostgreSQL, Docker, Linux, Git.Чем у нас предстоит заниматься:разработка и ввод в эксплуатацию сервисов Системы Управления Проектами;участие в проектировании Системы управления проектами;написание unit тестов;code review.Что ожидаем от вас:уверенное владение используемым стеком технологий;четкое понимание и соблюдение рабочего процесса;самостоятельное решение задач и их реализация;навык ведения необходимых рабочих коммуникаций.Что предлагаем мы:фикс( размер в зависимости от навыков) + годовая премия (привязана к плану по выручке);гибкий старт рабочего дня и гибридный формат работы;хороший корпоративный соцпакет (ДМС, корпоративное питание, платформа корпоративных скидок);уютный офис в пространстве The Loft на Тульской. </t>
+  </si>
+  <si>
+    <t>Мы работаем с 2012 году и специализируется на защите от спама для различных сайтов и ресурсов. Мы стремимся сделать Интернет более безопасным и помочь вебмастерам и владельцам сайтов предотвратить вредоносную активность. Мы разработали быстрые и простые плагины для самых популярных CMS, таких как плагин защиты от спама для WordPress, Joomla, Drupal и другие плагины.Задачи:Анализ исходного кода веб-приложений (плагины, темы для CMS) на уязвимости - XSS атаки, редиректы, SQL инъекции, неавторизованный доступ, загрузка вредоносного кода;Автоматизация процесса нахождения типовых уязвимостей веб-приложений;Добавление вирусных сигнатур в облачный сервис безопасности компании;Разработка рекомендаций для улучшения облачного Security сервиса компании на основании обнаруженных уязвимостей;Написание Common Vulnerabilities and Exposures (CVE) отчетов и взаимодействие с авторами приложений в целях устранения найденных уязвимостей;Публикация обнаруженных уязвимостей в блоге компании;Что мы ожидаем:Понимание принципов атак на веб-приложения и информационные системы с использованием уязвимостей;Практический опыт проведения тестирования веб-приложений и информационных систем на уязвимости;Опыт разработки веб-приложений (бэкграунд full-stack разработчика);Знание языков программирования PHP,  JavaScript;Знание стека технологий Web-Servers, CMS, SQL, WAF;Будет плюсом:Знание стека TCP/IP и опыт работы со средствами анализа сетевого трафика (Burp Suite, OWASP ZAP, Fiddler, Wireshark);Знание английского языка на уровне Intermediate и выше;Условия:Возможность работать из любой точки мира!Конкурентную белую зарплату, вилка до 2.500 $;Трудоустройства в американскую компанию (США);Рабочий график 5/2. Возможен гибкий график, но не менее 5 рабочих часов в день должно приходиться на время с 9:00 до 18:00 по местному времени сотрудника;Современные технологии и эффективные подходы к работе. Применяйте актуальные инструменты для успешной работы;Профессиональные и открытые коллеги. Работайте в команде сильных специалистов, основа которой - открытость, человечность, доверие, экологичность общения;Почасовая оплата + премия за найденные уязвимости + квартальная премия + премия за выслугу лет;Медицинская страховка;Мы будем создавать самые интересные решения, которыми пользуются по всему миру - Вместе !</t>
+  </si>
+  <si>
+    <t>Social Discovery Group is an international IT company with a vast portfolio of social discovery products and a market of 140 million users worldwide. For over 20 years, we have been developing premium global online dating services and launching new projects in the segments of entertainment, social games, streaming, and AI inside our very own Innovations Lab.Our team of 700 people based in 11 offices across 5 continents designs innovative products that change the virtual communication experience.We are now looking for a Marketing Director for one of our new product Your tasks will be:Create a strategy for successful user acquisition, performance, brand, and lifecycle marketing;Manage traffic procurement, implement of advertising and A/B testing of creatives;Manage UA campaigns and analyze the performance;Prepare reports and present results at C-Level;Continuing commitment to marketing best practices and marketing effectiveness;Market analysis and competitor actions;Build and maintain strategic relationships with key acquisition partners and platforms. We expect from you:Experience with developing and implementing marketing strategies on international markets (USA, Europe, Asia etc);Strong knowledge of digital/performance marketing (including Google, Facebook, TikTok, etc);Experience with adjusting the technical settings of ad systems and analytical systems;Experience with analyzing and optimizing ad traffic and generating respective reporting;Up-to-date knowledge of key metrics, latest trends, and best practices in online marketing;Clear understanding of the ad networks market: payment models, traffic sources, and ad formats;Excellent written and verbal communication skills;Highly organized with an ability to multitask and prioritize tasks;Creative problem-solving and decision-making skills;Ability to collaborate effectively with teams, departments, stakeholders and C-Level.What we offer:Remote work (you can work from anywhere);Competitive salary;Loyalty bonuses, referral bonuses, bonuses for extraordinary achievements;Access to a wide range of personal training and development programs;Own collection of branded clothing and accessories with corporate logo for different occasions;Library of technical and business literature, lectures on Art&amp;Technology and healthy lifestyle;Internal gamified gratitude system: bonuses from colleagues which you may exchange them for day off, merch, team building activities, massage certificates, etc;7 sick days a year (days off), which can be used to deal with domestic issues, to take a rest and recover without taking sick leave;Health benefits (either Corporate Medical Insurance or compensation for the paychecks, depends on the location);Children’s education reimbursement. 50% compensation for the costs of kindergarten or school, up to $1000 gross per year per a child according to the paychecks;Workplace organization (in the locations where we don't have offices or co-workings there's compensation for your workplace up to $ 1000 gross once every 3 years according to the paychecks -- rent of the co-working room, equipping the working place at home (desk, chair, Internet, etc.);Participation in sports events (rafting, carting), corporate events.</t>
+  </si>
+  <si>
+    <t>На проект крупного банка требуется java developer ( Senior)Задачи:Разработка интернет банкаПроектировать и создавать новую функциональность;Дорабатывать и поддерживать существующую функциональность;Покрывать функционал unit-тестами;Участвовать в процессе code review;Давать оценку сложности разработки и участвовать в планировании;Принимать участие в разработке микросервисной архитектуры и выборе технологий.Наш тех стек:Java 11, Spring Framework;JavaScript, React, Redux;Kafka, PostgeSQL, ELK stack, Casandra, Redis;gRPC;Docker, Kubernetes, Istio.Почему мы:Интересные задачи по созданию амбициозного и масштабного проекта;Только современные технологии и подходы, строим решения с ориентиром на CNCF (Cloud Native Computing Foundation);Возможность выбирать и влиять на архитектуру, инструменты, подходы;Отсутствие "векового" legacy;Гибкие процессы и отсутствие банковской бюрократии.Условия:Мы оформляем по ТК РФ и предлагаем зарплату, которая позволит тебе думать о продукте, а не о завтрашнем дне;Мы аккредитованная Ит компания;ДМС после окончания испытательного срока;Предлагаем топовое железо;Всегда участвуем в передовых конференциях в качестве докладчиков или слушателей;У нас прозрачность и плоская структура, минимум бюрократии и гибкие внутренние процессы;У нас стильный опенспейс в Москва-Сити с панорамным видом на Москва-рекуВозможна удаленная работа с территории РФКорпоративные скидки на маркетплейсах (от самоката до эльдорадо)Все вопросы по вакансии присылайте мне в телеграмм: ​ (+375255042701) либо электронная почта: ​</t>
+  </si>
+  <si>
+    <t>УДАЛЕННЫЙ ФОРМАТ РАБОТЫ НЕ РАССМАТРИВАЕТСЯ!Ваша зона ответственности на данной должности:Анализ рынка и конкурентов (анализ социальных сетей, анализ и составление портрета целевой аудитории, анализ имиджа компании, анализ сервисной составляющей).Разработка маркетинговой стратегии.Формирование маркетингового бюджета.Опрос потребительской лояльности (анкетирование, анализ и интерпретация результатов).Постановка ТЗ и контроль результативности работы подрядчиков (smm, дизайн, полиграфия, интерфейс и функциональность сайтов, таргетированная и контекстная реклама).Позиционирование.Работа с репутацией клиники, работа с отзывами.Разработка стратегии и реализация пиар-кампаний в интернет-пространстве (подбор площадок, размещение рекламы и рекламной интеграции).Коммуникация с клиентами и лечебным отделением для съемок в раздел «Наши пациенты».Организация и проведение фото- и видеосъемок в филиалах клиник и зоомагазинов, подготовка контента.Работа с соцсетями (написание/редакция текстов).Работа с сайтом: обновление и доработка (обновление актуальных цен, трансляция акций, актуальная информация).Налаживание внешних связей с клиниками-партнерами и зоомагазинами, а также врачами и ветеринарным сообществом посредством разработки и внедрения оптимальных условий сотрудничества.Организация внутренних мероприятий сети клиник.Наше предложение:Интересные проекты.График 5/2.Оформление по ТК РФ.Стабильная заработная плата (по результатам собеседования).</t>
+  </si>
+  <si>
+    <t>В нашу дружную семью «Эльбрус Буткемп» мы ищем HR Менеджера / Рекрутера.Эльбрус Буткемп — ведущая сеть буткемпов для программистов с очными кампусами в России и возможностью обучения онлайн. Мы стартовали в 2018 году, и за 5 лет выпустили более 1400 студентов-эльбрусовцев. В команде буткемпа — 68 человек, которых объединяют схожие ценности: доброта, уважение, команда, результат и мышление роста. Наша миссия — подготовка профессиональных разработчиков, готовых и умеющих постоянно развиваться вместе с требованиями сферы. С нами можно работать удаленно или в кампусах в Москве и Санкт-Петербурге. Мы постоянно совершенствуем образовательную программу и прокачиваемся сами, потому что нам важно быть в тренде IT-сферы. Благодаря этому за срок от трех до шести месяцев в зависимости от формата обучения мы даем уверенную базу для старта пути в IT по двум направлениям — Fullstack JavaScript и Data Science (Python). It always seems impossible until it’s done. Новые вершины ждут. Присоединяйтесь к команде Эльбрус Буткемп: мы меняем жизни через образование в сфере технологий — на рабочем месте и за его пределами. Почитайте, пожалуйста, про наши ценности и если это откликается на 100% - напишите нам, даже если считаете, что по каким-то требованиям вакансии не подходите. 🥳Команда – вместе мы сделаем лучше. 📈Результат – мы лидеры и несем ответственность за процесс и итог. 💜Доброта и уважение – мы с уважением и эмпатией относимся ко всем. 👩‍🏫👨‍🏫Growth Mindset – буткемп не только для наших студентов, но и для нас тоже. Мы постоянно учимся и развиваемся. Задачи:➡️ Полный цикл рекрутмента (от снятия запроса по вакансии до онбординга); ➡️ Вакансии: преподаватели направлений Web разработка и Data Science, менеджеры по продажам, маркетинг, IT, руководящие должности, прочее; ➡️ Формирование точного профиля кандидата на открытую вакансию; ➡️ Составление, размещение и отслеживание вакансий на job-сайтах telegram-каналах и других источниках; ➡️ Активный поиск и привлечение кандидатов; ➡️ Создание сильной воронки кандидатов; ➡️ Отбор и оценка кандидатов (анализ резюме, телефонное и личное интервью, тестирование и др.); ➡️ Разработка адаптационных мероприятий (онбординг) для новичков; ➡️ Развитие стратегии управление персоналом и разработка HR процессов в компании (онбординг, развитие персонала и оценка);➡️ Развитие внутренней корпоративной культуры и внешнего HR бренда. Ты подходишь:☑️ Опыт в рекрутменте от 2 лет; ☑️ Опыт массового подбора (позиции в продажах, маркетинге); ☑️ Опыт разработки HR процессов в команде (50-100 человек); ☑️ Интерес к продукту и к обучению в IT; ☑️ Аккуратность и пунктуальность, внимание к деталям; ☑️ Умение расположить собеседников к себе, грамотная письменная и устная речь; ☑️ Лидерские навыки, ответственность за результат. Будет плюсом:➕ Опыт в IT отрасли и найме, ➕ Нетворкинг, ➕ Знание каналов привлечения.Условия:🟣 График работы: 5/2, понедельник-пятница, с 9 до 18; 🟣 Формат работы: гибрид; 🟣 Работа из офисов в Москве, метро Ленинский проспект, или СПб (центр) со всеми вытекающими приятностями: атмосфера, йога, кофе, чай, плюшки, пицца-дни; 🟣 Драйвовый, позитивный, поддерживающий коллектив; 🟣 Возможность реализовать свои идеи, прокачать навыки и экспертизу в области найма в IT сфере.  Будем рады рассказать о школе по телефону, почте или на личной встрече.</t>
+  </si>
+  <si>
+    <t>Риалвеб — digital агентство полного цикла, которое помогает воплощать в жизнь любые бизнес-идеи благодаря синергии современных аналитических подходов, креативных методологий и опыта. Обладатели гран-при по версии RUWARD 2023 в номинации «Весь digital-рынок / агентский hr-бренд года». Входит в состав QIWI Group.Сейчас мы ищем Дизайнера презентаций в Отдел развития.Твоя digital-миссияРазрабатывать структуру, логику и оформление презентаций для клиентов агентства — делать их стильными, функциональными и удобнымиВизуализировать схемы, таблицы, диаграммыРазрабатывать концепции под разные типы презентацийЧто ждём и ценимВиртуозное владение Power Point — это основа :)Опыт работы со стилями, шаблонами, диаграммамиСпособность структурировать и визуализировать данные (инфографика, блок-схемы и т.д.)Хороший уровень насмотренности — будет круто, если поделишься каналами, которые тебя вдохновляют)Кстати! У тебя может не быть опыта работы, но есть портфолио или примеры твоих презентаций, а еще огромное желание работать в рекламном агентстве)Про условияРабота в команде профессионалов с возможностью вертикального и горизонтального карьерного ростаНепрерывное обучение hard и soft skillsКорпоративная культура мечты: словами не передать, это надо видеть! Заходи к нам в социальные сети или прямо в гости в офис :)Самореализация как эксперта и возможность развития личного бренда: помогаем создавать контент и выступать от лица компанииОфициальное трудоустройство, гибридный или удаленный график, частичная компенсация ДМС и психологаОткликайся, если чувствуешь мэтч!</t>
+  </si>
+  <si>
+    <t>Работа в БФ «Помощь» — это перспективные возможности постоянного участия в интересных и социально-ориентированных проектах.Нам нужен новый член команды с активной жизненной позицией, стремлением самореализации и к участию в жизни наших подопечных.Ищем кандидата на должность Фандрайзера (маркетолога) в Санкт-Петербурге: фултайм, работа в офисе, не фриланс.Обязанности:Сопровождение полного цикла работы с частными благотворителями: ведение существующей базы благотворителей, поддержка контактов и удержание.Разработка системы лояльности совместно с командой.Организация и координация digital- и офлайн-кампаний/акций для привлечения новых благотворителей (самостоятельно и с командой).Организация кампаний/акций на увеличение рекуррентных поступлений.Ведение краудфандинговых платформ (полный цикл).Ежемесячная аналитика и оценка эффективности по поступлениям из разных каналов, анализ ЦА фонда.Работа с CRM системой фонда.Привлечение pro bono-специалистов для реализации задач по частному фандрайзингу.Выполнение плана фандрайзинга по частным благотворителям.Наш будущий коллега:Имеет высшее образование и опыт работы (если в НКО, то будет преимуществом).Инициативный человек с организаторскими навыками.Способен сам ставить себе задачи и придерживаться дедлайнов.Уверенный в себе, не теряющийся в переговорах.Умеющий грамотно анализировать финансовую информацию и работать с документами.Условия:График работы: ПН-ПТ с 10:00 до 19:00, обед с 14:00 до 15:00.Официально оформляем по ТК РФ, испытательный срок 3 месяца.Идеальный офис: 5 минут от метро Старая деревня, стильное пространство, фотографии которого впечатлят друзей.Интересные и разноплановые проекты.Супер-адекватный руководитель и амбициозный отзывчивый коллектив.</t>
+  </si>
+  <si>
+    <t>Работа в БФ «Помощь» — это перспективные возможности постоянного участия в интересных и социально-ориентированных проектах.Нам нужен новый член команды с активной жизненной позицией, стремлением самореализации и к участию в жизни наших подопечных.Ищем кандидата на должность SMM-менеджера в Санкт-Петербурге: частичная занятость. Обязанности:Подготовка контента и его публикация во всех социальных сетях фонда (VK, Inst, Дзен, Tg).Коммуникация с подписчиками фонда в соцсетях.Составление гибкого контент-план на несколько недель вперед.Анализ показателей и ведение отчетности.Выполнение маркетинговых показателей.Периодически нужно будет выезжать на мероприятия фонда.Наш будущий коллега:Имеет опыт работы и портфолио, которое может показать.Умеет писать текст и имеет безупречную грамотность.Способен сам ставить себе задачи и придерживаться дедлайнов.Условия:График работы: по договоренности (пятидневка+фиксированное количество часов в день, пару раз в месяц встречи в офисе).Официально оформляем по ТК РФ, испытательный срок 3 месяца.Идеальный офис: 5 минут от метро Старая деревня, стильное пространство, фотографии которого впечатлят друзей.Интересные и разноплановые проекты.Супер-адекватный руководитель и амбициозный отзывчивый коллектив.</t>
+  </si>
+  <si>
+    <t>Привет!Мы рады видеть тебя на этой странице :)В Smartex мы занимаемся разработкой ИТ-продуктов и сервисов на заказ.Сейчас у нас запускаются новые проекты для отечественных компаний, поэтому мы ищем frontend-разработчика, который поможет снизить нагрузку на команду в текущих highload-проектах.Про примеры проектов можно почитать тут: https://www.smartex-it.com/casesО команде:Вся команда работает удаленно с 2016 года. Сейчас в ней 9 разработчиков с опытом от 1,5 до 11 лет.За последние годы мы комфортно и эффективно организовали распределенную разработку, поэтому все проекты сдаем в срок.Мы занимаемся технически сложными и высоконагруженными проектами. Нам доверяют: аналитику, проектирование интерфейсов и дизайн, разработку, инфраструктуру и эксплуатацию.Мы становимся технической командой проекта целиком. В некоторых случаях консультируем и расширяем возможности существующих команд наших клиентов.Внутри отдела мы общаемся в Slack, где решаем текущие рабочие вопросы.Кроме этого у каждого нового сотрудника есть выделенный наставник, который всегда поделится опытом и подскажет решение, если ты застрял на какой-то задаче.Что мы делаем для твоего профессионального развития:1. Performance review.Мы считаем, что своих сотрудников нужно развивать, поэтому мы регулярно даем обратную связь и проговариваем карту развития для каждого сотрудника.2. Софинансируем расходы на твоё развитие.Компания компенсирует половину твоих расходов на обучение в оффлайне или онлайне.А покупку книг мы компенсируем полностью.⚡️ Стек используемых технологий:ES6Vue.js / NuxtБэкэнд: Python 3, Node.js / ExpressVCS: BitbucketСистемное окружение: Docker, TeamCity, AWS, Яндекс.ОблакоВыделенные тестовые окружения✅ Обязанности:Поддерживать и развивать функционал веб-приложений (SPA)Реализовывать современные Responsive-интерфейсыУчаствовать в планировании и оценке задач✅ Требования:Опыт разработки на Vue от 3 летОпыт frontend-разработки от 3 летОтличное знание ES5 / ES6Владение современными практиками реализации Responsive-интерфейсовУмение выстроить свою работу, разбить ее на шаги и добиваться результата в срок✅ Условия:Проектная занятость (3-4 месяца)Работа в аккредитованной ИТ-компанииPerformance review: ты регулярно будешь получать фидбэк от техлида и узнавать о своих зонах развитияПодробные спецификации задач, отлаженные процессы аналитики и контроля качестваХорошо документированные, структурированные и постоянно развивающиеся проектыКомфорт в работе: ориентируемся на результат, предпочитаем правильные коммуникации, обходимся без лишних совещаний и при этом не молчим часами в ответ на вопросыУчаствуем в развитии твоего личного бренда: помогаем с написанием статей и готовим к выступлению на конференцияхГибкий график и полная удаленкаКонкурентную зарплату (ее уровень зависит от твоего опыта и навыков)Компенсацию 50% расходов на профессиональное обучение и курсы, занятия спортом и английским языкомОформление в штат по удобному для тебя формату (ТК, ИП, самозанятость или ГПХ)Большая просьба: в сопроводительном письме напиши, пожалуйста, готов ли ты к проектной занятости и был ли у тебя такой опыт работы.Ждём тебя в нашей команде!</t>
+  </si>
+  <si>
+    <t>Обязанности:Разработка пользовательского интерфейса с использованием React и других современных технологий веб-разработки.Участие в проектировании и разработке новых функций и компонентов.Взаимодействие с бэкенд-командой для интеграции фронтенда с серверными API.Тестирование и отладка разработанных компонентов и функциональности.Требования:Опыт работы с React и основными концепциями веб-разработки.Знание HTML, CSS и JavaScript.Понимание принципов разработки пользовательского интерфейса и умение создавать привлекательные и отзывчивые веб-приложения.Желание обучаться новым технологиям и улучшать свои навыки в области фронтенда.Опыт работы с Git или другими системами контроля версий.Будет преимуществом:Знание Redux или других библиотек управления состоянием.Опыт работы с RESTful API и асинхронным программированием.Знание тестирования React-компонентов с использованием Jest или других фреймворков тестирования.</t>
+  </si>
+  <si>
+    <t>Cryptopay – одна из первых компаний на рынке криптовалютно-фиатных кошельков, основанная в 2013 году. Да-да, мы застали период, когда биткоин только рос, но также видели и как он падал. Тем не менее наш сервис всегда оставался стабильным, а клиенты улыбались :)Клиенты компании – это более полумиллиона пользователей по всему миру. Для нас криптовалюта не только инструмент заработка на бирже, но и возможность создавать удобные продукты и решать насущные проблемы хранения, обмена, денежных переводов, инвестиций и финансовой независимости в разных странах. Мы одни из первых на рынке запустили предоплаченные карты с моментальным обменом для пользователей криптовалюты.В основе идеологии компании – поиск решений на стыке традиционных финансовых инструментов и новейших технологий. В результате которого, мы предлагаем множество оригинальных и индивидуальных решений для B2C и B2B.Сейчас наши задачи – это выход на новые рынки, развитие продукта и счастливые клиенты. Так что наша команда в поисках талантов, которые помогут сделать лучший продукт в криптосфере!Мы находимся в поисках коллеги в команду разработки для выполнения следующих задач:Разработка видения, стратегии и приоритетов продукта B2B;Регулярное исследование рынка, конкурентов и их показателей;Определение приоритетов потребностей в продуктах в соответствии с бизнес-целями;Общение и переговоры с партнерами;Определение бюджета, графика выпуска и объема работ, дорожной карты, невыполненной работы;Формирование гипотез о продукте и их тестирование: разработка для клиентов, A/B-тестирование, UX-тесты и т.д.;Управление командой;Оценка эффективности выполнения задач.Для успешного выполнения задач понадобятся:Опыт проведения анализа и сегментации рынка и аудитории;5+ лет релевантного опыта работы в сфере B2B-платежей (billing, payment service provider, fintech, e-wallet);Опыт постановки и отслеживания целей/задач/ показателей для команды;Опыт взаимодействия с дизайнерами, аналитиками и командой разработчиков;Умение работать с метриками, AB-тестами, Unit Economics для понимания и увеличения конверсии продукта;Умение анализировать тенденции рынка и, соответственно, развивать продукт в правильном направлении;Хорошие коммуникативные навыки и способность эффективно управлять командой;Английский на уровне Upper-Intermediate;Опыт или отличное знание блокчейн-индустрии будут преимуществом.Мы предлагаем:Возможность предлагать и реализовывать продуктовые решения;Увлеченные своим делом коллеги, которым не безразлично развитие продукта;Адекватное руководство, которое умеет слышать и слушать, а при спорных решениях ориентируется на цифры;Комфортные условия работы;Возможность работать из любой точки мира.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA junior={'Junior'}
+MA pm={'Junior Project Manager'}
+MA pm={'project manager'}
+MA pm={'project manager'}
+MA pm={'project manager'}
+MA pm={'Junior Project Manager'}
+MA pm={'project manager'}
+MA pm={'project manager'}
+MA pm={'project manager'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA analyst={'Системный аналитик'}
+MA analyst={'аналитик'}
+MA analyst={'Системный аналитик'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA junior={'Стажер'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={' php'}
+MA backend={'php'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={' go '}
+MA backend={'Python'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA junior={'от 1 года'}
+MA marketing={'контент'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA sales_manager={'Менеджер по продаж'}
+MA sales_manager={'sales manager'}
+MA sales_manager={'sales manager'}
+MA sales_manager={'sales manager'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'Python'}
+MA backend={'Python разработчик'}
+MA backend={'Python разработчик'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA analyst={'Product Analyst'}
+MA analyst={'Продуктовый аналитик'}
+MA analyst={'аналитик'}
+MA analyst={'Analyst'}
+MA analyst={'Analyst '}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'seo'}
+MA marketing={'seo-специалист'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'Python'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'smm'}
+MA marketing={'smm manager'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'таргетолог'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA junior={'Junior'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'user acquisition'}
+MA sales_manager={'user acquisition'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'Backend-разработчик'}
+MA backend={'backend-разработчик'}
+MA backend={'Backend'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'golang'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA sales_manager={'Менеджер по продаж'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'Маркетолог'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA designer={'ux'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA devops={'DevOps'}
+MA devops={'devops'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA devops={'администратор'}
+MA devops={'администратор'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'c++'}
+MA backend={'back-end'}
+MA backend={'Ruby'}
+MA backend={'java '}
+MA backend={' go '}
+MA backend={' c '}
+MA backend={'cto'}
+MA backend={'java '}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'java '}
+MA backend={'java '}
+MA backend={'Java Developer'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA hr={' hr'}
+MA hr={'кадр'}
+MA hr={'кадр'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA pm={'менеджер проект'}
+MA pm={'project manager'}
+MA pm={'Менеджер проект'}
+MA pm={'project manager'}
+MA pm={'project manager'}
+MA pm={'менеджер проект'}
+MA pm={'project manager'}
+MA pm={'Менеджер проект'}
+MA pm={'project manager'}
+MA pm={'project manager'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'Data Engineer'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'1с'}
+MA analyst={'Аналитик'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'java разработчик'}
+MA backend={'java '}
+MA backend={'java ', 'java\xa0'}
+MA backend={'Java разработчик'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA mobile={'ios разработчик'}
+MA mobile={'ios разработчик'}
+MA mobile={'ios'}
+MA mobile={'iOS разработчик'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA pm={'менеджер проект'}
+MA pm={'менеджер проект'}
+MA pm={'менеджер проект'}
+MA pm={'менеджер проект'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA frontend={'angular'}
+MA frontend={'Frontend'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA pm={'/cpo'}
+MA pm={'/cpo'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'backend developer'}
+MA backend={'Python'}
+MA backend={'Backend'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'backend developer'}
+MA backend={'golang'}
+MA backend={'Backend'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA sales_manager={'sales manager'}
+MA sales_manager={'sales manager'}
+MA sales_manager={'sales manager'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA designer={'ui'}
+MA hr={' hr'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA frontend={'битрикс'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA mobile={'Android developer'}
+MA mobile={'android developer'}
+MA mobile={'android'}
+MA mobile={'Android разработчик'}
+MA mobile={'android'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA devops={'DevOps'}
+MA devops={'devops'}
+MA devops={'DevOps-инженер'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA qa={'QA '}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={' php'}
+MA backend={'Backend разработчик'}
+MA backend={'Backend'}
+MA backend={'php'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'cto'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA backend={'javas'}
+MA backend={'Python'}
+MA frontend={'JavaScript'}
+MA hr={' hr'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA designer={'Дизайнер'}
+MA designer={'презентаций'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'маркетолог'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA marketing={'smm-менеджер'}
+MA marketing={'smm'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA frontend={'Frontend developer'}
+MA frontend={'Frontend'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA junior={'Junior'}
+MA frontend={' react '}
+MA frontend={'react'}
+MA mobile={'react developer'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'аудитор'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX pm={'менеджер it-проектов'}
+MEX pm={'менеджер it-проектов'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX junior={'middle'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'конструктор'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX analyst={'data scientist'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'редактор'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX designer={'user acquisition'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'cv'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'атегорийный'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'запчастей'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX analyst={'backend'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX vacancy={'ипотека'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX pm={'Product manager'}
+MEX pm={'Product manager'}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX backend={'QA '}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX marketing={'cto'}
 </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>https://ru.ingamejob.com/ru/job/unreal-engine-developer-41</t>
+    <t>pm, junior</t>
+  </si>
+  <si>
+    <t>analyst</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>no_sort</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>junior, marketing</t>
+  </si>
+  <si>
+    <t>sales_manager</t>
+  </si>
+  <si>
+    <t>marketing</t>
   </si>
   <si>
     <t>designer</t>
   </si>
   <si>
-    <t>game</t>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>junior, frontend</t>
   </si>
 </sst>
 </file>
@@ -583,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,46 +1575,46 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -697,46 +1625,46 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -747,46 +1675,46 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -797,46 +1725,3870 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>308</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M7" t="s">
+        <v>308</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" t="s">
+        <v>308</v>
+      </c>
+      <c r="M9" t="s">
+        <v>308</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>308</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>308</v>
+      </c>
+      <c r="M10" t="s">
+        <v>308</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>308</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11" t="s">
+        <v>308</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>308</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L12" t="s">
+        <v>308</v>
+      </c>
+      <c r="M12" t="s">
+        <v>308</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>308</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" t="s">
+        <v>308</v>
+      </c>
+      <c r="L13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M13" t="s">
+        <v>308</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>308</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" t="s">
+        <v>308</v>
+      </c>
+      <c r="M14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>308</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K15" t="s">
+        <v>308</v>
+      </c>
+      <c r="L15" t="s">
+        <v>308</v>
+      </c>
+      <c r="M15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>308</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" t="s">
+        <v>308</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16" t="s">
+        <v>308</v>
+      </c>
+      <c r="M16" t="s">
+        <v>308</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" t="s">
+        <v>308</v>
+      </c>
+      <c r="J17" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" t="s">
+        <v>308</v>
+      </c>
+      <c r="L17" t="s">
+        <v>308</v>
+      </c>
+      <c r="M17" t="s">
+        <v>308</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>308</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" t="s">
+        <v>308</v>
+      </c>
+      <c r="I18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18" t="s">
+        <v>308</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" t="s">
+        <v>308</v>
+      </c>
+      <c r="L19" t="s">
+        <v>308</v>
+      </c>
+      <c r="M19" t="s">
+        <v>308</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+      <c r="J20" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" t="s">
+        <v>308</v>
+      </c>
+      <c r="L20" t="s">
+        <v>308</v>
+      </c>
+      <c r="M20" t="s">
+        <v>308</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>308</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" t="s">
+        <v>308</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" t="s">
+        <v>308</v>
+      </c>
+      <c r="M21" t="s">
+        <v>308</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>308</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" t="s">
+        <v>308</v>
+      </c>
+      <c r="I22" t="s">
+        <v>308</v>
+      </c>
+      <c r="J22" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" t="s">
+        <v>308</v>
+      </c>
+      <c r="L22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>308</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" t="s">
+        <v>308</v>
+      </c>
+      <c r="I23" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" t="s">
+        <v>308</v>
+      </c>
+      <c r="L23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>308</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" t="s">
+        <v>308</v>
+      </c>
+      <c r="J24" t="s">
+        <v>308</v>
+      </c>
+      <c r="K24" t="s">
+        <v>308</v>
+      </c>
+      <c r="L24" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24" t="s">
+        <v>308</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>308</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" t="s">
+        <v>308</v>
+      </c>
+      <c r="I25" t="s">
+        <v>308</v>
+      </c>
+      <c r="J25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" t="s">
+        <v>308</v>
+      </c>
+      <c r="L25" t="s">
+        <v>308</v>
+      </c>
+      <c r="M25" t="s">
+        <v>308</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26" t="s">
+        <v>308</v>
+      </c>
+      <c r="I26" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" t="s">
+        <v>308</v>
+      </c>
+      <c r="L26" t="s">
+        <v>308</v>
+      </c>
+      <c r="M26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>308</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="H27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" t="s">
+        <v>308</v>
+      </c>
+      <c r="J27" t="s">
+        <v>308</v>
+      </c>
+      <c r="K27" t="s">
+        <v>308</v>
+      </c>
+      <c r="L27" t="s">
+        <v>308</v>
+      </c>
+      <c r="M27" t="s">
+        <v>308</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>308</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H28" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" t="s">
+        <v>308</v>
+      </c>
+      <c r="J28" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" t="s">
+        <v>308</v>
+      </c>
+      <c r="L28" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" t="s">
+        <v>308</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>308</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I29" t="s">
+        <v>308</v>
+      </c>
+      <c r="J29" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" t="s">
+        <v>308</v>
+      </c>
+      <c r="L29" t="s">
+        <v>308</v>
+      </c>
+      <c r="M29" t="s">
+        <v>308</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>308</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>293</v>
+      </c>
+      <c r="H30" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K30" t="s">
+        <v>308</v>
+      </c>
+      <c r="L30" t="s">
+        <v>308</v>
+      </c>
+      <c r="M30" t="s">
+        <v>308</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>308</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I31" t="s">
+        <v>308</v>
+      </c>
+      <c r="J31" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" t="s">
+        <v>308</v>
+      </c>
+      <c r="M31" t="s">
+        <v>308</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>308</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="H32" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" t="s">
+        <v>308</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="s">
+        <v>308</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>308</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>308</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="s">
+        <v>308</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>308</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" t="s">
+        <v>308</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>308</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s">
+        <v>308</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>308</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="s">
+        <v>308</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>308</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" t="s">
+        <v>308</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="s">
+        <v>308</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>308</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
         <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="s">
+        <v>308</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>308</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" t="s">
+        <v>308</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" t="s">
+        <v>128</v>
+      </c>
+      <c r="K38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="s">
+        <v>308</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>308</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" t="s">
+        <v>308</v>
+      </c>
+      <c r="I39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J39" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" t="s">
+        <v>202</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="s">
+        <v>308</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>308</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" t="s">
+        <v>308</v>
+      </c>
+      <c r="I40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>308</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" t="s">
+        <v>308</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" t="s">
+        <v>308</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>308</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>296</v>
+      </c>
+      <c r="H42" t="s">
+        <v>308</v>
+      </c>
+      <c r="I42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J42" t="s">
+        <v>308</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>308</v>
+      </c>
+      <c r="M42" t="s">
+        <v>308</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>308</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="s">
+        <v>308</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>308</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>308</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>308</v>
+      </c>
+      <c r="M44" t="s">
+        <v>308</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>308</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s">
+        <v>308</v>
+      </c>
+      <c r="M45" t="s">
+        <v>308</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>308</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" t="s">
+        <v>308</v>
+      </c>
+      <c r="I46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M46" t="s">
+        <v>308</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>308</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" t="s">
+        <v>308</v>
+      </c>
+      <c r="I47" t="s">
+        <v>308</v>
+      </c>
+      <c r="J47" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47" t="s">
+        <v>210</v>
+      </c>
+      <c r="L47" t="s">
+        <v>308</v>
+      </c>
+      <c r="M47" t="s">
+        <v>308</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>308</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>260</v>
+      </c>
+      <c r="H48" t="s">
+        <v>308</v>
+      </c>
+      <c r="I48" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" t="s">
+        <v>308</v>
+      </c>
+      <c r="K48" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" t="s">
+        <v>308</v>
+      </c>
+      <c r="M48" t="s">
+        <v>308</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>308</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H49" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" t="s">
+        <v>308</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>308</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50" t="s">
+        <v>308</v>
+      </c>
+      <c r="I50" t="s">
+        <v>308</v>
+      </c>
+      <c r="J50" t="s">
+        <v>308</v>
+      </c>
+      <c r="K50" t="s">
+        <v>308</v>
+      </c>
+      <c r="L50" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" t="s">
+        <v>308</v>
+      </c>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>308</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" t="s">
+        <v>308</v>
+      </c>
+      <c r="I51" t="s">
+        <v>308</v>
+      </c>
+      <c r="J51" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M51" t="s">
+        <v>308</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>308</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52" t="s">
+        <v>308</v>
+      </c>
+      <c r="I52" t="s">
+        <v>308</v>
+      </c>
+      <c r="J52" t="s">
+        <v>308</v>
+      </c>
+      <c r="K52" t="s">
+        <v>308</v>
+      </c>
+      <c r="L52" t="s">
+        <v>308</v>
+      </c>
+      <c r="M52" t="s">
+        <v>308</v>
+      </c>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>308</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" t="s">
+        <v>308</v>
+      </c>
+      <c r="I53" t="s">
+        <v>308</v>
+      </c>
+      <c r="J53" t="s">
+        <v>308</v>
+      </c>
+      <c r="K53" t="s">
+        <v>308</v>
+      </c>
+      <c r="L53" t="s">
+        <v>308</v>
+      </c>
+      <c r="M53" t="s">
+        <v>308</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>308</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H54" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" t="s">
+        <v>308</v>
+      </c>
+      <c r="K54" t="s">
+        <v>308</v>
+      </c>
+      <c r="L54" t="s">
+        <v>308</v>
+      </c>
+      <c r="M54" t="s">
+        <v>308</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>308</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" t="s">
+        <v>308</v>
+      </c>
+      <c r="I55" t="s">
+        <v>308</v>
+      </c>
+      <c r="J55" t="s">
+        <v>308</v>
+      </c>
+      <c r="K55" t="s">
+        <v>308</v>
+      </c>
+      <c r="L55" t="s">
+        <v>308</v>
+      </c>
+      <c r="M55" t="s">
+        <v>308</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>308</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H56" t="s">
+        <v>308</v>
+      </c>
+      <c r="I56" t="s">
+        <v>308</v>
+      </c>
+      <c r="J56" t="s">
+        <v>308</v>
+      </c>
+      <c r="K56" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" t="s">
+        <v>308</v>
+      </c>
+      <c r="M56" t="s">
+        <v>308</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>308</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" t="s">
+        <v>303</v>
+      </c>
+      <c r="H57" t="s">
+        <v>308</v>
+      </c>
+      <c r="I57" t="s">
+        <v>308</v>
+      </c>
+      <c r="J57" t="s">
+        <v>308</v>
+      </c>
+      <c r="K57" t="s">
+        <v>308</v>
+      </c>
+      <c r="L57" t="s">
+        <v>308</v>
+      </c>
+      <c r="M57" t="s">
+        <v>308</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>308</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" t="s">
+        <v>308</v>
+      </c>
+      <c r="K58" t="s">
+        <v>308</v>
+      </c>
+      <c r="L58" t="s">
+        <v>308</v>
+      </c>
+      <c r="M58" t="s">
+        <v>308</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>308</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>280</v>
+      </c>
+      <c r="H59" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" t="s">
+        <v>308</v>
+      </c>
+      <c r="J59" t="s">
+        <v>308</v>
+      </c>
+      <c r="K59" t="s">
+        <v>308</v>
+      </c>
+      <c r="L59" t="s">
+        <v>308</v>
+      </c>
+      <c r="M59" t="s">
+        <v>308</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>308</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>281</v>
+      </c>
+      <c r="H60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60" t="s">
+        <v>308</v>
+      </c>
+      <c r="J60" t="s">
+        <v>308</v>
+      </c>
+      <c r="K60" t="s">
+        <v>308</v>
+      </c>
+      <c r="L60" t="s">
+        <v>308</v>
+      </c>
+      <c r="M60" t="s">
+        <v>308</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>308</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" t="s">
+        <v>308</v>
+      </c>
+      <c r="I61" t="s">
+        <v>308</v>
+      </c>
+      <c r="J61" t="s">
+        <v>308</v>
+      </c>
+      <c r="K61" t="s">
+        <v>308</v>
+      </c>
+      <c r="L61" t="s">
+        <v>308</v>
+      </c>
+      <c r="M61" t="s">
+        <v>308</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>308</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>282</v>
+      </c>
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" t="s">
+        <v>308</v>
+      </c>
+      <c r="J62" t="s">
+        <v>308</v>
+      </c>
+      <c r="K62" t="s">
+        <v>308</v>
+      </c>
+      <c r="L62" t="s">
+        <v>308</v>
+      </c>
+      <c r="M62" t="s">
+        <v>308</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>308</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" t="s">
+        <v>308</v>
+      </c>
+      <c r="I63" t="s">
+        <v>308</v>
+      </c>
+      <c r="J63" t="s">
+        <v>308</v>
+      </c>
+      <c r="K63" t="s">
+        <v>308</v>
+      </c>
+      <c r="L63" t="s">
+        <v>308</v>
+      </c>
+      <c r="M63" t="s">
+        <v>308</v>
+      </c>
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>308</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" t="s">
+        <v>308</v>
+      </c>
+      <c r="I64" t="s">
+        <v>308</v>
+      </c>
+      <c r="J64" t="s">
+        <v>308</v>
+      </c>
+      <c r="K64" t="s">
+        <v>308</v>
+      </c>
+      <c r="L64" t="s">
+        <v>308</v>
+      </c>
+      <c r="M64" t="s">
+        <v>308</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>308</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>283</v>
+      </c>
+      <c r="H65" t="s">
+        <v>308</v>
+      </c>
+      <c r="I65" t="s">
+        <v>308</v>
+      </c>
+      <c r="J65" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" t="s">
+        <v>308</v>
+      </c>
+      <c r="L65" t="s">
+        <v>308</v>
+      </c>
+      <c r="M65" t="s">
+        <v>308</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>308</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>293</v>
+      </c>
+      <c r="H66" t="s">
+        <v>308</v>
+      </c>
+      <c r="I66" t="s">
+        <v>308</v>
+      </c>
+      <c r="J66" t="s">
+        <v>308</v>
+      </c>
+      <c r="K66" t="s">
+        <v>308</v>
+      </c>
+      <c r="L66" t="s">
+        <v>308</v>
+      </c>
+      <c r="M66" t="s">
+        <v>308</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>308</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" t="s">
+        <v>308</v>
+      </c>
+      <c r="I67" t="s">
+        <v>308</v>
+      </c>
+      <c r="J67" t="s">
+        <v>308</v>
+      </c>
+      <c r="K67" t="s">
+        <v>308</v>
+      </c>
+      <c r="L67" t="s">
+        <v>308</v>
+      </c>
+      <c r="M67" t="s">
+        <v>308</v>
+      </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>308</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>305</v>
+      </c>
+      <c r="H68" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" t="s">
+        <v>308</v>
+      </c>
+      <c r="K68" t="s">
+        <v>308</v>
+      </c>
+      <c r="L68" t="s">
+        <v>308</v>
+      </c>
+      <c r="M68" t="s">
+        <v>308</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>308</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>284</v>
+      </c>
+      <c r="G69" t="s">
+        <v>306</v>
+      </c>
+      <c r="H69" t="s">
+        <v>308</v>
+      </c>
+      <c r="I69" t="s">
+        <v>308</v>
+      </c>
+      <c r="J69" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69" t="s">
+        <v>308</v>
+      </c>
+      <c r="L69" t="s">
+        <v>308</v>
+      </c>
+      <c r="M69" t="s">
+        <v>308</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>308</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="H70" t="s">
+        <v>308</v>
+      </c>
+      <c r="I70" t="s">
+        <v>308</v>
+      </c>
+      <c r="J70" t="s">
+        <v>308</v>
+      </c>
+      <c r="K70" t="s">
+        <v>308</v>
+      </c>
+      <c r="L70" t="s">
+        <v>308</v>
+      </c>
+      <c r="M70" t="s">
+        <v>308</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>308</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>300</v>
+      </c>
+      <c r="H71" t="s">
+        <v>308</v>
+      </c>
+      <c r="I71" t="s">
+        <v>308</v>
+      </c>
+      <c r="J71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K71" t="s">
+        <v>308</v>
+      </c>
+      <c r="L71" t="s">
+        <v>308</v>
+      </c>
+      <c r="M71" t="s">
+        <v>308</v>
+      </c>
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>308</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>286</v>
+      </c>
+      <c r="G72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" t="s">
+        <v>308</v>
+      </c>
+      <c r="I72" t="s">
+        <v>308</v>
+      </c>
+      <c r="J72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K72" t="s">
+        <v>308</v>
+      </c>
+      <c r="L72" t="s">
+        <v>308</v>
+      </c>
+      <c r="M72" t="s">
+        <v>308</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>308</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
+        <v>235</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>267</v>
+      </c>
+      <c r="H73" t="s">
+        <v>308</v>
+      </c>
+      <c r="I73" t="s">
+        <v>308</v>
+      </c>
+      <c r="J73" t="s">
+        <v>308</v>
+      </c>
+      <c r="K73" t="s">
+        <v>308</v>
+      </c>
+      <c r="L73" t="s">
+        <v>308</v>
+      </c>
+      <c r="M73" t="s">
+        <v>308</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>308</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" t="s">
+        <v>308</v>
+      </c>
+      <c r="I74" t="s">
+        <v>308</v>
+      </c>
+      <c r="J74" t="s">
+        <v>308</v>
+      </c>
+      <c r="K74" t="s">
+        <v>308</v>
+      </c>
+      <c r="L74" t="s">
+        <v>308</v>
+      </c>
+      <c r="M74" t="s">
+        <v>308</v>
+      </c>
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>308</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>287</v>
+      </c>
+      <c r="H75" t="s">
+        <v>308</v>
+      </c>
+      <c r="I75" t="s">
+        <v>308</v>
+      </c>
+      <c r="J75" t="s">
+        <v>308</v>
+      </c>
+      <c r="K75" t="s">
+        <v>308</v>
+      </c>
+      <c r="L75" t="s">
+        <v>308</v>
+      </c>
+      <c r="M75" t="s">
+        <v>308</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>308</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>288</v>
+      </c>
+      <c r="H76" t="s">
+        <v>308</v>
+      </c>
+      <c r="I76" t="s">
+        <v>308</v>
+      </c>
+      <c r="J76" t="s">
+        <v>308</v>
+      </c>
+      <c r="K76" t="s">
+        <v>308</v>
+      </c>
+      <c r="L76" t="s">
+        <v>308</v>
+      </c>
+      <c r="M76" t="s">
+        <v>308</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>308</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" t="s">
+        <v>308</v>
+      </c>
+      <c r="I77" t="s">
+        <v>308</v>
+      </c>
+      <c r="J77" t="s">
+        <v>308</v>
+      </c>
+      <c r="K77" t="s">
+        <v>308</v>
+      </c>
+      <c r="L77" t="s">
+        <v>308</v>
+      </c>
+      <c r="M77" t="s">
+        <v>308</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>308</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>290</v>
+      </c>
+      <c r="H78" t="s">
+        <v>308</v>
+      </c>
+      <c r="I78" t="s">
+        <v>308</v>
+      </c>
+      <c r="J78" t="s">
+        <v>308</v>
+      </c>
+      <c r="K78" t="s">
+        <v>308</v>
+      </c>
+      <c r="L78" t="s">
+        <v>308</v>
+      </c>
+      <c r="M78" t="s">
+        <v>308</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>308</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" t="s">
+        <v>308</v>
+      </c>
+      <c r="I79" t="s">
+        <v>308</v>
+      </c>
+      <c r="J79" t="s">
+        <v>308</v>
+      </c>
+      <c r="K79" t="s">
+        <v>308</v>
+      </c>
+      <c r="L79" t="s">
+        <v>308</v>
+      </c>
+      <c r="M79" t="s">
+        <v>308</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>308</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>292</v>
+      </c>
+      <c r="H80" t="s">
+        <v>308</v>
+      </c>
+      <c r="I80" t="s">
+        <v>308</v>
+      </c>
+      <c r="J80" t="s">
+        <v>308</v>
+      </c>
+      <c r="K80" t="s">
+        <v>308</v>
+      </c>
+      <c r="L80" t="s">
+        <v>308</v>
+      </c>
+      <c r="M80" t="s">
+        <v>308</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>308</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" t="s">
+        <v>308</v>
+      </c>
+      <c r="I81" t="s">
+        <v>308</v>
+      </c>
+      <c r="J81" t="s">
+        <v>308</v>
+      </c>
+      <c r="K81" t="s">
+        <v>308</v>
+      </c>
+      <c r="L81" t="s">
+        <v>308</v>
+      </c>
+      <c r="M81" t="s">
+        <v>308</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>308</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +5597,82 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
